--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{ADC6CF12-03D9-A647-9AE4-EBC56F967173}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21040" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10960" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21040" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10960"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -25,7 +25,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="480">
   <si>
     <t>description</t>
   </si>
@@ -1502,13 +1502,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1679,8 +1682,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1852,8 +1949,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2173,6 +2423,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2180,7 +2712,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="67">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2309,49 +2841,94 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2738,7 +3315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA116"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3069,7 +3646,7 @@
         <v>319</v>
       </c>
       <c r="F5" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="H5" t="s">
         <v>331</v>
@@ -3131,7 +3708,7 @@
         <v>371</v>
       </c>
       <c r="F6" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -3187,7 +3764,7 @@
         <v>349</v>
       </c>
       <c r="F7" t="s">
-        <v>311</v>
+        <v>449</v>
       </c>
       <c r="I7" t="s">
         <v>71</v>
@@ -3243,7 +3820,7 @@
         <v>350</v>
       </c>
       <c r="F8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -3296,7 +3873,7 @@
         <v>289</v>
       </c>
       <c r="F9" t="s">
-        <v>454</v>
+        <v>312</v>
       </c>
       <c r="I9" t="s">
         <v>373</v>
@@ -3337,7 +3914,7 @@
         <v>335</v>
       </c>
       <c r="F10" t="s">
-        <v>305</v>
+        <v>454</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -3375,7 +3952,7 @@
         <v>257</v>
       </c>
       <c r="F11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -3410,7 +3987,7 @@
         <v>246</v>
       </c>
       <c r="F12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I12" t="s">
         <v>72</v>
@@ -3442,7 +4019,7 @@
         <v>299</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I13" t="s">
         <v>73</v>
@@ -3472,6 +4049,9 @@
       </c>
       <c r="E14" t="s">
         <v>247</v>
+      </c>
+      <c r="F14" t="s">
+        <v>308</v>
       </c>
       <c r="I14" t="s">
         <v>74</v>
@@ -4380,7 +4960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P993"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="100" zoomScaleNormal="125" tabSelected="true">
+    <sheetView tabSelected="true" topLeftCell="B1" workbookViewId="0" zoomScale="100" zoomScaleNormal="125">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -32270,7 +32850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF2450E-BFC9-8D49-B16D-217B24389096}">
   <dimension ref="A1:P992"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScale="100" zoomScaleNormal="125" tabSelected="false">
+    <sheetView tabSelected="false" topLeftCell="B1" workbookViewId="0" zoomScale="100" zoomScaleNormal="125">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="481">
   <si>
     <t>description</t>
   </si>
@@ -1505,13 +1505,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="71" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1776,8 +1779,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2102,8 +2293,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -2705,6 +3202,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2712,7 +3773,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="97">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2886,49 +3947,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="28" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="43" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="44" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4054,7 +5205,7 @@
         <v>308</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>480</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
@@ -4083,7 +5234,7 @@
         <v>248</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M15" t="s">
         <v>425</v>
@@ -4109,7 +5260,7 @@
         <v>300</v>
       </c>
       <c r="I16" t="s">
-        <v>363</v>
+        <v>75</v>
       </c>
       <c r="N16" t="s">
         <v>235</v>
@@ -4132,7 +5283,7 @@
         <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>363</v>
       </c>
       <c r="U17" t="s">
         <v>90</v>
@@ -4149,7 +5300,7 @@
         <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>375</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s">
         <v>91</v>
@@ -4166,7 +5317,7 @@
         <v>279</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="U19" t="s">
         <v>92</v>
@@ -4183,7 +5334,7 @@
         <v>280</v>
       </c>
       <c r="I20" t="s">
-        <v>435</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s">
         <v>93</v>
@@ -4200,7 +5351,7 @@
         <v>281</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>435</v>
       </c>
       <c r="U21" t="s">
         <v>94</v>
@@ -4217,7 +5368,7 @@
         <v>282</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s">
         <v>95</v>
@@ -4232,6 +5383,9 @@
       </c>
       <c r="E23" t="s">
         <v>273</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
       </c>
       <c r="U23" t="s">
         <v>96</v>

--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B55A61-65FF-3144-B96A-A054F03B401F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{86B55A61-65FF-3144-B96A-A054F03B401F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="31560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="lab1" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="lab1" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="487">
   <si>
     <t>description</t>
   </si>
@@ -1519,13 +1519,20 @@
   </si>
   <si>
     <t>Compare files</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1602,8 +1609,196 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1622,8 +1817,314 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1661,144 +2162,798 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="66">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="16" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1832,7 +2987,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1857,10 +3012,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1895,7 +3050,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1930,7 +3085,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2024,21 +3179,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2055,7 +3210,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2107,26 +3262,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA116"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2206,7 +3361,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>354</v>
       </c>
@@ -2286,7 +3441,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2294,7 +3449,7 @@
         <v>356</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>485</v>
       </c>
       <c r="D3" t="s">
         <v>348</v>
@@ -2360,7 +3515,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2368,7 +3523,7 @@
         <v>357</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
@@ -2431,7 +3586,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2439,7 +3594,7 @@
         <v>358</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>486</v>
       </c>
       <c r="D5" t="s">
         <v>433</v>
@@ -2496,7 +3651,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2504,7 +3659,7 @@
         <v>359</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>371</v>
@@ -2552,7 +3707,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2560,7 +3715,7 @@
         <v>360</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="E7" t="s">
         <v>349</v>
@@ -2608,7 +3763,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>330</v>
       </c>
@@ -2616,7 +3771,7 @@
         <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E8" t="s">
         <v>350</v>
@@ -2661,7 +3816,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2669,7 +3824,7 @@
         <v>362</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>289</v>
@@ -2705,12 +3860,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>316</v>
       </c>
       <c r="C10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E10" t="s">
         <v>335</v>
@@ -2743,12 +3898,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
         <v>257</v>
@@ -2778,12 +3933,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>181</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>302</v>
       </c>
       <c r="E12" t="s">
         <v>246</v>
@@ -2810,12 +3965,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="E13" t="s">
         <v>299</v>
@@ -2842,12 +3997,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>222</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>247</v>
@@ -2874,12 +4029,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>369</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>248</v>
@@ -2900,12 +4055,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>379</v>
       </c>
       <c r="C16" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="E16" t="s">
         <v>300</v>
@@ -2923,12 +4078,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>395</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>369</v>
       </c>
       <c r="E17" t="s">
         <v>80</v>
@@ -2940,12 +4095,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>396</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>398</v>
       </c>
       <c r="E18" t="s">
         <v>81</v>
@@ -2957,12 +4112,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>340</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>279</v>
@@ -2974,12 +4129,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>380</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
         <v>280</v>
@@ -2991,12 +4146,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>304</v>
+        <v>239</v>
       </c>
       <c r="E21" t="s">
         <v>281</v>
@@ -3008,12 +4163,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
         <v>282</v>
@@ -3025,12 +4180,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>449</v>
+        <v>304</v>
       </c>
       <c r="E23" t="s">
         <v>273</v>
@@ -3042,12 +4197,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
         <v>262</v>
@@ -3056,12 +4211,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>397</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>449</v>
       </c>
       <c r="E25" t="s">
         <v>67</v>
@@ -3070,12 +4225,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>210</v>
       </c>
       <c r="C26" t="s">
-        <v>399</v>
+        <v>208</v>
       </c>
       <c r="E26" t="s">
         <v>265</v>
@@ -3084,9 +4239,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
-        <v>55</v>
+        <v>209</v>
       </c>
       <c r="E27" t="s">
         <v>249</v>
@@ -3095,9 +4250,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
-        <v>56</v>
+        <v>399</v>
       </c>
       <c r="E28" t="s">
         <v>266</v>
@@ -3106,9 +4261,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
         <v>267</v>
@@ -3117,9 +4272,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
         <v>201</v>
@@ -3128,9 +4283,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
         <v>258</v>
@@ -3139,9 +4294,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="C32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
         <v>268</v>
@@ -3150,9 +4305,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="C33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
         <v>243</v>
@@ -3161,9 +4316,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="C34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
         <v>313</v>
@@ -3172,7 +4327,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="35">
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
       <c r="E35" t="s">
         <v>290</v>
       </c>
@@ -3180,7 +4338,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="36">
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
       <c r="E36" t="s">
         <v>244</v>
       </c>
@@ -3188,7 +4349,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>291</v>
       </c>
@@ -3196,7 +4357,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>250</v>
       </c>
@@ -3204,7 +4365,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>69</v>
       </c>
@@ -3212,7 +4373,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>197</v>
       </c>
@@ -3220,7 +4381,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>272</v>
       </c>
@@ -3228,7 +4389,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>283</v>
       </c>
@@ -3236,7 +4397,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>284</v>
       </c>
@@ -3244,7 +4405,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>326</v>
       </c>
@@ -3252,7 +4413,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>325</v>
       </c>
@@ -3260,7 +4421,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>196</v>
       </c>
@@ -3268,7 +4429,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>303</v>
       </c>
@@ -3276,7 +4437,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>322</v>
       </c>
@@ -3284,7 +4445,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>351</v>
       </c>
@@ -3292,7 +4453,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>285</v>
       </c>
@@ -3300,7 +4461,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>339</v>
       </c>
@@ -3308,7 +4469,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
         <v>314</v>
       </c>
@@ -3316,7 +4477,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
         <v>251</v>
       </c>
@@ -3324,7 +4485,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
         <v>275</v>
       </c>
@@ -3332,7 +4493,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
         <v>276</v>
       </c>
@@ -3340,7 +4501,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
         <v>277</v>
       </c>
@@ -3348,7 +4509,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
         <v>286</v>
       </c>
@@ -3356,7 +4517,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
         <v>295</v>
       </c>
@@ -3364,7 +4525,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
         <v>320</v>
       </c>
@@ -3372,7 +4533,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
         <v>292</v>
       </c>
@@ -3380,7 +4541,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
         <v>293</v>
       </c>
@@ -3388,7 +4549,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
         <v>352</v>
       </c>
@@ -3396,7 +4557,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
         <v>353</v>
       </c>
@@ -3404,7 +4565,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
         <v>328</v>
       </c>
@@ -3412,7 +4573,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
         <v>296</v>
       </c>
@@ -3420,7 +4581,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
         <v>252</v>
       </c>
@@ -3428,7 +4589,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
         <v>336</v>
       </c>
@@ -3436,7 +4597,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
         <v>297</v>
       </c>
@@ -3444,7 +4605,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
         <v>393</v>
       </c>
@@ -3452,7 +4613,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
         <v>287</v>
       </c>
@@ -3460,7 +4621,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
         <v>394</v>
       </c>
@@ -3468,7 +4629,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>245</v>
       </c>
@@ -3476,7 +4637,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>327</v>
       </c>
@@ -3484,7 +4645,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>263</v>
       </c>
@@ -3492,7 +4653,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>269</v>
       </c>
@@ -3500,7 +4661,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>274</v>
       </c>
@@ -3508,7 +4669,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>412</v>
       </c>
@@ -3516,7 +4677,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>315</v>
       </c>
@@ -3524,7 +4685,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>253</v>
       </c>
@@ -3532,7 +4693,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>264</v>
       </c>
@@ -3540,7 +4701,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>270</v>
       </c>
@@ -3548,7 +4709,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>259</v>
       </c>
@@ -3556,7 +4717,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>254</v>
       </c>
@@ -3564,7 +4725,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>271</v>
       </c>
@@ -3572,7 +4733,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>255</v>
       </c>
@@ -3580,7 +4741,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>256</v>
       </c>
@@ -3588,7 +4749,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>288</v>
       </c>
@@ -3596,7 +4757,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>294</v>
       </c>
@@ -3604,7 +4765,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>278</v>
       </c>
@@ -3612,7 +4773,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>323</v>
       </c>
@@ -3620,7 +4781,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>260</v>
       </c>
@@ -3628,7 +4789,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="E92" t="s">
         <v>261</v>
       </c>
@@ -3636,159 +4797,159 @@
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="U93" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="U94" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="U95" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="U96" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="U97" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="U98" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="U99" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="U100" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="U101" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="U102" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="103" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="U103" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="U104" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="U105" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="U106" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="107" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="U107" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="108" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="U108" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="109" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="U109" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="U110" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="U111" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="U112" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="U113" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="U114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="U115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="U116" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O998"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="125">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="27" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="58.83203125" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="46.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="15.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.83203125" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="27" width="30.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="58.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="13" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="46.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="27.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="35.83203125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="9" width="15.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="22" width="32.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3819,7 +4980,7 @@
       <c r="N1" s="32"/>
       <c r="O1" s="33"/>
     </row>
-    <row r="2" spans="1:15" ht="98" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="98" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>460</v>
       </c>
@@ -3842,7 +5003,7 @@
       <c r="N2" s="35"/>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -3859,7 +5020,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>439</v>
       </c>
@@ -3904,7 +5065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>461</v>
       </c>
@@ -3931,7 +5092,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -3956,7 +5117,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
@@ -3981,7 +5142,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -4006,7 +5167,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -4031,7 +5192,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>474</v>
       </c>
@@ -4060,7 +5221,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
       <c r="B11" s="4" t="s">
         <v>480</v>
@@ -4087,7 +5248,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -4112,7 +5273,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="41" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
@@ -4139,7 +5300,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="53" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
@@ -4166,7 +5327,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
@@ -4191,7 +5352,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>483</v>
       </c>
@@ -4220,7 +5381,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="4" t="s">
         <v>482</v>
@@ -4247,7 +5408,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -4272,7 +5433,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="37" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
@@ -4299,7 +5460,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="60" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
@@ -4326,7 +5487,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
@@ -4351,7 +5512,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>484</v>
       </c>
@@ -4380,7 +5541,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23"/>
       <c r="C23" s="12"/>
@@ -4397,7 +5558,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
@@ -4414,7 +5575,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -4431,7 +5592,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="7"/>
       <c r="C26" s="12"/>
@@ -4448,7 +5609,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -4465,7 +5626,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -4482,7 +5643,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -4499,7 +5660,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12"/>
@@ -4516,7 +5677,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -4533,7 +5694,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -4550,7 +5711,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -4567,7 +5728,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -4584,7 +5745,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -4601,7 +5762,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -4618,7 +5779,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -4635,7 +5796,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -4652,7 +5813,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -4669,7 +5830,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -4686,7 +5847,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="26"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -4703,7 +5864,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="26"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -4720,7 +5881,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -4737,7 +5898,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -4754,7 +5915,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -4771,7 +5932,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="26"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -4788,7 +5949,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -4805,7 +5966,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -4822,7 +5983,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -4839,7 +6000,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -4856,7 +6017,7 @@
       <c r="N50" s="14"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="26"/>
       <c r="B51" s="4"/>
       <c r="C51" s="12"/>
@@ -4873,7 +6034,7 @@
       <c r="N51" s="14"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="26"/>
       <c r="B52" s="4"/>
       <c r="C52" s="12"/>
@@ -4890,7 +6051,7 @@
       <c r="N52" s="14"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="26"/>
       <c r="B53" s="4"/>
       <c r="C53" s="12"/>
@@ -4907,7 +6068,7 @@
       <c r="N53" s="14"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="26"/>
       <c r="B54" s="4"/>
       <c r="C54" s="12"/>
@@ -4924,7 +6085,7 @@
       <c r="N54" s="14"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="26"/>
       <c r="B55" s="4"/>
       <c r="C55" s="12"/>
@@ -4941,7 +6102,7 @@
       <c r="N55" s="14"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="26"/>
       <c r="B56" s="4"/>
       <c r="C56" s="12"/>
@@ -4958,7 +6119,7 @@
       <c r="N56" s="14"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="26"/>
       <c r="B57" s="4"/>
       <c r="C57" s="12"/>
@@ -4975,7 +6136,7 @@
       <c r="N57" s="14"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="26"/>
       <c r="B58" s="4"/>
       <c r="C58" s="12"/>
@@ -4992,7 +6153,7 @@
       <c r="N58" s="14"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="26"/>
       <c r="B59" s="4"/>
       <c r="C59" s="12"/>
@@ -5009,7 +6170,7 @@
       <c r="N59" s="14"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="26"/>
       <c r="B60" s="4"/>
       <c r="C60" s="12"/>
@@ -5026,7 +6187,7 @@
       <c r="N60" s="14"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="26"/>
       <c r="B61" s="4"/>
       <c r="C61" s="12"/>
@@ -5043,7 +6204,7 @@
       <c r="N61" s="14"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="26"/>
       <c r="B62" s="4"/>
       <c r="C62" s="12"/>
@@ -5060,7 +6221,7 @@
       <c r="N62" s="14"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="26"/>
       <c r="B63" s="4"/>
       <c r="C63" s="12"/>
@@ -5077,7 +6238,7 @@
       <c r="N63" s="14"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="26"/>
       <c r="B64" s="4"/>
       <c r="C64" s="12"/>
@@ -5094,7 +6255,7 @@
       <c r="N64" s="14"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="26"/>
       <c r="B65" s="4"/>
       <c r="C65" s="12"/>
@@ -5111,7 +6272,7 @@
       <c r="N65" s="14"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="26"/>
       <c r="B66" s="4"/>
       <c r="C66" s="12"/>
@@ -5128,7 +6289,7 @@
       <c r="N66" s="14"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="26"/>
       <c r="B67" s="4"/>
       <c r="C67" s="12"/>
@@ -5145,7 +6306,7 @@
       <c r="N67" s="14"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="26"/>
       <c r="B68" s="4"/>
       <c r="C68" s="12"/>
@@ -5162,7 +6323,7 @@
       <c r="N68" s="14"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="26"/>
       <c r="B69" s="4"/>
       <c r="C69" s="12"/>
@@ -5179,7 +6340,7 @@
       <c r="N69" s="14"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="26"/>
       <c r="B70" s="4"/>
       <c r="C70" s="12"/>
@@ -5196,7 +6357,7 @@
       <c r="N70" s="14"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="26"/>
       <c r="B71" s="4"/>
       <c r="C71" s="12"/>
@@ -5213,7 +6374,7 @@
       <c r="N71" s="14"/>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="26"/>
       <c r="B72" s="4"/>
       <c r="C72" s="12"/>
@@ -5230,7 +6391,7 @@
       <c r="N72" s="14"/>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="26"/>
       <c r="B73" s="4"/>
       <c r="C73" s="12"/>
@@ -5247,7 +6408,7 @@
       <c r="N73" s="14"/>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="26"/>
       <c r="B74" s="4"/>
       <c r="C74" s="12"/>
@@ -5264,7 +6425,7 @@
       <c r="N74" s="14"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="26"/>
       <c r="B75" s="4"/>
       <c r="C75" s="12"/>
@@ -5281,7 +6442,7 @@
       <c r="N75" s="14"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="26"/>
       <c r="B76" s="4"/>
       <c r="C76" s="12"/>
@@ -5298,7 +6459,7 @@
       <c r="N76" s="14"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="26"/>
       <c r="B77" s="4"/>
       <c r="C77" s="12"/>
@@ -5315,7 +6476,7 @@
       <c r="N77" s="14"/>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="26"/>
       <c r="B78" s="4"/>
       <c r="C78" s="12"/>
@@ -5332,7 +6493,7 @@
       <c r="N78" s="14"/>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="26"/>
       <c r="B79" s="4"/>
       <c r="C79" s="12"/>
@@ -5349,7 +6510,7 @@
       <c r="N79" s="14"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="26"/>
       <c r="B80" s="4"/>
       <c r="C80" s="12"/>
@@ -5366,7 +6527,7 @@
       <c r="N80" s="14"/>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="26"/>
       <c r="B81" s="4"/>
       <c r="C81" s="12"/>
@@ -5383,7 +6544,7 @@
       <c r="N81" s="14"/>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="26"/>
       <c r="B82" s="4"/>
       <c r="C82" s="12"/>
@@ -5400,7 +6561,7 @@
       <c r="N82" s="14"/>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="26"/>
       <c r="B83" s="4"/>
       <c r="C83" s="12"/>
@@ -5417,7 +6578,7 @@
       <c r="N83" s="14"/>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="26"/>
       <c r="B84" s="4"/>
       <c r="C84" s="12"/>
@@ -5434,7 +6595,7 @@
       <c r="N84" s="14"/>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="26"/>
       <c r="B85" s="4"/>
       <c r="C85" s="12"/>
@@ -5451,7 +6612,7 @@
       <c r="N85" s="14"/>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="26"/>
       <c r="B86" s="4"/>
       <c r="C86" s="12"/>
@@ -5468,7 +6629,7 @@
       <c r="N86" s="14"/>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="26"/>
       <c r="B87" s="4"/>
       <c r="C87" s="12"/>
@@ -5485,7 +6646,7 @@
       <c r="N87" s="14"/>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="26"/>
       <c r="B88" s="4"/>
       <c r="C88" s="12"/>
@@ -5502,7 +6663,7 @@
       <c r="N88" s="14"/>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="26"/>
       <c r="B89" s="4"/>
       <c r="C89" s="12"/>
@@ -5519,7 +6680,7 @@
       <c r="N89" s="14"/>
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="26"/>
       <c r="B90" s="4"/>
       <c r="C90" s="12"/>
@@ -5536,7 +6697,7 @@
       <c r="N90" s="14"/>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="26"/>
       <c r="B91" s="4"/>
       <c r="C91" s="12"/>
@@ -5553,7 +6714,7 @@
       <c r="N91" s="14"/>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="26"/>
       <c r="B92" s="4"/>
       <c r="C92" s="12"/>
@@ -5570,7 +6731,7 @@
       <c r="N92" s="14"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="26"/>
       <c r="B93" s="4"/>
       <c r="C93" s="12"/>
@@ -5587,7 +6748,7 @@
       <c r="N93" s="14"/>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="26"/>
       <c r="B94" s="4"/>
       <c r="C94" s="12"/>
@@ -5604,7 +6765,7 @@
       <c r="N94" s="14"/>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="26"/>
       <c r="B95" s="4"/>
       <c r="C95" s="12"/>
@@ -5621,7 +6782,7 @@
       <c r="N95" s="14"/>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="26"/>
       <c r="B96" s="4"/>
       <c r="C96" s="12"/>
@@ -5638,7 +6799,7 @@
       <c r="N96" s="14"/>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="26"/>
       <c r="B97" s="4"/>
       <c r="C97" s="12"/>
@@ -5655,7 +6816,7 @@
       <c r="N97" s="14"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="26"/>
       <c r="B98" s="4"/>
       <c r="C98" s="12"/>
@@ -5672,7 +6833,7 @@
       <c r="N98" s="14"/>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="26"/>
       <c r="B99" s="4"/>
       <c r="C99" s="12"/>
@@ -5689,7 +6850,7 @@
       <c r="N99" s="14"/>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="26"/>
       <c r="B100" s="4"/>
       <c r="C100" s="12"/>
@@ -5706,7 +6867,7 @@
       <c r="N100" s="14"/>
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="26"/>
       <c r="B101" s="4"/>
       <c r="C101" s="12"/>
@@ -5723,7 +6884,7 @@
       <c r="N101" s="14"/>
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="26"/>
       <c r="B102" s="4"/>
       <c r="C102" s="12"/>
@@ -5740,7 +6901,7 @@
       <c r="N102" s="14"/>
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="26"/>
       <c r="B103" s="4"/>
       <c r="C103" s="12"/>
@@ -5757,7 +6918,7 @@
       <c r="N103" s="14"/>
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="26"/>
       <c r="B104" s="4"/>
       <c r="C104" s="12"/>
@@ -5774,7 +6935,7 @@
       <c r="N104" s="14"/>
       <c r="O104" s="2"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="26"/>
       <c r="B105" s="4"/>
       <c r="C105" s="12"/>
@@ -5791,7 +6952,7 @@
       <c r="N105" s="14"/>
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="26"/>
       <c r="B106" s="4"/>
       <c r="C106" s="12"/>
@@ -5808,7 +6969,7 @@
       <c r="N106" s="14"/>
       <c r="O106" s="2"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="26"/>
       <c r="B107" s="4"/>
       <c r="C107" s="12"/>
@@ -5825,7 +6986,7 @@
       <c r="N107" s="14"/>
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="26"/>
       <c r="B108" s="4"/>
       <c r="C108" s="12"/>
@@ -5842,7 +7003,7 @@
       <c r="N108" s="14"/>
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="26"/>
       <c r="B109" s="4"/>
       <c r="C109" s="12"/>
@@ -5859,7 +7020,7 @@
       <c r="N109" s="14"/>
       <c r="O109" s="2"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="26"/>
       <c r="B110" s="4"/>
       <c r="C110" s="12"/>
@@ -5876,7 +7037,7 @@
       <c r="N110" s="14"/>
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="26"/>
       <c r="B111" s="4"/>
       <c r="C111" s="12"/>
@@ -5893,7 +7054,7 @@
       <c r="N111" s="14"/>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="26"/>
       <c r="B112" s="4"/>
       <c r="C112" s="12"/>
@@ -5910,7 +7071,7 @@
       <c r="N112" s="14"/>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="26"/>
       <c r="B113" s="4"/>
       <c r="C113" s="12"/>
@@ -5927,7 +7088,7 @@
       <c r="N113" s="14"/>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="26"/>
       <c r="B114" s="4"/>
       <c r="C114" s="12"/>
@@ -5944,7 +7105,7 @@
       <c r="N114" s="14"/>
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="26"/>
       <c r="B115" s="4"/>
       <c r="C115" s="12"/>
@@ -5961,7 +7122,7 @@
       <c r="N115" s="14"/>
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="26"/>
       <c r="B116" s="4"/>
       <c r="C116" s="12"/>
@@ -5978,7 +7139,7 @@
       <c r="N116" s="14"/>
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="26"/>
       <c r="B117" s="4"/>
       <c r="C117" s="12"/>
@@ -5995,7 +7156,7 @@
       <c r="N117" s="14"/>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="26"/>
       <c r="B118" s="4"/>
       <c r="C118" s="12"/>
@@ -6012,7 +7173,7 @@
       <c r="N118" s="14"/>
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="26"/>
       <c r="B119" s="4"/>
       <c r="C119" s="12"/>
@@ -6029,7 +7190,7 @@
       <c r="N119" s="14"/>
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="26"/>
       <c r="B120" s="4"/>
       <c r="C120" s="12"/>
@@ -6046,7 +7207,7 @@
       <c r="N120" s="14"/>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="26"/>
       <c r="B121" s="4"/>
       <c r="C121" s="12"/>
@@ -6063,7 +7224,7 @@
       <c r="N121" s="14"/>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="26"/>
       <c r="B122" s="4"/>
       <c r="C122" s="12"/>
@@ -6080,7 +7241,7 @@
       <c r="N122" s="14"/>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="26"/>
       <c r="B123" s="4"/>
       <c r="C123" s="12"/>
@@ -6097,7 +7258,7 @@
       <c r="N123" s="14"/>
       <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="26"/>
       <c r="B124" s="4"/>
       <c r="C124" s="12"/>
@@ -6114,7 +7275,7 @@
       <c r="N124" s="14"/>
       <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="26"/>
       <c r="B125" s="4"/>
       <c r="C125" s="12"/>
@@ -6131,7 +7292,7 @@
       <c r="N125" s="14"/>
       <c r="O125" s="2"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="26"/>
       <c r="B126" s="4"/>
       <c r="C126" s="12"/>
@@ -6148,7 +7309,7 @@
       <c r="N126" s="14"/>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="26"/>
       <c r="B127" s="4"/>
       <c r="C127" s="12"/>
@@ -6165,7 +7326,7 @@
       <c r="N127" s="14"/>
       <c r="O127" s="2"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="26"/>
       <c r="B128" s="4"/>
       <c r="C128" s="12"/>
@@ -6182,7 +7343,7 @@
       <c r="N128" s="14"/>
       <c r="O128" s="2"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="26"/>
       <c r="B129" s="4"/>
       <c r="C129" s="12"/>
@@ -6199,7 +7360,7 @@
       <c r="N129" s="14"/>
       <c r="O129" s="2"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="26"/>
       <c r="B130" s="4"/>
       <c r="C130" s="12"/>
@@ -6216,7 +7377,7 @@
       <c r="N130" s="14"/>
       <c r="O130" s="2"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="26"/>
       <c r="B131" s="4"/>
       <c r="C131" s="12"/>
@@ -6233,7 +7394,7 @@
       <c r="N131" s="14"/>
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="26"/>
       <c r="B132" s="4"/>
       <c r="C132" s="12"/>
@@ -6250,7 +7411,7 @@
       <c r="N132" s="14"/>
       <c r="O132" s="2"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="26"/>
       <c r="B133" s="4"/>
       <c r="C133" s="12"/>
@@ -6267,7 +7428,7 @@
       <c r="N133" s="14"/>
       <c r="O133" s="2"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="26"/>
       <c r="B134" s="4"/>
       <c r="C134" s="12"/>
@@ -6284,7 +7445,7 @@
       <c r="N134" s="14"/>
       <c r="O134" s="2"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="26"/>
       <c r="B135" s="4"/>
       <c r="C135" s="12"/>
@@ -6301,7 +7462,7 @@
       <c r="N135" s="14"/>
       <c r="O135" s="2"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="26"/>
       <c r="B136" s="4"/>
       <c r="C136" s="12"/>
@@ -6318,7 +7479,7 @@
       <c r="N136" s="14"/>
       <c r="O136" s="2"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="26"/>
       <c r="B137" s="4"/>
       <c r="C137" s="12"/>
@@ -6335,7 +7496,7 @@
       <c r="N137" s="14"/>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="26"/>
       <c r="B138" s="4"/>
       <c r="C138" s="12"/>
@@ -6352,7 +7513,7 @@
       <c r="N138" s="14"/>
       <c r="O138" s="2"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="26"/>
       <c r="B139" s="4"/>
       <c r="C139" s="12"/>
@@ -6369,7 +7530,7 @@
       <c r="N139" s="14"/>
       <c r="O139" s="2"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="26"/>
       <c r="B140" s="4"/>
       <c r="C140" s="12"/>
@@ -6386,7 +7547,7 @@
       <c r="N140" s="14"/>
       <c r="O140" s="2"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="26"/>
       <c r="B141" s="4"/>
       <c r="C141" s="12"/>
@@ -6403,7 +7564,7 @@
       <c r="N141" s="14"/>
       <c r="O141" s="2"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="26"/>
       <c r="B142" s="4"/>
       <c r="C142" s="12"/>
@@ -6420,7 +7581,7 @@
       <c r="N142" s="14"/>
       <c r="O142" s="2"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="26"/>
       <c r="B143" s="4"/>
       <c r="C143" s="12"/>
@@ -6437,7 +7598,7 @@
       <c r="N143" s="14"/>
       <c r="O143" s="2"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="26"/>
       <c r="B144" s="4"/>
       <c r="C144" s="12"/>
@@ -6454,7 +7615,7 @@
       <c r="N144" s="14"/>
       <c r="O144" s="2"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="26"/>
       <c r="B145" s="4"/>
       <c r="C145" s="12"/>
@@ -6471,7 +7632,7 @@
       <c r="N145" s="14"/>
       <c r="O145" s="2"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="26"/>
       <c r="B146" s="4"/>
       <c r="C146" s="12"/>
@@ -6488,7 +7649,7 @@
       <c r="N146" s="14"/>
       <c r="O146" s="2"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="26"/>
       <c r="B147" s="4"/>
       <c r="C147" s="12"/>
@@ -6505,7 +7666,7 @@
       <c r="N147" s="14"/>
       <c r="O147" s="2"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="26"/>
       <c r="B148" s="4"/>
       <c r="C148" s="12"/>
@@ -6522,7 +7683,7 @@
       <c r="N148" s="14"/>
       <c r="O148" s="2"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="26"/>
       <c r="B149" s="4"/>
       <c r="C149" s="12"/>
@@ -6539,7 +7700,7 @@
       <c r="N149" s="14"/>
       <c r="O149" s="2"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="26"/>
       <c r="B150" s="4"/>
       <c r="C150" s="12"/>
@@ -6556,7 +7717,7 @@
       <c r="N150" s="14"/>
       <c r="O150" s="2"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="26"/>
       <c r="B151" s="4"/>
       <c r="C151" s="12"/>
@@ -6573,7 +7734,7 @@
       <c r="N151" s="14"/>
       <c r="O151" s="2"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="26"/>
       <c r="B152" s="4"/>
       <c r="C152" s="12"/>
@@ -6590,7 +7751,7 @@
       <c r="N152" s="14"/>
       <c r="O152" s="2"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="26"/>
       <c r="B153" s="4"/>
       <c r="C153" s="12"/>
@@ -6607,7 +7768,7 @@
       <c r="N153" s="14"/>
       <c r="O153" s="2"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="26"/>
       <c r="B154" s="4"/>
       <c r="C154" s="12"/>
@@ -6624,7 +7785,7 @@
       <c r="N154" s="14"/>
       <c r="O154" s="2"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="26"/>
       <c r="B155" s="4"/>
       <c r="C155" s="12"/>
@@ -6641,7 +7802,7 @@
       <c r="N155" s="14"/>
       <c r="O155" s="2"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="26"/>
       <c r="B156" s="4"/>
       <c r="C156" s="12"/>
@@ -6658,7 +7819,7 @@
       <c r="N156" s="14"/>
       <c r="O156" s="2"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="26"/>
       <c r="B157" s="4"/>
       <c r="C157" s="12"/>
@@ -6675,7 +7836,7 @@
       <c r="N157" s="14"/>
       <c r="O157" s="2"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="26"/>
       <c r="B158" s="4"/>
       <c r="C158" s="12"/>
@@ -6692,7 +7853,7 @@
       <c r="N158" s="14"/>
       <c r="O158" s="2"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="26"/>
       <c r="B159" s="4"/>
       <c r="C159" s="12"/>
@@ -6709,7 +7870,7 @@
       <c r="N159" s="14"/>
       <c r="O159" s="2"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="26"/>
       <c r="B160" s="4"/>
       <c r="C160" s="12"/>
@@ -6726,7 +7887,7 @@
       <c r="N160" s="14"/>
       <c r="O160" s="2"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="26"/>
       <c r="B161" s="4"/>
       <c r="C161" s="12"/>
@@ -6743,7 +7904,7 @@
       <c r="N161" s="14"/>
       <c r="O161" s="2"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="26"/>
       <c r="B162" s="4"/>
       <c r="C162" s="12"/>
@@ -6760,7 +7921,7 @@
       <c r="N162" s="14"/>
       <c r="O162" s="2"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="26"/>
       <c r="B163" s="4"/>
       <c r="C163" s="12"/>
@@ -6777,7 +7938,7 @@
       <c r="N163" s="14"/>
       <c r="O163" s="2"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="26"/>
       <c r="B164" s="4"/>
       <c r="C164" s="12"/>
@@ -6794,7 +7955,7 @@
       <c r="N164" s="14"/>
       <c r="O164" s="2"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="26"/>
       <c r="B165" s="4"/>
       <c r="C165" s="12"/>
@@ -6811,7 +7972,7 @@
       <c r="N165" s="14"/>
       <c r="O165" s="2"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="26"/>
       <c r="B166" s="4"/>
       <c r="C166" s="12"/>
@@ -6828,7 +7989,7 @@
       <c r="N166" s="14"/>
       <c r="O166" s="2"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="26"/>
       <c r="B167" s="4"/>
       <c r="C167" s="12"/>
@@ -6845,7 +8006,7 @@
       <c r="N167" s="14"/>
       <c r="O167" s="2"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="26"/>
       <c r="B168" s="4"/>
       <c r="C168" s="12"/>
@@ -6862,7 +8023,7 @@
       <c r="N168" s="14"/>
       <c r="O168" s="2"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="26"/>
       <c r="B169" s="4"/>
       <c r="C169" s="12"/>
@@ -6879,7 +8040,7 @@
       <c r="N169" s="14"/>
       <c r="O169" s="2"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="26"/>
       <c r="B170" s="4"/>
       <c r="C170" s="12"/>
@@ -6896,7 +8057,7 @@
       <c r="N170" s="14"/>
       <c r="O170" s="2"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="26"/>
       <c r="B171" s="4"/>
       <c r="C171" s="12"/>
@@ -6913,7 +8074,7 @@
       <c r="N171" s="14"/>
       <c r="O171" s="2"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="26"/>
       <c r="B172" s="4"/>
       <c r="C172" s="12"/>
@@ -6930,7 +8091,7 @@
       <c r="N172" s="14"/>
       <c r="O172" s="2"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="26"/>
       <c r="B173" s="4"/>
       <c r="C173" s="12"/>
@@ -6947,7 +8108,7 @@
       <c r="N173" s="14"/>
       <c r="O173" s="2"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="26"/>
       <c r="B174" s="4"/>
       <c r="C174" s="12"/>
@@ -6964,7 +8125,7 @@
       <c r="N174" s="14"/>
       <c r="O174" s="2"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="26"/>
       <c r="B175" s="4"/>
       <c r="C175" s="12"/>
@@ -6981,7 +8142,7 @@
       <c r="N175" s="14"/>
       <c r="O175" s="2"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="26"/>
       <c r="B176" s="4"/>
       <c r="C176" s="12"/>
@@ -6998,7 +8159,7 @@
       <c r="N176" s="14"/>
       <c r="O176" s="2"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="26"/>
       <c r="B177" s="4"/>
       <c r="C177" s="12"/>
@@ -7015,7 +8176,7 @@
       <c r="N177" s="14"/>
       <c r="O177" s="2"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="26"/>
       <c r="B178" s="4"/>
       <c r="C178" s="12"/>
@@ -7032,7 +8193,7 @@
       <c r="N178" s="14"/>
       <c r="O178" s="2"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="26"/>
       <c r="B179" s="4"/>
       <c r="C179" s="12"/>
@@ -7049,7 +8210,7 @@
       <c r="N179" s="14"/>
       <c r="O179" s="2"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="26"/>
       <c r="B180" s="4"/>
       <c r="C180" s="12"/>
@@ -7066,7 +8227,7 @@
       <c r="N180" s="14"/>
       <c r="O180" s="2"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="26"/>
       <c r="B181" s="4"/>
       <c r="C181" s="12"/>
@@ -7083,7 +8244,7 @@
       <c r="N181" s="14"/>
       <c r="O181" s="2"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="26"/>
       <c r="B182" s="4"/>
       <c r="C182" s="12"/>
@@ -7100,7 +8261,7 @@
       <c r="N182" s="14"/>
       <c r="O182" s="2"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="26"/>
       <c r="B183" s="4"/>
       <c r="C183" s="12"/>
@@ -7117,7 +8278,7 @@
       <c r="N183" s="14"/>
       <c r="O183" s="2"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="26"/>
       <c r="B184" s="4"/>
       <c r="C184" s="12"/>
@@ -7134,7 +8295,7 @@
       <c r="N184" s="14"/>
       <c r="O184" s="2"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="26"/>
       <c r="B185" s="4"/>
       <c r="C185" s="12"/>
@@ -7151,7 +8312,7 @@
       <c r="N185" s="14"/>
       <c r="O185" s="2"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="26"/>
       <c r="B186" s="4"/>
       <c r="C186" s="12"/>
@@ -7168,7 +8329,7 @@
       <c r="N186" s="14"/>
       <c r="O186" s="2"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="26"/>
       <c r="B187" s="4"/>
       <c r="C187" s="12"/>
@@ -7185,7 +8346,7 @@
       <c r="N187" s="14"/>
       <c r="O187" s="2"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="26"/>
       <c r="B188" s="4"/>
       <c r="C188" s="12"/>
@@ -7202,7 +8363,7 @@
       <c r="N188" s="14"/>
       <c r="O188" s="2"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="26"/>
       <c r="B189" s="4"/>
       <c r="C189" s="12"/>
@@ -7219,7 +8380,7 @@
       <c r="N189" s="14"/>
       <c r="O189" s="2"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="26"/>
       <c r="B190" s="4"/>
       <c r="C190" s="12"/>
@@ -7236,7 +8397,7 @@
       <c r="N190" s="14"/>
       <c r="O190" s="2"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="26"/>
       <c r="B191" s="4"/>
       <c r="C191" s="12"/>
@@ -7253,7 +8414,7 @@
       <c r="N191" s="14"/>
       <c r="O191" s="2"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="26"/>
       <c r="B192" s="4"/>
       <c r="C192" s="12"/>
@@ -7270,7 +8431,7 @@
       <c r="N192" s="14"/>
       <c r="O192" s="2"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="26"/>
       <c r="B193" s="4"/>
       <c r="C193" s="12"/>
@@ -7287,7 +8448,7 @@
       <c r="N193" s="14"/>
       <c r="O193" s="2"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="26"/>
       <c r="B194" s="4"/>
       <c r="C194" s="12"/>
@@ -7304,7 +8465,7 @@
       <c r="N194" s="14"/>
       <c r="O194" s="2"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="26"/>
       <c r="B195" s="4"/>
       <c r="C195" s="12"/>
@@ -7321,7 +8482,7 @@
       <c r="N195" s="14"/>
       <c r="O195" s="2"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="26"/>
       <c r="B196" s="4"/>
       <c r="C196" s="12"/>
@@ -7338,7 +8499,7 @@
       <c r="N196" s="14"/>
       <c r="O196" s="2"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="26"/>
       <c r="B197" s="4"/>
       <c r="C197" s="12"/>
@@ -7355,7 +8516,7 @@
       <c r="N197" s="14"/>
       <c r="O197" s="2"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="26"/>
       <c r="B198" s="4"/>
       <c r="C198" s="12"/>
@@ -7372,7 +8533,7 @@
       <c r="N198" s="14"/>
       <c r="O198" s="2"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="26"/>
       <c r="B199" s="4"/>
       <c r="C199" s="12"/>
@@ -7389,7 +8550,7 @@
       <c r="N199" s="14"/>
       <c r="O199" s="2"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="26"/>
       <c r="B200" s="4"/>
       <c r="C200" s="12"/>
@@ -7406,7 +8567,7 @@
       <c r="N200" s="14"/>
       <c r="O200" s="2"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="26"/>
       <c r="B201" s="4"/>
       <c r="C201" s="12"/>
@@ -7423,7 +8584,7 @@
       <c r="N201" s="14"/>
       <c r="O201" s="2"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="26"/>
       <c r="B202" s="4"/>
       <c r="C202" s="12"/>
@@ -7440,7 +8601,7 @@
       <c r="N202" s="14"/>
       <c r="O202" s="2"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="26"/>
       <c r="B203" s="4"/>
       <c r="C203" s="12"/>
@@ -7457,7 +8618,7 @@
       <c r="N203" s="14"/>
       <c r="O203" s="2"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="26"/>
       <c r="B204" s="4"/>
       <c r="C204" s="12"/>
@@ -7474,7 +8635,7 @@
       <c r="N204" s="14"/>
       <c r="O204" s="2"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="26"/>
       <c r="B205" s="4"/>
       <c r="C205" s="12"/>
@@ -7491,7 +8652,7 @@
       <c r="N205" s="14"/>
       <c r="O205" s="2"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="26"/>
       <c r="B206" s="4"/>
       <c r="C206" s="12"/>
@@ -7508,7 +8669,7 @@
       <c r="N206" s="14"/>
       <c r="O206" s="2"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="26"/>
       <c r="B207" s="4"/>
       <c r="C207" s="12"/>
@@ -7525,7 +8686,7 @@
       <c r="N207" s="14"/>
       <c r="O207" s="2"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="26"/>
       <c r="B208" s="4"/>
       <c r="C208" s="12"/>
@@ -7542,7 +8703,7 @@
       <c r="N208" s="14"/>
       <c r="O208" s="2"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="26"/>
       <c r="B209" s="4"/>
       <c r="C209" s="12"/>
@@ -7559,7 +8720,7 @@
       <c r="N209" s="14"/>
       <c r="O209" s="2"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="26"/>
       <c r="B210" s="4"/>
       <c r="C210" s="12"/>
@@ -7576,7 +8737,7 @@
       <c r="N210" s="14"/>
       <c r="O210" s="2"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="26"/>
       <c r="B211" s="4"/>
       <c r="C211" s="12"/>
@@ -7593,7 +8754,7 @@
       <c r="N211" s="14"/>
       <c r="O211" s="2"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="26"/>
       <c r="B212" s="4"/>
       <c r="C212" s="12"/>
@@ -7610,7 +8771,7 @@
       <c r="N212" s="14"/>
       <c r="O212" s="2"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="26"/>
       <c r="B213" s="4"/>
       <c r="C213" s="12"/>
@@ -7627,7 +8788,7 @@
       <c r="N213" s="14"/>
       <c r="O213" s="2"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="26"/>
       <c r="B214" s="4"/>
       <c r="C214" s="12"/>
@@ -7644,7 +8805,7 @@
       <c r="N214" s="14"/>
       <c r="O214" s="2"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="26"/>
       <c r="B215" s="4"/>
       <c r="C215" s="12"/>
@@ -7661,7 +8822,7 @@
       <c r="N215" s="14"/>
       <c r="O215" s="2"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="26"/>
       <c r="B216" s="4"/>
       <c r="C216" s="12"/>
@@ -7678,7 +8839,7 @@
       <c r="N216" s="14"/>
       <c r="O216" s="2"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="26"/>
       <c r="B217" s="4"/>
       <c r="C217" s="12"/>
@@ -7695,7 +8856,7 @@
       <c r="N217" s="14"/>
       <c r="O217" s="2"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="26"/>
       <c r="B218" s="4"/>
       <c r="C218" s="12"/>
@@ -7712,7 +8873,7 @@
       <c r="N218" s="14"/>
       <c r="O218" s="2"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="26"/>
       <c r="B219" s="4"/>
       <c r="C219" s="12"/>
@@ -7729,7 +8890,7 @@
       <c r="N219" s="14"/>
       <c r="O219" s="2"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="26"/>
       <c r="B220" s="4"/>
       <c r="C220" s="12"/>
@@ -7746,7 +8907,7 @@
       <c r="N220" s="14"/>
       <c r="O220" s="2"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="26"/>
       <c r="B221" s="4"/>
       <c r="C221" s="12"/>
@@ -7763,7 +8924,7 @@
       <c r="N221" s="14"/>
       <c r="O221" s="2"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="26"/>
       <c r="B222" s="4"/>
       <c r="C222" s="12"/>
@@ -7780,7 +8941,7 @@
       <c r="N222" s="14"/>
       <c r="O222" s="2"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="26"/>
       <c r="B223" s="4"/>
       <c r="C223" s="12"/>
@@ -7797,7 +8958,7 @@
       <c r="N223" s="14"/>
       <c r="O223" s="2"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="26"/>
       <c r="B224" s="4"/>
       <c r="C224" s="12"/>
@@ -7814,7 +8975,7 @@
       <c r="N224" s="14"/>
       <c r="O224" s="2"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="26"/>
       <c r="B225" s="4"/>
       <c r="C225" s="12"/>
@@ -7831,7 +8992,7 @@
       <c r="N225" s="14"/>
       <c r="O225" s="2"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="26"/>
       <c r="B226" s="4"/>
       <c r="C226" s="12"/>
@@ -7848,7 +9009,7 @@
       <c r="N226" s="14"/>
       <c r="O226" s="2"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="26"/>
       <c r="B227" s="4"/>
       <c r="C227" s="12"/>
@@ -7865,7 +9026,7 @@
       <c r="N227" s="14"/>
       <c r="O227" s="2"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="26"/>
       <c r="B228" s="4"/>
       <c r="C228" s="12"/>
@@ -7882,7 +9043,7 @@
       <c r="N228" s="14"/>
       <c r="O228" s="2"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="26"/>
       <c r="B229" s="4"/>
       <c r="C229" s="12"/>
@@ -7899,7 +9060,7 @@
       <c r="N229" s="14"/>
       <c r="O229" s="2"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="26"/>
       <c r="B230" s="4"/>
       <c r="C230" s="12"/>
@@ -7916,7 +9077,7 @@
       <c r="N230" s="14"/>
       <c r="O230" s="2"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="26"/>
       <c r="B231" s="4"/>
       <c r="C231" s="12"/>
@@ -7933,7 +9094,7 @@
       <c r="N231" s="14"/>
       <c r="O231" s="2"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="26"/>
       <c r="B232" s="4"/>
       <c r="C232" s="12"/>
@@ -7950,7 +9111,7 @@
       <c r="N232" s="14"/>
       <c r="O232" s="2"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="26"/>
       <c r="B233" s="4"/>
       <c r="C233" s="12"/>
@@ -7967,7 +9128,7 @@
       <c r="N233" s="14"/>
       <c r="O233" s="2"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="26"/>
       <c r="B234" s="4"/>
       <c r="C234" s="12"/>
@@ -7984,7 +9145,7 @@
       <c r="N234" s="14"/>
       <c r="O234" s="2"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="26"/>
       <c r="B235" s="4"/>
       <c r="C235" s="12"/>
@@ -8001,7 +9162,7 @@
       <c r="N235" s="14"/>
       <c r="O235" s="2"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="26"/>
       <c r="B236" s="4"/>
       <c r="C236" s="12"/>
@@ -8018,7 +9179,7 @@
       <c r="N236" s="14"/>
       <c r="O236" s="2"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="26"/>
       <c r="B237" s="4"/>
       <c r="C237" s="12"/>
@@ -8035,7 +9196,7 @@
       <c r="N237" s="14"/>
       <c r="O237" s="2"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="26"/>
       <c r="B238" s="4"/>
       <c r="C238" s="12"/>
@@ -8052,7 +9213,7 @@
       <c r="N238" s="14"/>
       <c r="O238" s="2"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="26"/>
       <c r="B239" s="4"/>
       <c r="C239" s="12"/>
@@ -8069,7 +9230,7 @@
       <c r="N239" s="14"/>
       <c r="O239" s="2"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="26"/>
       <c r="B240" s="4"/>
       <c r="C240" s="12"/>
@@ -8086,7 +9247,7 @@
       <c r="N240" s="14"/>
       <c r="O240" s="2"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="26"/>
       <c r="B241" s="4"/>
       <c r="C241" s="12"/>
@@ -8103,7 +9264,7 @@
       <c r="N241" s="14"/>
       <c r="O241" s="2"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="26"/>
       <c r="B242" s="4"/>
       <c r="C242" s="12"/>
@@ -8120,7 +9281,7 @@
       <c r="N242" s="14"/>
       <c r="O242" s="2"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="26"/>
       <c r="B243" s="4"/>
       <c r="C243" s="12"/>
@@ -8137,7 +9298,7 @@
       <c r="N243" s="14"/>
       <c r="O243" s="2"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="26"/>
       <c r="B244" s="4"/>
       <c r="C244" s="12"/>
@@ -8154,7 +9315,7 @@
       <c r="N244" s="14"/>
       <c r="O244" s="2"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="26"/>
       <c r="B245" s="4"/>
       <c r="C245" s="12"/>
@@ -8171,7 +9332,7 @@
       <c r="N245" s="14"/>
       <c r="O245" s="2"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="26"/>
       <c r="B246" s="4"/>
       <c r="C246" s="12"/>
@@ -8188,7 +9349,7 @@
       <c r="N246" s="14"/>
       <c r="O246" s="2"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="26"/>
       <c r="B247" s="4"/>
       <c r="C247" s="12"/>
@@ -8205,7 +9366,7 @@
       <c r="N247" s="14"/>
       <c r="O247" s="2"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="26"/>
       <c r="B248" s="4"/>
       <c r="C248" s="12"/>
@@ -8222,7 +9383,7 @@
       <c r="N248" s="14"/>
       <c r="O248" s="2"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="26"/>
       <c r="B249" s="4"/>
       <c r="C249" s="12"/>
@@ -8239,7 +9400,7 @@
       <c r="N249" s="14"/>
       <c r="O249" s="2"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="26"/>
       <c r="B250" s="4"/>
       <c r="C250" s="12"/>
@@ -8256,7 +9417,7 @@
       <c r="N250" s="14"/>
       <c r="O250" s="2"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="26"/>
       <c r="B251" s="4"/>
       <c r="C251" s="12"/>
@@ -8273,7 +9434,7 @@
       <c r="N251" s="14"/>
       <c r="O251" s="2"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="26"/>
       <c r="B252" s="4"/>
       <c r="C252" s="12"/>
@@ -8290,7 +9451,7 @@
       <c r="N252" s="14"/>
       <c r="O252" s="2"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="26"/>
       <c r="B253" s="4"/>
       <c r="C253" s="12"/>
@@ -8307,7 +9468,7 @@
       <c r="N253" s="14"/>
       <c r="O253" s="2"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="26"/>
       <c r="B254" s="4"/>
       <c r="C254" s="12"/>
@@ -8324,7 +9485,7 @@
       <c r="N254" s="14"/>
       <c r="O254" s="2"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="26"/>
       <c r="B255" s="4"/>
       <c r="C255" s="12"/>
@@ -8341,7 +9502,7 @@
       <c r="N255" s="14"/>
       <c r="O255" s="2"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="26"/>
       <c r="B256" s="4"/>
       <c r="C256" s="12"/>
@@ -8358,7 +9519,7 @@
       <c r="N256" s="14"/>
       <c r="O256" s="2"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="26"/>
       <c r="B257" s="4"/>
       <c r="C257" s="12"/>
@@ -8375,7 +9536,7 @@
       <c r="N257" s="14"/>
       <c r="O257" s="2"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="26"/>
       <c r="B258" s="4"/>
       <c r="C258" s="12"/>
@@ -8392,7 +9553,7 @@
       <c r="N258" s="14"/>
       <c r="O258" s="2"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="26"/>
       <c r="B259" s="4"/>
       <c r="C259" s="12"/>
@@ -8409,7 +9570,7 @@
       <c r="N259" s="14"/>
       <c r="O259" s="2"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="26"/>
       <c r="B260" s="4"/>
       <c r="C260" s="12"/>
@@ -8426,7 +9587,7 @@
       <c r="N260" s="14"/>
       <c r="O260" s="2"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="26"/>
       <c r="B261" s="4"/>
       <c r="C261" s="12"/>
@@ -8443,7 +9604,7 @@
       <c r="N261" s="14"/>
       <c r="O261" s="2"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="26"/>
       <c r="B262" s="4"/>
       <c r="C262" s="12"/>
@@ -8460,7 +9621,7 @@
       <c r="N262" s="14"/>
       <c r="O262" s="2"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="26"/>
       <c r="B263" s="4"/>
       <c r="C263" s="12"/>
@@ -8477,7 +9638,7 @@
       <c r="N263" s="14"/>
       <c r="O263" s="2"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="26"/>
       <c r="B264" s="4"/>
       <c r="C264" s="12"/>
@@ -8494,7 +9655,7 @@
       <c r="N264" s="14"/>
       <c r="O264" s="2"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="26"/>
       <c r="B265" s="4"/>
       <c r="C265" s="12"/>
@@ -8511,7 +9672,7 @@
       <c r="N265" s="14"/>
       <c r="O265" s="2"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="26"/>
       <c r="B266" s="4"/>
       <c r="C266" s="12"/>
@@ -8528,7 +9689,7 @@
       <c r="N266" s="14"/>
       <c r="O266" s="2"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="26"/>
       <c r="B267" s="4"/>
       <c r="C267" s="12"/>
@@ -8545,7 +9706,7 @@
       <c r="N267" s="14"/>
       <c r="O267" s="2"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="26"/>
       <c r="B268" s="4"/>
       <c r="C268" s="12"/>
@@ -8562,7 +9723,7 @@
       <c r="N268" s="14"/>
       <c r="O268" s="2"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="26"/>
       <c r="B269" s="4"/>
       <c r="C269" s="12"/>
@@ -8579,7 +9740,7 @@
       <c r="N269" s="14"/>
       <c r="O269" s="2"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="26"/>
       <c r="B270" s="4"/>
       <c r="C270" s="12"/>
@@ -8596,7 +9757,7 @@
       <c r="N270" s="14"/>
       <c r="O270" s="2"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="26"/>
       <c r="B271" s="4"/>
       <c r="C271" s="12"/>
@@ -8613,7 +9774,7 @@
       <c r="N271" s="14"/>
       <c r="O271" s="2"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="26"/>
       <c r="B272" s="4"/>
       <c r="C272" s="12"/>
@@ -8630,7 +9791,7 @@
       <c r="N272" s="14"/>
       <c r="O272" s="2"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="26"/>
       <c r="B273" s="4"/>
       <c r="C273" s="12"/>
@@ -8647,7 +9808,7 @@
       <c r="N273" s="14"/>
       <c r="O273" s="2"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="26"/>
       <c r="B274" s="4"/>
       <c r="C274" s="12"/>
@@ -8664,7 +9825,7 @@
       <c r="N274" s="14"/>
       <c r="O274" s="2"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="26"/>
       <c r="B275" s="4"/>
       <c r="C275" s="12"/>
@@ -8681,7 +9842,7 @@
       <c r="N275" s="14"/>
       <c r="O275" s="2"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="26"/>
       <c r="B276" s="4"/>
       <c r="C276" s="12"/>
@@ -8698,7 +9859,7 @@
       <c r="N276" s="14"/>
       <c r="O276" s="2"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="26"/>
       <c r="B277" s="4"/>
       <c r="C277" s="12"/>
@@ -8715,7 +9876,7 @@
       <c r="N277" s="14"/>
       <c r="O277" s="2"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="26"/>
       <c r="B278" s="4"/>
       <c r="C278" s="12"/>
@@ -8732,7 +9893,7 @@
       <c r="N278" s="14"/>
       <c r="O278" s="2"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="26"/>
       <c r="B279" s="4"/>
       <c r="C279" s="12"/>
@@ -8749,7 +9910,7 @@
       <c r="N279" s="14"/>
       <c r="O279" s="2"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="26"/>
       <c r="B280" s="4"/>
       <c r="C280" s="12"/>
@@ -8766,7 +9927,7 @@
       <c r="N280" s="14"/>
       <c r="O280" s="2"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="26"/>
       <c r="B281" s="4"/>
       <c r="C281" s="12"/>
@@ -8783,7 +9944,7 @@
       <c r="N281" s="14"/>
       <c r="O281" s="2"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="26"/>
       <c r="B282" s="4"/>
       <c r="C282" s="12"/>
@@ -8800,7 +9961,7 @@
       <c r="N282" s="14"/>
       <c r="O282" s="2"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="26"/>
       <c r="B283" s="4"/>
       <c r="C283" s="12"/>
@@ -8817,7 +9978,7 @@
       <c r="N283" s="14"/>
       <c r="O283" s="2"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="26"/>
       <c r="B284" s="4"/>
       <c r="C284" s="12"/>
@@ -8834,7 +9995,7 @@
       <c r="N284" s="14"/>
       <c r="O284" s="2"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="26"/>
       <c r="B285" s="4"/>
       <c r="C285" s="12"/>
@@ -8851,7 +10012,7 @@
       <c r="N285" s="14"/>
       <c r="O285" s="2"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="26"/>
       <c r="B286" s="4"/>
       <c r="C286" s="12"/>
@@ -8868,7 +10029,7 @@
       <c r="N286" s="14"/>
       <c r="O286" s="2"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="26"/>
       <c r="B287" s="4"/>
       <c r="C287" s="12"/>
@@ -8885,7 +10046,7 @@
       <c r="N287" s="14"/>
       <c r="O287" s="2"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="26"/>
       <c r="B288" s="4"/>
       <c r="C288" s="12"/>
@@ -8902,7 +10063,7 @@
       <c r="N288" s="14"/>
       <c r="O288" s="2"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="26"/>
       <c r="B289" s="4"/>
       <c r="C289" s="12"/>
@@ -8919,7 +10080,7 @@
       <c r="N289" s="14"/>
       <c r="O289" s="2"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="26"/>
       <c r="B290" s="4"/>
       <c r="C290" s="12"/>
@@ -8936,7 +10097,7 @@
       <c r="N290" s="14"/>
       <c r="O290" s="2"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="26"/>
       <c r="B291" s="4"/>
       <c r="C291" s="12"/>
@@ -8953,7 +10114,7 @@
       <c r="N291" s="14"/>
       <c r="O291" s="2"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="26"/>
       <c r="B292" s="4"/>
       <c r="C292" s="12"/>
@@ -8970,7 +10131,7 @@
       <c r="N292" s="14"/>
       <c r="O292" s="2"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="26"/>
       <c r="B293" s="4"/>
       <c r="C293" s="12"/>
@@ -8987,7 +10148,7 @@
       <c r="N293" s="14"/>
       <c r="O293" s="2"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="26"/>
       <c r="B294" s="4"/>
       <c r="C294" s="12"/>
@@ -9004,7 +10165,7 @@
       <c r="N294" s="14"/>
       <c r="O294" s="2"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="26"/>
       <c r="B295" s="4"/>
       <c r="C295" s="12"/>
@@ -9021,7 +10182,7 @@
       <c r="N295" s="14"/>
       <c r="O295" s="2"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="26"/>
       <c r="B296" s="4"/>
       <c r="C296" s="12"/>
@@ -9038,7 +10199,7 @@
       <c r="N296" s="14"/>
       <c r="O296" s="2"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="26"/>
       <c r="B297" s="4"/>
       <c r="C297" s="12"/>
@@ -9055,7 +10216,7 @@
       <c r="N297" s="14"/>
       <c r="O297" s="2"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="26"/>
       <c r="B298" s="4"/>
       <c r="C298" s="12"/>
@@ -9072,7 +10233,7 @@
       <c r="N298" s="14"/>
       <c r="O298" s="2"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="26"/>
       <c r="B299" s="4"/>
       <c r="C299" s="12"/>
@@ -9089,7 +10250,7 @@
       <c r="N299" s="14"/>
       <c r="O299" s="2"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="26"/>
       <c r="B300" s="4"/>
       <c r="C300" s="12"/>
@@ -9106,7 +10267,7 @@
       <c r="N300" s="14"/>
       <c r="O300" s="2"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="26"/>
       <c r="B301" s="4"/>
       <c r="C301" s="12"/>
@@ -9123,7 +10284,7 @@
       <c r="N301" s="14"/>
       <c r="O301" s="2"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="26"/>
       <c r="B302" s="4"/>
       <c r="C302" s="12"/>
@@ -9140,7 +10301,7 @@
       <c r="N302" s="14"/>
       <c r="O302" s="2"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="26"/>
       <c r="B303" s="4"/>
       <c r="C303" s="12"/>
@@ -9157,7 +10318,7 @@
       <c r="N303" s="14"/>
       <c r="O303" s="2"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="26"/>
       <c r="B304" s="4"/>
       <c r="C304" s="12"/>
@@ -9174,7 +10335,7 @@
       <c r="N304" s="14"/>
       <c r="O304" s="2"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="26"/>
       <c r="B305" s="4"/>
       <c r="C305" s="12"/>
@@ -9191,7 +10352,7 @@
       <c r="N305" s="14"/>
       <c r="O305" s="2"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="26"/>
       <c r="B306" s="4"/>
       <c r="C306" s="12"/>
@@ -9208,7 +10369,7 @@
       <c r="N306" s="14"/>
       <c r="O306" s="2"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="26"/>
       <c r="B307" s="4"/>
       <c r="C307" s="12"/>
@@ -9225,7 +10386,7 @@
       <c r="N307" s="14"/>
       <c r="O307" s="2"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="26"/>
       <c r="B308" s="4"/>
       <c r="C308" s="12"/>
@@ -9242,7 +10403,7 @@
       <c r="N308" s="14"/>
       <c r="O308" s="2"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="26"/>
       <c r="B309" s="4"/>
       <c r="C309" s="12"/>
@@ -9259,7 +10420,7 @@
       <c r="N309" s="14"/>
       <c r="O309" s="2"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="26"/>
       <c r="B310" s="4"/>
       <c r="C310" s="12"/>
@@ -9276,7 +10437,7 @@
       <c r="N310" s="14"/>
       <c r="O310" s="2"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="26"/>
       <c r="B311" s="4"/>
       <c r="C311" s="12"/>
@@ -9293,7 +10454,7 @@
       <c r="N311" s="14"/>
       <c r="O311" s="2"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="26"/>
       <c r="B312" s="4"/>
       <c r="C312" s="12"/>
@@ -9310,7 +10471,7 @@
       <c r="N312" s="14"/>
       <c r="O312" s="2"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="26"/>
       <c r="B313" s="4"/>
       <c r="C313" s="12"/>
@@ -9327,7 +10488,7 @@
       <c r="N313" s="14"/>
       <c r="O313" s="2"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="26"/>
       <c r="B314" s="4"/>
       <c r="C314" s="12"/>
@@ -9344,7 +10505,7 @@
       <c r="N314" s="14"/>
       <c r="O314" s="2"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="26"/>
       <c r="B315" s="4"/>
       <c r="C315" s="12"/>
@@ -9361,7 +10522,7 @@
       <c r="N315" s="14"/>
       <c r="O315" s="2"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="26"/>
       <c r="B316" s="4"/>
       <c r="C316" s="12"/>
@@ -9378,7 +10539,7 @@
       <c r="N316" s="14"/>
       <c r="O316" s="2"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="26"/>
       <c r="B317" s="4"/>
       <c r="C317" s="12"/>
@@ -9395,7 +10556,7 @@
       <c r="N317" s="14"/>
       <c r="O317" s="2"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="26"/>
       <c r="B318" s="4"/>
       <c r="C318" s="12"/>
@@ -9412,7 +10573,7 @@
       <c r="N318" s="14"/>
       <c r="O318" s="2"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="26"/>
       <c r="B319" s="4"/>
       <c r="C319" s="12"/>
@@ -9429,7 +10590,7 @@
       <c r="N319" s="14"/>
       <c r="O319" s="2"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="26"/>
       <c r="B320" s="4"/>
       <c r="C320" s="12"/>
@@ -9446,7 +10607,7 @@
       <c r="N320" s="14"/>
       <c r="O320" s="2"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="26"/>
       <c r="B321" s="4"/>
       <c r="C321" s="12"/>
@@ -9463,7 +10624,7 @@
       <c r="N321" s="14"/>
       <c r="O321" s="2"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="26"/>
       <c r="B322" s="4"/>
       <c r="C322" s="12"/>
@@ -9480,7 +10641,7 @@
       <c r="N322" s="14"/>
       <c r="O322" s="2"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="26"/>
       <c r="B323" s="4"/>
       <c r="C323" s="12"/>
@@ -9497,7 +10658,7 @@
       <c r="N323" s="14"/>
       <c r="O323" s="2"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="26"/>
       <c r="B324" s="4"/>
       <c r="C324" s="12"/>
@@ -9514,7 +10675,7 @@
       <c r="N324" s="14"/>
       <c r="O324" s="2"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="26"/>
       <c r="B325" s="4"/>
       <c r="C325" s="12"/>
@@ -9531,7 +10692,7 @@
       <c r="N325" s="14"/>
       <c r="O325" s="2"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="26"/>
       <c r="B326" s="4"/>
       <c r="C326" s="12"/>
@@ -9548,7 +10709,7 @@
       <c r="N326" s="14"/>
       <c r="O326" s="2"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="26"/>
       <c r="B327" s="4"/>
       <c r="C327" s="12"/>
@@ -9565,7 +10726,7 @@
       <c r="N327" s="14"/>
       <c r="O327" s="2"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="26"/>
       <c r="B328" s="4"/>
       <c r="C328" s="12"/>
@@ -9582,7 +10743,7 @@
       <c r="N328" s="14"/>
       <c r="O328" s="2"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="26"/>
       <c r="B329" s="4"/>
       <c r="C329" s="12"/>
@@ -9599,7 +10760,7 @@
       <c r="N329" s="14"/>
       <c r="O329" s="2"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="26"/>
       <c r="B330" s="4"/>
       <c r="C330" s="12"/>
@@ -9616,7 +10777,7 @@
       <c r="N330" s="14"/>
       <c r="O330" s="2"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="26"/>
       <c r="B331" s="4"/>
       <c r="C331" s="12"/>
@@ -9633,7 +10794,7 @@
       <c r="N331" s="14"/>
       <c r="O331" s="2"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="26"/>
       <c r="B332" s="4"/>
       <c r="C332" s="12"/>
@@ -9650,7 +10811,7 @@
       <c r="N332" s="14"/>
       <c r="O332" s="2"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="26"/>
       <c r="B333" s="4"/>
       <c r="C333" s="12"/>
@@ -9667,7 +10828,7 @@
       <c r="N333" s="14"/>
       <c r="O333" s="2"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="26"/>
       <c r="B334" s="4"/>
       <c r="C334" s="12"/>
@@ -9684,7 +10845,7 @@
       <c r="N334" s="14"/>
       <c r="O334" s="2"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="26"/>
       <c r="B335" s="4"/>
       <c r="C335" s="12"/>
@@ -9701,7 +10862,7 @@
       <c r="N335" s="14"/>
       <c r="O335" s="2"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="26"/>
       <c r="B336" s="4"/>
       <c r="C336" s="12"/>
@@ -9718,7 +10879,7 @@
       <c r="N336" s="14"/>
       <c r="O336" s="2"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="26"/>
       <c r="B337" s="4"/>
       <c r="C337" s="12"/>
@@ -9735,7 +10896,7 @@
       <c r="N337" s="14"/>
       <c r="O337" s="2"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="26"/>
       <c r="B338" s="4"/>
       <c r="C338" s="12"/>
@@ -9752,7 +10913,7 @@
       <c r="N338" s="14"/>
       <c r="O338" s="2"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="26"/>
       <c r="B339" s="4"/>
       <c r="C339" s="12"/>
@@ -9769,7 +10930,7 @@
       <c r="N339" s="14"/>
       <c r="O339" s="2"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="26"/>
       <c r="B340" s="4"/>
       <c r="C340" s="12"/>
@@ -9786,7 +10947,7 @@
       <c r="N340" s="14"/>
       <c r="O340" s="2"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="26"/>
       <c r="B341" s="4"/>
       <c r="C341" s="12"/>
@@ -9803,7 +10964,7 @@
       <c r="N341" s="14"/>
       <c r="O341" s="2"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="26"/>
       <c r="B342" s="4"/>
       <c r="C342" s="12"/>
@@ -9820,7 +10981,7 @@
       <c r="N342" s="14"/>
       <c r="O342" s="2"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="26"/>
       <c r="B343" s="4"/>
       <c r="C343" s="12"/>
@@ -9837,7 +10998,7 @@
       <c r="N343" s="14"/>
       <c r="O343" s="2"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="26"/>
       <c r="B344" s="4"/>
       <c r="C344" s="12"/>
@@ -9854,7 +11015,7 @@
       <c r="N344" s="14"/>
       <c r="O344" s="2"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="26"/>
       <c r="B345" s="4"/>
       <c r="C345" s="12"/>
@@ -9871,7 +11032,7 @@
       <c r="N345" s="14"/>
       <c r="O345" s="2"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="26"/>
       <c r="B346" s="4"/>
       <c r="C346" s="12"/>
@@ -9888,7 +11049,7 @@
       <c r="N346" s="14"/>
       <c r="O346" s="2"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="26"/>
       <c r="B347" s="4"/>
       <c r="C347" s="12"/>
@@ -9905,7 +11066,7 @@
       <c r="N347" s="14"/>
       <c r="O347" s="2"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="26"/>
       <c r="B348" s="4"/>
       <c r="C348" s="12"/>
@@ -9922,7 +11083,7 @@
       <c r="N348" s="14"/>
       <c r="O348" s="2"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="26"/>
       <c r="B349" s="4"/>
       <c r="C349" s="12"/>
@@ -9939,7 +11100,7 @@
       <c r="N349" s="14"/>
       <c r="O349" s="2"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="26"/>
       <c r="B350" s="4"/>
       <c r="C350" s="12"/>
@@ -9956,7 +11117,7 @@
       <c r="N350" s="14"/>
       <c r="O350" s="2"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="26"/>
       <c r="B351" s="4"/>
       <c r="C351" s="12"/>
@@ -9973,7 +11134,7 @@
       <c r="N351" s="14"/>
       <c r="O351" s="2"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="26"/>
       <c r="B352" s="4"/>
       <c r="C352" s="12"/>
@@ -9990,7 +11151,7 @@
       <c r="N352" s="14"/>
       <c r="O352" s="2"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="26"/>
       <c r="B353" s="4"/>
       <c r="C353" s="12"/>
@@ -10007,7 +11168,7 @@
       <c r="N353" s="14"/>
       <c r="O353" s="2"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="26"/>
       <c r="B354" s="4"/>
       <c r="C354" s="12"/>
@@ -10024,7 +11185,7 @@
       <c r="N354" s="14"/>
       <c r="O354" s="2"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="26"/>
       <c r="B355" s="4"/>
       <c r="C355" s="12"/>
@@ -10041,7 +11202,7 @@
       <c r="N355" s="14"/>
       <c r="O355" s="2"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="26"/>
       <c r="B356" s="4"/>
       <c r="C356" s="12"/>
@@ -10058,7 +11219,7 @@
       <c r="N356" s="14"/>
       <c r="O356" s="2"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="26"/>
       <c r="B357" s="4"/>
       <c r="C357" s="12"/>
@@ -10075,7 +11236,7 @@
       <c r="N357" s="14"/>
       <c r="O357" s="2"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="26"/>
       <c r="B358" s="4"/>
       <c r="C358" s="12"/>
@@ -10092,7 +11253,7 @@
       <c r="N358" s="14"/>
       <c r="O358" s="2"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="26"/>
       <c r="B359" s="4"/>
       <c r="C359" s="12"/>
@@ -10109,7 +11270,7 @@
       <c r="N359" s="14"/>
       <c r="O359" s="2"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="26"/>
       <c r="B360" s="4"/>
       <c r="C360" s="12"/>
@@ -10126,7 +11287,7 @@
       <c r="N360" s="14"/>
       <c r="O360" s="2"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="26"/>
       <c r="B361" s="4"/>
       <c r="C361" s="12"/>
@@ -10143,7 +11304,7 @@
       <c r="N361" s="14"/>
       <c r="O361" s="2"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="26"/>
       <c r="B362" s="4"/>
       <c r="C362" s="12"/>
@@ -10160,7 +11321,7 @@
       <c r="N362" s="14"/>
       <c r="O362" s="2"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="26"/>
       <c r="B363" s="4"/>
       <c r="C363" s="12"/>
@@ -10177,7 +11338,7 @@
       <c r="N363" s="14"/>
       <c r="O363" s="2"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="26"/>
       <c r="B364" s="4"/>
       <c r="C364" s="12"/>
@@ -10194,7 +11355,7 @@
       <c r="N364" s="14"/>
       <c r="O364" s="2"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="26"/>
       <c r="B365" s="4"/>
       <c r="C365" s="12"/>
@@ -10211,7 +11372,7 @@
       <c r="N365" s="14"/>
       <c r="O365" s="2"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="26"/>
       <c r="B366" s="4"/>
       <c r="C366" s="12"/>
@@ -10228,7 +11389,7 @@
       <c r="N366" s="14"/>
       <c r="O366" s="2"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="26"/>
       <c r="B367" s="4"/>
       <c r="C367" s="12"/>
@@ -10245,7 +11406,7 @@
       <c r="N367" s="14"/>
       <c r="O367" s="2"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="26"/>
       <c r="B368" s="4"/>
       <c r="C368" s="12"/>
@@ -10262,7 +11423,7 @@
       <c r="N368" s="14"/>
       <c r="O368" s="2"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="26"/>
       <c r="B369" s="4"/>
       <c r="C369" s="12"/>
@@ -10279,7 +11440,7 @@
       <c r="N369" s="14"/>
       <c r="O369" s="2"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="26"/>
       <c r="B370" s="4"/>
       <c r="C370" s="12"/>
@@ -10296,7 +11457,7 @@
       <c r="N370" s="14"/>
       <c r="O370" s="2"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="26"/>
       <c r="B371" s="4"/>
       <c r="C371" s="12"/>
@@ -10313,7 +11474,7 @@
       <c r="N371" s="14"/>
       <c r="O371" s="2"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="26"/>
       <c r="B372" s="4"/>
       <c r="C372" s="12"/>
@@ -10330,7 +11491,7 @@
       <c r="N372" s="14"/>
       <c r="O372" s="2"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="26"/>
       <c r="B373" s="4"/>
       <c r="C373" s="12"/>
@@ -10347,7 +11508,7 @@
       <c r="N373" s="14"/>
       <c r="O373" s="2"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="26"/>
       <c r="B374" s="4"/>
       <c r="C374" s="12"/>
@@ -10364,7 +11525,7 @@
       <c r="N374" s="14"/>
       <c r="O374" s="2"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="26"/>
       <c r="B375" s="4"/>
       <c r="C375" s="12"/>
@@ -10381,7 +11542,7 @@
       <c r="N375" s="14"/>
       <c r="O375" s="2"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="26"/>
       <c r="B376" s="4"/>
       <c r="C376" s="12"/>
@@ -10398,7 +11559,7 @@
       <c r="N376" s="14"/>
       <c r="O376" s="2"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="26"/>
       <c r="B377" s="4"/>
       <c r="C377" s="12"/>
@@ -10415,7 +11576,7 @@
       <c r="N377" s="14"/>
       <c r="O377" s="2"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="26"/>
       <c r="B378" s="4"/>
       <c r="C378" s="12"/>
@@ -10432,7 +11593,7 @@
       <c r="N378" s="14"/>
       <c r="O378" s="2"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="26"/>
       <c r="B379" s="4"/>
       <c r="C379" s="12"/>
@@ -10449,7 +11610,7 @@
       <c r="N379" s="14"/>
       <c r="O379" s="2"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="26"/>
       <c r="B380" s="4"/>
       <c r="C380" s="12"/>
@@ -10466,7 +11627,7 @@
       <c r="N380" s="14"/>
       <c r="O380" s="2"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="26"/>
       <c r="B381" s="4"/>
       <c r="C381" s="12"/>
@@ -10483,7 +11644,7 @@
       <c r="N381" s="14"/>
       <c r="O381" s="2"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="26"/>
       <c r="B382" s="4"/>
       <c r="C382" s="12"/>
@@ -10500,7 +11661,7 @@
       <c r="N382" s="14"/>
       <c r="O382" s="2"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="26"/>
       <c r="B383" s="4"/>
       <c r="C383" s="12"/>
@@ -10517,7 +11678,7 @@
       <c r="N383" s="14"/>
       <c r="O383" s="2"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="26"/>
       <c r="B384" s="4"/>
       <c r="C384" s="12"/>
@@ -10534,7 +11695,7 @@
       <c r="N384" s="14"/>
       <c r="O384" s="2"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="26"/>
       <c r="B385" s="4"/>
       <c r="C385" s="12"/>
@@ -10551,7 +11712,7 @@
       <c r="N385" s="14"/>
       <c r="O385" s="2"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="26"/>
       <c r="B386" s="4"/>
       <c r="C386" s="12"/>
@@ -10568,7 +11729,7 @@
       <c r="N386" s="14"/>
       <c r="O386" s="2"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="26"/>
       <c r="B387" s="4"/>
       <c r="C387" s="12"/>
@@ -10585,7 +11746,7 @@
       <c r="N387" s="14"/>
       <c r="O387" s="2"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="26"/>
       <c r="B388" s="4"/>
       <c r="C388" s="12"/>
@@ -10602,7 +11763,7 @@
       <c r="N388" s="14"/>
       <c r="O388" s="2"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="26"/>
       <c r="B389" s="4"/>
       <c r="C389" s="12"/>
@@ -10619,7 +11780,7 @@
       <c r="N389" s="14"/>
       <c r="O389" s="2"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="26"/>
       <c r="B390" s="4"/>
       <c r="C390" s="12"/>
@@ -10636,7 +11797,7 @@
       <c r="N390" s="14"/>
       <c r="O390" s="2"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="26"/>
       <c r="B391" s="4"/>
       <c r="C391" s="12"/>
@@ -10653,7 +11814,7 @@
       <c r="N391" s="14"/>
       <c r="O391" s="2"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="26"/>
       <c r="B392" s="4"/>
       <c r="C392" s="12"/>
@@ -10670,7 +11831,7 @@
       <c r="N392" s="14"/>
       <c r="O392" s="2"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="26"/>
       <c r="B393" s="4"/>
       <c r="C393" s="12"/>
@@ -10687,7 +11848,7 @@
       <c r="N393" s="14"/>
       <c r="O393" s="2"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="26"/>
       <c r="B394" s="4"/>
       <c r="C394" s="12"/>
@@ -10704,7 +11865,7 @@
       <c r="N394" s="14"/>
       <c r="O394" s="2"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="26"/>
       <c r="B395" s="4"/>
       <c r="C395" s="12"/>
@@ -10721,7 +11882,7 @@
       <c r="N395" s="14"/>
       <c r="O395" s="2"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="26"/>
       <c r="B396" s="4"/>
       <c r="C396" s="12"/>
@@ -10738,7 +11899,7 @@
       <c r="N396" s="14"/>
       <c r="O396" s="2"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="26"/>
       <c r="B397" s="4"/>
       <c r="C397" s="12"/>
@@ -10755,7 +11916,7 @@
       <c r="N397" s="14"/>
       <c r="O397" s="2"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="26"/>
       <c r="B398" s="4"/>
       <c r="C398" s="12"/>
@@ -10772,7 +11933,7 @@
       <c r="N398" s="14"/>
       <c r="O398" s="2"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="26"/>
       <c r="B399" s="4"/>
       <c r="C399" s="12"/>
@@ -10789,7 +11950,7 @@
       <c r="N399" s="14"/>
       <c r="O399" s="2"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="26"/>
       <c r="B400" s="4"/>
       <c r="C400" s="12"/>
@@ -10806,7 +11967,7 @@
       <c r="N400" s="14"/>
       <c r="O400" s="2"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="26"/>
       <c r="B401" s="4"/>
       <c r="C401" s="12"/>
@@ -10823,7 +11984,7 @@
       <c r="N401" s="14"/>
       <c r="O401" s="2"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="26"/>
       <c r="B402" s="4"/>
       <c r="C402" s="12"/>
@@ -10840,7 +12001,7 @@
       <c r="N402" s="14"/>
       <c r="O402" s="2"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="26"/>
       <c r="B403" s="4"/>
       <c r="C403" s="12"/>
@@ -10857,7 +12018,7 @@
       <c r="N403" s="14"/>
       <c r="O403" s="2"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="26"/>
       <c r="B404" s="4"/>
       <c r="C404" s="12"/>
@@ -10874,7 +12035,7 @@
       <c r="N404" s="14"/>
       <c r="O404" s="2"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="26"/>
       <c r="B405" s="4"/>
       <c r="C405" s="12"/>
@@ -10891,7 +12052,7 @@
       <c r="N405" s="14"/>
       <c r="O405" s="2"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="26"/>
       <c r="B406" s="4"/>
       <c r="C406" s="12"/>
@@ -10908,7 +12069,7 @@
       <c r="N406" s="14"/>
       <c r="O406" s="2"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="26"/>
       <c r="B407" s="4"/>
       <c r="C407" s="12"/>
@@ -10925,7 +12086,7 @@
       <c r="N407" s="14"/>
       <c r="O407" s="2"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="26"/>
       <c r="B408" s="4"/>
       <c r="C408" s="12"/>
@@ -10942,7 +12103,7 @@
       <c r="N408" s="14"/>
       <c r="O408" s="2"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="26"/>
       <c r="B409" s="4"/>
       <c r="C409" s="12"/>
@@ -10959,7 +12120,7 @@
       <c r="N409" s="14"/>
       <c r="O409" s="2"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="26"/>
       <c r="B410" s="4"/>
       <c r="C410" s="12"/>
@@ -10976,7 +12137,7 @@
       <c r="N410" s="14"/>
       <c r="O410" s="2"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="26"/>
       <c r="B411" s="4"/>
       <c r="C411" s="12"/>
@@ -10993,7 +12154,7 @@
       <c r="N411" s="14"/>
       <c r="O411" s="2"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="26"/>
       <c r="B412" s="4"/>
       <c r="C412" s="12"/>
@@ -11010,7 +12171,7 @@
       <c r="N412" s="14"/>
       <c r="O412" s="2"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="26"/>
       <c r="B413" s="4"/>
       <c r="C413" s="12"/>
@@ -11027,7 +12188,7 @@
       <c r="N413" s="14"/>
       <c r="O413" s="2"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="26"/>
       <c r="B414" s="4"/>
       <c r="C414" s="12"/>
@@ -11044,7 +12205,7 @@
       <c r="N414" s="14"/>
       <c r="O414" s="2"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="26"/>
       <c r="B415" s="4"/>
       <c r="C415" s="12"/>
@@ -11061,7 +12222,7 @@
       <c r="N415" s="14"/>
       <c r="O415" s="2"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="26"/>
       <c r="B416" s="4"/>
       <c r="C416" s="12"/>
@@ -11078,7 +12239,7 @@
       <c r="N416" s="14"/>
       <c r="O416" s="2"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="26"/>
       <c r="B417" s="4"/>
       <c r="C417" s="12"/>
@@ -11095,7 +12256,7 @@
       <c r="N417" s="14"/>
       <c r="O417" s="2"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="26"/>
       <c r="B418" s="4"/>
       <c r="C418" s="12"/>
@@ -11112,7 +12273,7 @@
       <c r="N418" s="14"/>
       <c r="O418" s="2"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="26"/>
       <c r="B419" s="4"/>
       <c r="C419" s="12"/>
@@ -11129,7 +12290,7 @@
       <c r="N419" s="14"/>
       <c r="O419" s="2"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="26"/>
       <c r="B420" s="4"/>
       <c r="C420" s="12"/>
@@ -11146,7 +12307,7 @@
       <c r="N420" s="14"/>
       <c r="O420" s="2"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="26"/>
       <c r="B421" s="4"/>
       <c r="C421" s="12"/>
@@ -11163,7 +12324,7 @@
       <c r="N421" s="14"/>
       <c r="O421" s="2"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="26"/>
       <c r="B422" s="4"/>
       <c r="C422" s="12"/>
@@ -11180,7 +12341,7 @@
       <c r="N422" s="14"/>
       <c r="O422" s="2"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="26"/>
       <c r="B423" s="4"/>
       <c r="C423" s="12"/>
@@ -11197,7 +12358,7 @@
       <c r="N423" s="14"/>
       <c r="O423" s="2"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="26"/>
       <c r="B424" s="4"/>
       <c r="C424" s="12"/>
@@ -11214,7 +12375,7 @@
       <c r="N424" s="14"/>
       <c r="O424" s="2"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="26"/>
       <c r="B425" s="4"/>
       <c r="C425" s="12"/>
@@ -11231,7 +12392,7 @@
       <c r="N425" s="14"/>
       <c r="O425" s="2"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="26"/>
       <c r="B426" s="4"/>
       <c r="C426" s="12"/>
@@ -11248,7 +12409,7 @@
       <c r="N426" s="14"/>
       <c r="O426" s="2"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="26"/>
       <c r="B427" s="4"/>
       <c r="C427" s="12"/>
@@ -11265,7 +12426,7 @@
       <c r="N427" s="14"/>
       <c r="O427" s="2"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="26"/>
       <c r="B428" s="4"/>
       <c r="C428" s="12"/>
@@ -11282,7 +12443,7 @@
       <c r="N428" s="14"/>
       <c r="O428" s="2"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="26"/>
       <c r="B429" s="4"/>
       <c r="C429" s="12"/>
@@ -11299,7 +12460,7 @@
       <c r="N429" s="14"/>
       <c r="O429" s="2"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="26"/>
       <c r="B430" s="4"/>
       <c r="C430" s="12"/>
@@ -11316,7 +12477,7 @@
       <c r="N430" s="14"/>
       <c r="O430" s="2"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="26"/>
       <c r="B431" s="4"/>
       <c r="C431" s="12"/>
@@ -11333,7 +12494,7 @@
       <c r="N431" s="14"/>
       <c r="O431" s="2"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="26"/>
       <c r="B432" s="4"/>
       <c r="C432" s="12"/>
@@ -11350,7 +12511,7 @@
       <c r="N432" s="14"/>
       <c r="O432" s="2"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="26"/>
       <c r="B433" s="4"/>
       <c r="C433" s="12"/>
@@ -11367,7 +12528,7 @@
       <c r="N433" s="14"/>
       <c r="O433" s="2"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="26"/>
       <c r="B434" s="4"/>
       <c r="C434" s="12"/>
@@ -11384,7 +12545,7 @@
       <c r="N434" s="14"/>
       <c r="O434" s="2"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="26"/>
       <c r="B435" s="4"/>
       <c r="C435" s="12"/>
@@ -11401,7 +12562,7 @@
       <c r="N435" s="14"/>
       <c r="O435" s="2"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="26"/>
       <c r="B436" s="4"/>
       <c r="C436" s="12"/>
@@ -11418,7 +12579,7 @@
       <c r="N436" s="14"/>
       <c r="O436" s="2"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="26"/>
       <c r="B437" s="4"/>
       <c r="C437" s="12"/>
@@ -11435,7 +12596,7 @@
       <c r="N437" s="14"/>
       <c r="O437" s="2"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="26"/>
       <c r="B438" s="4"/>
       <c r="C438" s="12"/>
@@ -11452,7 +12613,7 @@
       <c r="N438" s="14"/>
       <c r="O438" s="2"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="26"/>
       <c r="B439" s="4"/>
       <c r="C439" s="12"/>
@@ -11469,7 +12630,7 @@
       <c r="N439" s="14"/>
       <c r="O439" s="2"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="26"/>
       <c r="B440" s="4"/>
       <c r="C440" s="12"/>
@@ -11486,7 +12647,7 @@
       <c r="N440" s="14"/>
       <c r="O440" s="2"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="26"/>
       <c r="B441" s="4"/>
       <c r="C441" s="12"/>
@@ -11503,7 +12664,7 @@
       <c r="N441" s="14"/>
       <c r="O441" s="2"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="26"/>
       <c r="B442" s="4"/>
       <c r="C442" s="12"/>
@@ -11520,7 +12681,7 @@
       <c r="N442" s="14"/>
       <c r="O442" s="2"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="26"/>
       <c r="B443" s="4"/>
       <c r="C443" s="12"/>
@@ -11537,7 +12698,7 @@
       <c r="N443" s="14"/>
       <c r="O443" s="2"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="26"/>
       <c r="B444" s="4"/>
       <c r="C444" s="12"/>
@@ -11554,7 +12715,7 @@
       <c r="N444" s="14"/>
       <c r="O444" s="2"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="26"/>
       <c r="B445" s="4"/>
       <c r="C445" s="12"/>
@@ -11571,7 +12732,7 @@
       <c r="N445" s="14"/>
       <c r="O445" s="2"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="26"/>
       <c r="B446" s="4"/>
       <c r="C446" s="12"/>
@@ -11588,7 +12749,7 @@
       <c r="N446" s="14"/>
       <c r="O446" s="2"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="26"/>
       <c r="B447" s="4"/>
       <c r="C447" s="12"/>
@@ -11605,7 +12766,7 @@
       <c r="N447" s="14"/>
       <c r="O447" s="2"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="26"/>
       <c r="B448" s="4"/>
       <c r="C448" s="12"/>
@@ -11622,7 +12783,7 @@
       <c r="N448" s="14"/>
       <c r="O448" s="2"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="26"/>
       <c r="B449" s="4"/>
       <c r="C449" s="12"/>
@@ -11639,7 +12800,7 @@
       <c r="N449" s="14"/>
       <c r="O449" s="2"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="26"/>
       <c r="B450" s="4"/>
       <c r="C450" s="12"/>
@@ -11656,7 +12817,7 @@
       <c r="N450" s="14"/>
       <c r="O450" s="2"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="26"/>
       <c r="B451" s="4"/>
       <c r="C451" s="12"/>
@@ -11673,7 +12834,7 @@
       <c r="N451" s="14"/>
       <c r="O451" s="2"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="26"/>
       <c r="B452" s="4"/>
       <c r="C452" s="12"/>
@@ -11690,7 +12851,7 @@
       <c r="N452" s="14"/>
       <c r="O452" s="2"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="26"/>
       <c r="B453" s="4"/>
       <c r="C453" s="12"/>
@@ -11707,7 +12868,7 @@
       <c r="N453" s="14"/>
       <c r="O453" s="2"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="26"/>
       <c r="B454" s="4"/>
       <c r="C454" s="12"/>
@@ -11724,7 +12885,7 @@
       <c r="N454" s="14"/>
       <c r="O454" s="2"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="26"/>
       <c r="B455" s="4"/>
       <c r="C455" s="12"/>
@@ -11741,7 +12902,7 @@
       <c r="N455" s="14"/>
       <c r="O455" s="2"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="26"/>
       <c r="B456" s="4"/>
       <c r="C456" s="12"/>
@@ -11758,7 +12919,7 @@
       <c r="N456" s="14"/>
       <c r="O456" s="2"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="26"/>
       <c r="B457" s="4"/>
       <c r="C457" s="12"/>
@@ -11775,7 +12936,7 @@
       <c r="N457" s="14"/>
       <c r="O457" s="2"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="26"/>
       <c r="B458" s="4"/>
       <c r="C458" s="12"/>
@@ -11792,7 +12953,7 @@
       <c r="N458" s="14"/>
       <c r="O458" s="2"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="26"/>
       <c r="B459" s="4"/>
       <c r="C459" s="12"/>
@@ -11809,7 +12970,7 @@
       <c r="N459" s="14"/>
       <c r="O459" s="2"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="26"/>
       <c r="B460" s="4"/>
       <c r="C460" s="12"/>
@@ -11826,7 +12987,7 @@
       <c r="N460" s="14"/>
       <c r="O460" s="2"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="26"/>
       <c r="B461" s="4"/>
       <c r="C461" s="12"/>
@@ -11843,7 +13004,7 @@
       <c r="N461" s="14"/>
       <c r="O461" s="2"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="26"/>
       <c r="B462" s="4"/>
       <c r="C462" s="12"/>
@@ -11860,7 +13021,7 @@
       <c r="N462" s="14"/>
       <c r="O462" s="2"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="26"/>
       <c r="B463" s="4"/>
       <c r="C463" s="12"/>
@@ -11877,7 +13038,7 @@
       <c r="N463" s="14"/>
       <c r="O463" s="2"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="26"/>
       <c r="B464" s="4"/>
       <c r="C464" s="12"/>
@@ -11894,7 +13055,7 @@
       <c r="N464" s="14"/>
       <c r="O464" s="2"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="26"/>
       <c r="B465" s="4"/>
       <c r="C465" s="12"/>
@@ -11911,7 +13072,7 @@
       <c r="N465" s="14"/>
       <c r="O465" s="2"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="26"/>
       <c r="B466" s="4"/>
       <c r="C466" s="12"/>
@@ -11928,7 +13089,7 @@
       <c r="N466" s="14"/>
       <c r="O466" s="2"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="26"/>
       <c r="B467" s="4"/>
       <c r="C467" s="12"/>
@@ -11945,7 +13106,7 @@
       <c r="N467" s="14"/>
       <c r="O467" s="2"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="26"/>
       <c r="B468" s="4"/>
       <c r="C468" s="12"/>
@@ -11962,7 +13123,7 @@
       <c r="N468" s="14"/>
       <c r="O468" s="2"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="26"/>
       <c r="B469" s="4"/>
       <c r="C469" s="12"/>
@@ -11979,7 +13140,7 @@
       <c r="N469" s="14"/>
       <c r="O469" s="2"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="26"/>
       <c r="B470" s="4"/>
       <c r="C470" s="12"/>
@@ -11996,7 +13157,7 @@
       <c r="N470" s="14"/>
       <c r="O470" s="2"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="26"/>
       <c r="B471" s="4"/>
       <c r="C471" s="12"/>
@@ -12013,7 +13174,7 @@
       <c r="N471" s="14"/>
       <c r="O471" s="2"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="26"/>
       <c r="B472" s="4"/>
       <c r="C472" s="12"/>
@@ -12030,7 +13191,7 @@
       <c r="N472" s="14"/>
       <c r="O472" s="2"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="26"/>
       <c r="B473" s="4"/>
       <c r="C473" s="12"/>
@@ -12047,7 +13208,7 @@
       <c r="N473" s="14"/>
       <c r="O473" s="2"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="26"/>
       <c r="B474" s="4"/>
       <c r="C474" s="12"/>
@@ -12064,7 +13225,7 @@
       <c r="N474" s="14"/>
       <c r="O474" s="2"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="26"/>
       <c r="B475" s="4"/>
       <c r="C475" s="12"/>
@@ -12081,7 +13242,7 @@
       <c r="N475" s="14"/>
       <c r="O475" s="2"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="26"/>
       <c r="B476" s="4"/>
       <c r="C476" s="12"/>
@@ -12098,7 +13259,7 @@
       <c r="N476" s="14"/>
       <c r="O476" s="2"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="26"/>
       <c r="B477" s="4"/>
       <c r="C477" s="12"/>
@@ -12115,7 +13276,7 @@
       <c r="N477" s="14"/>
       <c r="O477" s="2"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="26"/>
       <c r="B478" s="4"/>
       <c r="C478" s="12"/>
@@ -12132,7 +13293,7 @@
       <c r="N478" s="14"/>
       <c r="O478" s="2"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="26"/>
       <c r="B479" s="4"/>
       <c r="C479" s="12"/>
@@ -12149,7 +13310,7 @@
       <c r="N479" s="14"/>
       <c r="O479" s="2"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="26"/>
       <c r="B480" s="4"/>
       <c r="C480" s="12"/>
@@ -12166,7 +13327,7 @@
       <c r="N480" s="14"/>
       <c r="O480" s="2"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="26"/>
       <c r="B481" s="4"/>
       <c r="C481" s="12"/>
@@ -12183,7 +13344,7 @@
       <c r="N481" s="14"/>
       <c r="O481" s="2"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="26"/>
       <c r="B482" s="4"/>
       <c r="C482" s="12"/>
@@ -12200,7 +13361,7 @@
       <c r="N482" s="14"/>
       <c r="O482" s="2"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="26"/>
       <c r="B483" s="4"/>
       <c r="C483" s="12"/>
@@ -12217,7 +13378,7 @@
       <c r="N483" s="14"/>
       <c r="O483" s="2"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="26"/>
       <c r="B484" s="4"/>
       <c r="C484" s="12"/>
@@ -12234,7 +13395,7 @@
       <c r="N484" s="14"/>
       <c r="O484" s="2"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="26"/>
       <c r="B485" s="4"/>
       <c r="C485" s="12"/>
@@ -12251,7 +13412,7 @@
       <c r="N485" s="14"/>
       <c r="O485" s="2"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="26"/>
       <c r="B486" s="4"/>
       <c r="C486" s="12"/>
@@ -12268,7 +13429,7 @@
       <c r="N486" s="14"/>
       <c r="O486" s="2"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="26"/>
       <c r="B487" s="4"/>
       <c r="C487" s="12"/>
@@ -12285,7 +13446,7 @@
       <c r="N487" s="14"/>
       <c r="O487" s="2"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="26"/>
       <c r="B488" s="4"/>
       <c r="C488" s="12"/>
@@ -12302,7 +13463,7 @@
       <c r="N488" s="14"/>
       <c r="O488" s="2"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="26"/>
       <c r="B489" s="4"/>
       <c r="C489" s="12"/>
@@ -12319,7 +13480,7 @@
       <c r="N489" s="14"/>
       <c r="O489" s="2"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="26"/>
       <c r="B490" s="4"/>
       <c r="C490" s="12"/>
@@ -12336,7 +13497,7 @@
       <c r="N490" s="14"/>
       <c r="O490" s="2"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="26"/>
       <c r="B491" s="4"/>
       <c r="C491" s="12"/>
@@ -12353,7 +13514,7 @@
       <c r="N491" s="14"/>
       <c r="O491" s="2"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="26"/>
       <c r="B492" s="4"/>
       <c r="C492" s="12"/>
@@ -12370,7 +13531,7 @@
       <c r="N492" s="14"/>
       <c r="O492" s="2"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="26"/>
       <c r="B493" s="4"/>
       <c r="C493" s="12"/>
@@ -12387,7 +13548,7 @@
       <c r="N493" s="14"/>
       <c r="O493" s="2"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="26"/>
       <c r="B494" s="4"/>
       <c r="C494" s="12"/>
@@ -12404,7 +13565,7 @@
       <c r="N494" s="14"/>
       <c r="O494" s="2"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="26"/>
       <c r="B495" s="4"/>
       <c r="C495" s="12"/>
@@ -12421,7 +13582,7 @@
       <c r="N495" s="14"/>
       <c r="O495" s="2"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="26"/>
       <c r="B496" s="4"/>
       <c r="C496" s="12"/>
@@ -12438,7 +13599,7 @@
       <c r="N496" s="14"/>
       <c r="O496" s="2"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="26"/>
       <c r="B497" s="4"/>
       <c r="C497" s="12"/>
@@ -12455,7 +13616,7 @@
       <c r="N497" s="14"/>
       <c r="O497" s="2"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="26"/>
       <c r="B498" s="4"/>
       <c r="C498" s="12"/>
@@ -12472,7 +13633,7 @@
       <c r="N498" s="14"/>
       <c r="O498" s="2"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="26"/>
       <c r="B499" s="4"/>
       <c r="C499" s="12"/>
@@ -12489,7 +13650,7 @@
       <c r="N499" s="14"/>
       <c r="O499" s="2"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="26"/>
       <c r="B500" s="4"/>
       <c r="C500" s="12"/>
@@ -12506,7 +13667,7 @@
       <c r="N500" s="14"/>
       <c r="O500" s="2"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="26"/>
       <c r="B501" s="4"/>
       <c r="C501" s="12"/>
@@ -12523,7 +13684,7 @@
       <c r="N501" s="14"/>
       <c r="O501" s="2"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="26"/>
       <c r="B502" s="4"/>
       <c r="C502" s="12"/>
@@ -12540,7 +13701,7 @@
       <c r="N502" s="14"/>
       <c r="O502" s="2"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="26"/>
       <c r="B503" s="4"/>
       <c r="C503" s="12"/>
@@ -12557,7 +13718,7 @@
       <c r="N503" s="14"/>
       <c r="O503" s="2"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="26"/>
       <c r="B504" s="4"/>
       <c r="C504" s="12"/>
@@ -12574,7 +13735,7 @@
       <c r="N504" s="14"/>
       <c r="O504" s="2"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="26"/>
       <c r="B505" s="4"/>
       <c r="C505" s="12"/>
@@ -12591,7 +13752,7 @@
       <c r="N505" s="14"/>
       <c r="O505" s="2"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="26"/>
       <c r="B506" s="4"/>
       <c r="C506" s="12"/>
@@ -12608,7 +13769,7 @@
       <c r="N506" s="14"/>
       <c r="O506" s="2"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="26"/>
       <c r="B507" s="4"/>
       <c r="C507" s="12"/>
@@ -12625,7 +13786,7 @@
       <c r="N507" s="14"/>
       <c r="O507" s="2"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="26"/>
       <c r="B508" s="4"/>
       <c r="C508" s="12"/>
@@ -12642,7 +13803,7 @@
       <c r="N508" s="14"/>
       <c r="O508" s="2"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="26"/>
       <c r="B509" s="4"/>
       <c r="C509" s="12"/>
@@ -12659,7 +13820,7 @@
       <c r="N509" s="14"/>
       <c r="O509" s="2"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="26"/>
       <c r="B510" s="4"/>
       <c r="C510" s="12"/>
@@ -12676,7 +13837,7 @@
       <c r="N510" s="14"/>
       <c r="O510" s="2"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="26"/>
       <c r="B511" s="4"/>
       <c r="C511" s="12"/>
@@ -12693,7 +13854,7 @@
       <c r="N511" s="14"/>
       <c r="O511" s="2"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="26"/>
       <c r="B512" s="4"/>
       <c r="C512" s="12"/>
@@ -12710,7 +13871,7 @@
       <c r="N512" s="14"/>
       <c r="O512" s="2"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="26"/>
       <c r="B513" s="4"/>
       <c r="C513" s="12"/>
@@ -12727,7 +13888,7 @@
       <c r="N513" s="14"/>
       <c r="O513" s="2"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="26"/>
       <c r="B514" s="4"/>
       <c r="C514" s="12"/>
@@ -12744,7 +13905,7 @@
       <c r="N514" s="14"/>
       <c r="O514" s="2"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="26"/>
       <c r="B515" s="4"/>
       <c r="C515" s="12"/>
@@ -12761,7 +13922,7 @@
       <c r="N515" s="14"/>
       <c r="O515" s="2"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="26"/>
       <c r="B516" s="4"/>
       <c r="C516" s="12"/>
@@ -12778,7 +13939,7 @@
       <c r="N516" s="14"/>
       <c r="O516" s="2"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="26"/>
       <c r="B517" s="4"/>
       <c r="C517" s="12"/>
@@ -12795,7 +13956,7 @@
       <c r="N517" s="14"/>
       <c r="O517" s="2"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="26"/>
       <c r="B518" s="4"/>
       <c r="C518" s="12"/>
@@ -12812,7 +13973,7 @@
       <c r="N518" s="14"/>
       <c r="O518" s="2"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="26"/>
       <c r="B519" s="4"/>
       <c r="C519" s="12"/>
@@ -12829,7 +13990,7 @@
       <c r="N519" s="14"/>
       <c r="O519" s="2"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="26"/>
       <c r="B520" s="4"/>
       <c r="C520" s="12"/>
@@ -12846,7 +14007,7 @@
       <c r="N520" s="14"/>
       <c r="O520" s="2"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="26"/>
       <c r="B521" s="4"/>
       <c r="C521" s="12"/>
@@ -12863,7 +14024,7 @@
       <c r="N521" s="14"/>
       <c r="O521" s="2"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="26"/>
       <c r="B522" s="4"/>
       <c r="C522" s="12"/>
@@ -12880,7 +14041,7 @@
       <c r="N522" s="14"/>
       <c r="O522" s="2"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="26"/>
       <c r="B523" s="4"/>
       <c r="C523" s="12"/>
@@ -12897,7 +14058,7 @@
       <c r="N523" s="14"/>
       <c r="O523" s="2"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="26"/>
       <c r="B524" s="4"/>
       <c r="C524" s="12"/>
@@ -12914,7 +14075,7 @@
       <c r="N524" s="14"/>
       <c r="O524" s="2"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="26"/>
       <c r="B525" s="4"/>
       <c r="C525" s="12"/>
@@ -12931,7 +14092,7 @@
       <c r="N525" s="14"/>
       <c r="O525" s="2"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="26"/>
       <c r="B526" s="4"/>
       <c r="C526" s="12"/>
@@ -12948,7 +14109,7 @@
       <c r="N526" s="14"/>
       <c r="O526" s="2"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="26"/>
       <c r="B527" s="4"/>
       <c r="C527" s="12"/>
@@ -12965,7 +14126,7 @@
       <c r="N527" s="14"/>
       <c r="O527" s="2"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="26"/>
       <c r="B528" s="4"/>
       <c r="C528" s="12"/>
@@ -12982,7 +14143,7 @@
       <c r="N528" s="14"/>
       <c r="O528" s="2"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="26"/>
       <c r="B529" s="4"/>
       <c r="C529" s="12"/>
@@ -12999,7 +14160,7 @@
       <c r="N529" s="14"/>
       <c r="O529" s="2"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="26"/>
       <c r="B530" s="4"/>
       <c r="C530" s="12"/>
@@ -13016,7 +14177,7 @@
       <c r="N530" s="14"/>
       <c r="O530" s="2"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="26"/>
       <c r="B531" s="4"/>
       <c r="C531" s="12"/>
@@ -13033,7 +14194,7 @@
       <c r="N531" s="14"/>
       <c r="O531" s="2"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="26"/>
       <c r="B532" s="4"/>
       <c r="C532" s="12"/>
@@ -13050,7 +14211,7 @@
       <c r="N532" s="14"/>
       <c r="O532" s="2"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="26"/>
       <c r="B533" s="4"/>
       <c r="C533" s="12"/>
@@ -13067,7 +14228,7 @@
       <c r="N533" s="14"/>
       <c r="O533" s="2"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="26"/>
       <c r="B534" s="4"/>
       <c r="C534" s="12"/>
@@ -13084,7 +14245,7 @@
       <c r="N534" s="14"/>
       <c r="O534" s="2"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="26"/>
       <c r="B535" s="4"/>
       <c r="C535" s="12"/>
@@ -13101,7 +14262,7 @@
       <c r="N535" s="14"/>
       <c r="O535" s="2"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="26"/>
       <c r="B536" s="4"/>
       <c r="C536" s="12"/>
@@ -13118,7 +14279,7 @@
       <c r="N536" s="14"/>
       <c r="O536" s="2"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="26"/>
       <c r="B537" s="4"/>
       <c r="C537" s="12"/>
@@ -13135,7 +14296,7 @@
       <c r="N537" s="14"/>
       <c r="O537" s="2"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="26"/>
       <c r="B538" s="4"/>
       <c r="C538" s="12"/>
@@ -13152,7 +14313,7 @@
       <c r="N538" s="14"/>
       <c r="O538" s="2"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="26"/>
       <c r="B539" s="4"/>
       <c r="C539" s="12"/>
@@ -13169,7 +14330,7 @@
       <c r="N539" s="14"/>
       <c r="O539" s="2"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="26"/>
       <c r="B540" s="4"/>
       <c r="C540" s="12"/>
@@ -13186,7 +14347,7 @@
       <c r="N540" s="14"/>
       <c r="O540" s="2"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="26"/>
       <c r="B541" s="4"/>
       <c r="C541" s="12"/>
@@ -13203,7 +14364,7 @@
       <c r="N541" s="14"/>
       <c r="O541" s="2"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="26"/>
       <c r="B542" s="4"/>
       <c r="C542" s="12"/>
@@ -13220,7 +14381,7 @@
       <c r="N542" s="14"/>
       <c r="O542" s="2"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="26"/>
       <c r="B543" s="4"/>
       <c r="C543" s="12"/>
@@ -13237,7 +14398,7 @@
       <c r="N543" s="14"/>
       <c r="O543" s="2"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="26"/>
       <c r="B544" s="4"/>
       <c r="C544" s="12"/>
@@ -13254,7 +14415,7 @@
       <c r="N544" s="14"/>
       <c r="O544" s="2"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="26"/>
       <c r="B545" s="4"/>
       <c r="C545" s="12"/>
@@ -13271,7 +14432,7 @@
       <c r="N545" s="14"/>
       <c r="O545" s="2"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="26"/>
       <c r="B546" s="4"/>
       <c r="C546" s="12"/>
@@ -13288,7 +14449,7 @@
       <c r="N546" s="14"/>
       <c r="O546" s="2"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="26"/>
       <c r="B547" s="4"/>
       <c r="C547" s="12"/>
@@ -13305,7 +14466,7 @@
       <c r="N547" s="14"/>
       <c r="O547" s="2"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="26"/>
       <c r="B548" s="4"/>
       <c r="C548" s="12"/>
@@ -13322,7 +14483,7 @@
       <c r="N548" s="14"/>
       <c r="O548" s="2"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="26"/>
       <c r="B549" s="4"/>
       <c r="C549" s="12"/>
@@ -13339,7 +14500,7 @@
       <c r="N549" s="14"/>
       <c r="O549" s="2"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="26"/>
       <c r="B550" s="4"/>
       <c r="C550" s="12"/>
@@ -13356,7 +14517,7 @@
       <c r="N550" s="14"/>
       <c r="O550" s="2"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="26"/>
       <c r="B551" s="4"/>
       <c r="C551" s="12"/>
@@ -13373,7 +14534,7 @@
       <c r="N551" s="14"/>
       <c r="O551" s="2"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="26"/>
       <c r="B552" s="4"/>
       <c r="C552" s="12"/>
@@ -13390,7 +14551,7 @@
       <c r="N552" s="14"/>
       <c r="O552" s="2"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="26"/>
       <c r="B553" s="4"/>
       <c r="C553" s="12"/>
@@ -13407,7 +14568,7 @@
       <c r="N553" s="14"/>
       <c r="O553" s="2"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="26"/>
       <c r="B554" s="4"/>
       <c r="C554" s="12"/>
@@ -13424,7 +14585,7 @@
       <c r="N554" s="14"/>
       <c r="O554" s="2"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="26"/>
       <c r="B555" s="4"/>
       <c r="C555" s="12"/>
@@ -13441,7 +14602,7 @@
       <c r="N555" s="14"/>
       <c r="O555" s="2"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="26"/>
       <c r="B556" s="4"/>
       <c r="C556" s="12"/>
@@ -13458,7 +14619,7 @@
       <c r="N556" s="14"/>
       <c r="O556" s="2"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="26"/>
       <c r="B557" s="4"/>
       <c r="C557" s="12"/>
@@ -13475,7 +14636,7 @@
       <c r="N557" s="14"/>
       <c r="O557" s="2"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="26"/>
       <c r="B558" s="4"/>
       <c r="C558" s="12"/>
@@ -13492,7 +14653,7 @@
       <c r="N558" s="14"/>
       <c r="O558" s="2"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="26"/>
       <c r="B559" s="4"/>
       <c r="C559" s="12"/>
@@ -13509,7 +14670,7 @@
       <c r="N559" s="14"/>
       <c r="O559" s="2"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="26"/>
       <c r="B560" s="4"/>
       <c r="C560" s="12"/>
@@ -13526,7 +14687,7 @@
       <c r="N560" s="14"/>
       <c r="O560" s="2"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="26"/>
       <c r="B561" s="4"/>
       <c r="C561" s="12"/>
@@ -13543,7 +14704,7 @@
       <c r="N561" s="14"/>
       <c r="O561" s="2"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="26"/>
       <c r="B562" s="4"/>
       <c r="C562" s="12"/>
@@ -13560,7 +14721,7 @@
       <c r="N562" s="14"/>
       <c r="O562" s="2"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="26"/>
       <c r="B563" s="4"/>
       <c r="C563" s="12"/>
@@ -13577,7 +14738,7 @@
       <c r="N563" s="14"/>
       <c r="O563" s="2"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="26"/>
       <c r="B564" s="4"/>
       <c r="C564" s="12"/>
@@ -13594,7 +14755,7 @@
       <c r="N564" s="14"/>
       <c r="O564" s="2"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="26"/>
       <c r="B565" s="4"/>
       <c r="C565" s="12"/>
@@ -13611,7 +14772,7 @@
       <c r="N565" s="14"/>
       <c r="O565" s="2"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="26"/>
       <c r="B566" s="4"/>
       <c r="C566" s="12"/>
@@ -13628,7 +14789,7 @@
       <c r="N566" s="14"/>
       <c r="O566" s="2"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="26"/>
       <c r="B567" s="4"/>
       <c r="C567" s="12"/>
@@ -13645,7 +14806,7 @@
       <c r="N567" s="14"/>
       <c r="O567" s="2"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="26"/>
       <c r="B568" s="4"/>
       <c r="C568" s="12"/>
@@ -13662,7 +14823,7 @@
       <c r="N568" s="14"/>
       <c r="O568" s="2"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="26"/>
       <c r="B569" s="4"/>
       <c r="C569" s="12"/>
@@ -13679,7 +14840,7 @@
       <c r="N569" s="14"/>
       <c r="O569" s="2"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="26"/>
       <c r="B570" s="4"/>
       <c r="C570" s="12"/>
@@ -13696,7 +14857,7 @@
       <c r="N570" s="14"/>
       <c r="O570" s="2"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="26"/>
       <c r="B571" s="4"/>
       <c r="C571" s="12"/>
@@ -13713,7 +14874,7 @@
       <c r="N571" s="14"/>
       <c r="O571" s="2"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="26"/>
       <c r="B572" s="4"/>
       <c r="C572" s="12"/>
@@ -13730,7 +14891,7 @@
       <c r="N572" s="14"/>
       <c r="O572" s="2"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="26"/>
       <c r="B573" s="4"/>
       <c r="C573" s="12"/>
@@ -13747,7 +14908,7 @@
       <c r="N573" s="14"/>
       <c r="O573" s="2"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="26"/>
       <c r="B574" s="4"/>
       <c r="C574" s="12"/>
@@ -13764,7 +14925,7 @@
       <c r="N574" s="14"/>
       <c r="O574" s="2"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="26"/>
       <c r="B575" s="4"/>
       <c r="C575" s="12"/>
@@ -13781,7 +14942,7 @@
       <c r="N575" s="14"/>
       <c r="O575" s="2"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="26"/>
       <c r="B576" s="4"/>
       <c r="C576" s="12"/>
@@ -13798,7 +14959,7 @@
       <c r="N576" s="14"/>
       <c r="O576" s="2"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="26"/>
       <c r="B577" s="4"/>
       <c r="C577" s="12"/>
@@ -13815,7 +14976,7 @@
       <c r="N577" s="14"/>
       <c r="O577" s="2"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="26"/>
       <c r="B578" s="4"/>
       <c r="C578" s="12"/>
@@ -13832,7 +14993,7 @@
       <c r="N578" s="14"/>
       <c r="O578" s="2"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="26"/>
       <c r="B579" s="4"/>
       <c r="C579" s="12"/>
@@ -13849,7 +15010,7 @@
       <c r="N579" s="14"/>
       <c r="O579" s="2"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="26"/>
       <c r="B580" s="4"/>
       <c r="C580" s="12"/>
@@ -13866,7 +15027,7 @@
       <c r="N580" s="14"/>
       <c r="O580" s="2"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="26"/>
       <c r="B581" s="4"/>
       <c r="C581" s="12"/>
@@ -13883,7 +15044,7 @@
       <c r="N581" s="14"/>
       <c r="O581" s="2"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="26"/>
       <c r="B582" s="4"/>
       <c r="C582" s="12"/>
@@ -13900,7 +15061,7 @@
       <c r="N582" s="14"/>
       <c r="O582" s="2"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="26"/>
       <c r="B583" s="4"/>
       <c r="C583" s="12"/>
@@ -13917,7 +15078,7 @@
       <c r="N583" s="14"/>
       <c r="O583" s="2"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="26"/>
       <c r="B584" s="4"/>
       <c r="C584" s="12"/>
@@ -13934,7 +15095,7 @@
       <c r="N584" s="14"/>
       <c r="O584" s="2"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="26"/>
       <c r="B585" s="4"/>
       <c r="C585" s="12"/>
@@ -13951,7 +15112,7 @@
       <c r="N585" s="14"/>
       <c r="O585" s="2"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="26"/>
       <c r="B586" s="4"/>
       <c r="C586" s="12"/>
@@ -13968,7 +15129,7 @@
       <c r="N586" s="14"/>
       <c r="O586" s="2"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="26"/>
       <c r="B587" s="4"/>
       <c r="C587" s="12"/>
@@ -13985,7 +15146,7 @@
       <c r="N587" s="14"/>
       <c r="O587" s="2"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="26"/>
       <c r="B588" s="4"/>
       <c r="C588" s="12"/>
@@ -14002,7 +15163,7 @@
       <c r="N588" s="14"/>
       <c r="O588" s="2"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="26"/>
       <c r="B589" s="4"/>
       <c r="C589" s="12"/>
@@ -14019,7 +15180,7 @@
       <c r="N589" s="14"/>
       <c r="O589" s="2"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="26"/>
       <c r="B590" s="4"/>
       <c r="C590" s="12"/>
@@ -14036,7 +15197,7 @@
       <c r="N590" s="14"/>
       <c r="O590" s="2"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="26"/>
       <c r="B591" s="4"/>
       <c r="C591" s="12"/>
@@ -14053,7 +15214,7 @@
       <c r="N591" s="14"/>
       <c r="O591" s="2"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="26"/>
       <c r="B592" s="4"/>
       <c r="C592" s="12"/>
@@ -14070,7 +15231,7 @@
       <c r="N592" s="14"/>
       <c r="O592" s="2"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="26"/>
       <c r="B593" s="4"/>
       <c r="C593" s="12"/>
@@ -14087,7 +15248,7 @@
       <c r="N593" s="14"/>
       <c r="O593" s="2"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="26"/>
       <c r="B594" s="4"/>
       <c r="C594" s="12"/>
@@ -14104,7 +15265,7 @@
       <c r="N594" s="14"/>
       <c r="O594" s="2"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="26"/>
       <c r="B595" s="4"/>
       <c r="C595" s="12"/>
@@ -14121,7 +15282,7 @@
       <c r="N595" s="14"/>
       <c r="O595" s="2"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="26"/>
       <c r="B596" s="4"/>
       <c r="C596" s="12"/>
@@ -14138,7 +15299,7 @@
       <c r="N596" s="14"/>
       <c r="O596" s="2"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="26"/>
       <c r="B597" s="4"/>
       <c r="C597" s="12"/>
@@ -14155,7 +15316,7 @@
       <c r="N597" s="14"/>
       <c r="O597" s="2"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="26"/>
       <c r="B598" s="4"/>
       <c r="C598" s="12"/>
@@ -14172,7 +15333,7 @@
       <c r="N598" s="14"/>
       <c r="O598" s="2"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="26"/>
       <c r="B599" s="4"/>
       <c r="C599" s="12"/>
@@ -14189,7 +15350,7 @@
       <c r="N599" s="14"/>
       <c r="O599" s="2"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="26"/>
       <c r="B600" s="4"/>
       <c r="C600" s="12"/>
@@ -14206,7 +15367,7 @@
       <c r="N600" s="14"/>
       <c r="O600" s="2"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="26"/>
       <c r="B601" s="4"/>
       <c r="C601" s="12"/>
@@ -14223,7 +15384,7 @@
       <c r="N601" s="14"/>
       <c r="O601" s="2"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="26"/>
       <c r="B602" s="4"/>
       <c r="C602" s="12"/>
@@ -14240,7 +15401,7 @@
       <c r="N602" s="14"/>
       <c r="O602" s="2"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="26"/>
       <c r="B603" s="4"/>
       <c r="C603" s="12"/>
@@ -14257,7 +15418,7 @@
       <c r="N603" s="14"/>
       <c r="O603" s="2"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="26"/>
       <c r="B604" s="4"/>
       <c r="C604" s="12"/>
@@ -14274,7 +15435,7 @@
       <c r="N604" s="14"/>
       <c r="O604" s="2"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="26"/>
       <c r="B605" s="4"/>
       <c r="C605" s="12"/>
@@ -14291,7 +15452,7 @@
       <c r="N605" s="14"/>
       <c r="O605" s="2"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="26"/>
       <c r="B606" s="4"/>
       <c r="C606" s="12"/>
@@ -14308,7 +15469,7 @@
       <c r="N606" s="14"/>
       <c r="O606" s="2"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="26"/>
       <c r="B607" s="4"/>
       <c r="C607" s="12"/>
@@ -14325,7 +15486,7 @@
       <c r="N607" s="14"/>
       <c r="O607" s="2"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="26"/>
       <c r="B608" s="4"/>
       <c r="C608" s="12"/>
@@ -14342,7 +15503,7 @@
       <c r="N608" s="14"/>
       <c r="O608" s="2"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="26"/>
       <c r="B609" s="4"/>
       <c r="C609" s="12"/>
@@ -14359,7 +15520,7 @@
       <c r="N609" s="14"/>
       <c r="O609" s="2"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="26"/>
       <c r="B610" s="4"/>
       <c r="C610" s="12"/>
@@ -14376,7 +15537,7 @@
       <c r="N610" s="14"/>
       <c r="O610" s="2"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="26"/>
       <c r="B611" s="4"/>
       <c r="C611" s="12"/>
@@ -14393,7 +15554,7 @@
       <c r="N611" s="14"/>
       <c r="O611" s="2"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="26"/>
       <c r="B612" s="4"/>
       <c r="C612" s="12"/>
@@ -14410,7 +15571,7 @@
       <c r="N612" s="14"/>
       <c r="O612" s="2"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="26"/>
       <c r="B613" s="4"/>
       <c r="C613" s="12"/>
@@ -14427,7 +15588,7 @@
       <c r="N613" s="14"/>
       <c r="O613" s="2"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="26"/>
       <c r="B614" s="4"/>
       <c r="C614" s="12"/>
@@ -14444,7 +15605,7 @@
       <c r="N614" s="14"/>
       <c r="O614" s="2"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="26"/>
       <c r="B615" s="4"/>
       <c r="C615" s="12"/>
@@ -14461,7 +15622,7 @@
       <c r="N615" s="14"/>
       <c r="O615" s="2"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="26"/>
       <c r="B616" s="4"/>
       <c r="C616" s="12"/>
@@ -14478,7 +15639,7 @@
       <c r="N616" s="14"/>
       <c r="O616" s="2"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="26"/>
       <c r="B617" s="4"/>
       <c r="C617" s="12"/>
@@ -14495,7 +15656,7 @@
       <c r="N617" s="14"/>
       <c r="O617" s="2"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="26"/>
       <c r="B618" s="4"/>
       <c r="C618" s="12"/>
@@ -14512,7 +15673,7 @@
       <c r="N618" s="14"/>
       <c r="O618" s="2"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="26"/>
       <c r="B619" s="4"/>
       <c r="C619" s="12"/>
@@ -14529,7 +15690,7 @@
       <c r="N619" s="14"/>
       <c r="O619" s="2"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="26"/>
       <c r="B620" s="4"/>
       <c r="C620" s="12"/>
@@ -14546,7 +15707,7 @@
       <c r="N620" s="14"/>
       <c r="O620" s="2"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="26"/>
       <c r="B621" s="4"/>
       <c r="C621" s="12"/>
@@ -14563,7 +15724,7 @@
       <c r="N621" s="14"/>
       <c r="O621" s="2"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="26"/>
       <c r="B622" s="4"/>
       <c r="C622" s="12"/>
@@ -14580,7 +15741,7 @@
       <c r="N622" s="14"/>
       <c r="O622" s="2"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="26"/>
       <c r="B623" s="4"/>
       <c r="C623" s="12"/>
@@ -14597,7 +15758,7 @@
       <c r="N623" s="14"/>
       <c r="O623" s="2"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="26"/>
       <c r="B624" s="4"/>
       <c r="C624" s="12"/>
@@ -14614,7 +15775,7 @@
       <c r="N624" s="14"/>
       <c r="O624" s="2"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="26"/>
       <c r="B625" s="4"/>
       <c r="C625" s="12"/>
@@ -14631,7 +15792,7 @@
       <c r="N625" s="14"/>
       <c r="O625" s="2"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="26"/>
       <c r="B626" s="4"/>
       <c r="C626" s="12"/>
@@ -14648,7 +15809,7 @@
       <c r="N626" s="14"/>
       <c r="O626" s="2"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="26"/>
       <c r="B627" s="4"/>
       <c r="C627" s="12"/>
@@ -14665,7 +15826,7 @@
       <c r="N627" s="14"/>
       <c r="O627" s="2"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="26"/>
       <c r="B628" s="4"/>
       <c r="C628" s="12"/>
@@ -14682,7 +15843,7 @@
       <c r="N628" s="14"/>
       <c r="O628" s="2"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="26"/>
       <c r="B629" s="4"/>
       <c r="C629" s="12"/>
@@ -14699,7 +15860,7 @@
       <c r="N629" s="14"/>
       <c r="O629" s="2"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="26"/>
       <c r="B630" s="4"/>
       <c r="C630" s="12"/>
@@ -14716,7 +15877,7 @@
       <c r="N630" s="14"/>
       <c r="O630" s="2"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="26"/>
       <c r="B631" s="4"/>
       <c r="C631" s="12"/>
@@ -14733,7 +15894,7 @@
       <c r="N631" s="14"/>
       <c r="O631" s="2"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="26"/>
       <c r="B632" s="4"/>
       <c r="C632" s="12"/>
@@ -14750,7 +15911,7 @@
       <c r="N632" s="14"/>
       <c r="O632" s="2"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="26"/>
       <c r="B633" s="4"/>
       <c r="C633" s="12"/>
@@ -14767,7 +15928,7 @@
       <c r="N633" s="14"/>
       <c r="O633" s="2"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="26"/>
       <c r="B634" s="4"/>
       <c r="C634" s="12"/>
@@ -14784,7 +15945,7 @@
       <c r="N634" s="14"/>
       <c r="O634" s="2"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="26"/>
       <c r="B635" s="4"/>
       <c r="C635" s="12"/>
@@ -14801,7 +15962,7 @@
       <c r="N635" s="14"/>
       <c r="O635" s="2"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="26"/>
       <c r="B636" s="4"/>
       <c r="C636" s="12"/>
@@ -14818,7 +15979,7 @@
       <c r="N636" s="14"/>
       <c r="O636" s="2"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="26"/>
       <c r="B637" s="4"/>
       <c r="C637" s="12"/>
@@ -14835,7 +15996,7 @@
       <c r="N637" s="14"/>
       <c r="O637" s="2"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="26"/>
       <c r="B638" s="4"/>
       <c r="C638" s="12"/>
@@ -14852,7 +16013,7 @@
       <c r="N638" s="14"/>
       <c r="O638" s="2"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="26"/>
       <c r="B639" s="4"/>
       <c r="C639" s="12"/>
@@ -14869,7 +16030,7 @@
       <c r="N639" s="14"/>
       <c r="O639" s="2"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="26"/>
       <c r="B640" s="4"/>
       <c r="C640" s="12"/>
@@ -14886,7 +16047,7 @@
       <c r="N640" s="14"/>
       <c r="O640" s="2"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="26"/>
       <c r="B641" s="4"/>
       <c r="C641" s="12"/>
@@ -14903,7 +16064,7 @@
       <c r="N641" s="14"/>
       <c r="O641" s="2"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="26"/>
       <c r="B642" s="4"/>
       <c r="C642" s="12"/>
@@ -14920,7 +16081,7 @@
       <c r="N642" s="14"/>
       <c r="O642" s="2"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="26"/>
       <c r="B643" s="4"/>
       <c r="C643" s="12"/>
@@ -14937,7 +16098,7 @@
       <c r="N643" s="14"/>
       <c r="O643" s="2"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="26"/>
       <c r="B644" s="4"/>
       <c r="C644" s="12"/>
@@ -14954,7 +16115,7 @@
       <c r="N644" s="14"/>
       <c r="O644" s="2"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="26"/>
       <c r="B645" s="4"/>
       <c r="C645" s="12"/>
@@ -14971,7 +16132,7 @@
       <c r="N645" s="14"/>
       <c r="O645" s="2"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="26"/>
       <c r="B646" s="4"/>
       <c r="C646" s="12"/>
@@ -14988,360 +16149,360 @@
       <c r="N646" s="14"/>
       <c r="O646" s="2"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -15349,25 +16510,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D696" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D696" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C698" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C698" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="488">
   <si>
     <t>description</t>
   </si>
@@ -1525,6 +1525,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1535,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1797,8 +1800,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2123,8 +2220,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2726,6 +2976,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2733,7 +3265,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2903,49 +3435,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="28" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3270,7 +3847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4482,7 +5059,7 @@
         <v>251</v>
       </c>
       <c r="U53" t="s">
-        <v>117</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54">
@@ -4490,7 +5067,7 @@
         <v>275</v>
       </c>
       <c r="U54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55">
@@ -4498,7 +5075,7 @@
         <v>276</v>
       </c>
       <c r="U55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56">
@@ -4506,7 +5083,7 @@
         <v>277</v>
       </c>
       <c r="U56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57">
@@ -4514,7 +5091,7 @@
         <v>286</v>
       </c>
       <c r="U57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
@@ -4522,7 +5099,7 @@
         <v>295</v>
       </c>
       <c r="U58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59">
@@ -4530,7 +5107,7 @@
         <v>320</v>
       </c>
       <c r="U59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60">
@@ -4538,7 +5115,7 @@
         <v>292</v>
       </c>
       <c r="U60" t="s">
-        <v>430</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61">
@@ -4546,7 +5123,7 @@
         <v>293</v>
       </c>
       <c r="U61" t="s">
-        <v>199</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62">
@@ -4554,7 +5131,7 @@
         <v>352</v>
       </c>
       <c r="U62" t="s">
-        <v>372</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63">
@@ -4562,7 +5139,7 @@
         <v>353</v>
       </c>
       <c r="U63" t="s">
-        <v>436</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64">
@@ -4570,7 +5147,7 @@
         <v>328</v>
       </c>
       <c r="U64" t="s">
-        <v>124</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65">
@@ -4578,7 +5155,7 @@
         <v>296</v>
       </c>
       <c r="U65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66">
@@ -4586,7 +5163,7 @@
         <v>252</v>
       </c>
       <c r="U66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67">
@@ -4594,7 +5171,7 @@
         <v>336</v>
       </c>
       <c r="U67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68">
@@ -4602,7 +5179,7 @@
         <v>297</v>
       </c>
       <c r="U68" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69">
@@ -4610,7 +5187,7 @@
         <v>393</v>
       </c>
       <c r="U69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70">
@@ -4618,7 +5195,7 @@
         <v>287</v>
       </c>
       <c r="U70" t="s">
-        <v>457</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71">
@@ -4626,7 +5203,7 @@
         <v>394</v>
       </c>
       <c r="U71" t="s">
-        <v>128</v>
+        <v>457</v>
       </c>
     </row>
     <row r="72">
@@ -4634,7 +5211,7 @@
         <v>245</v>
       </c>
       <c r="U72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73">
@@ -4642,7 +5219,7 @@
         <v>327</v>
       </c>
       <c r="U73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74">
@@ -4650,7 +5227,7 @@
         <v>263</v>
       </c>
       <c r="U74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75">
@@ -4658,7 +5235,7 @@
         <v>269</v>
       </c>
       <c r="U75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76">
@@ -4666,7 +5243,7 @@
         <v>274</v>
       </c>
       <c r="U76" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77">
@@ -4674,7 +5251,7 @@
         <v>412</v>
       </c>
       <c r="U77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78">
@@ -4682,7 +5259,7 @@
         <v>315</v>
       </c>
       <c r="U78" t="s">
-        <v>454</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79">
@@ -4690,7 +5267,7 @@
         <v>253</v>
       </c>
       <c r="U79" t="s">
-        <v>186</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80">
@@ -4698,7 +5275,7 @@
         <v>264</v>
       </c>
       <c r="U80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81">
@@ -4706,7 +5283,7 @@
         <v>270</v>
       </c>
       <c r="U81" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82">
@@ -4714,7 +5291,7 @@
         <v>259</v>
       </c>
       <c r="U82" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -4722,7 +5299,7 @@
         <v>254</v>
       </c>
       <c r="U83" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84">
@@ -4730,7 +5307,7 @@
         <v>271</v>
       </c>
       <c r="U84" t="s">
-        <v>428</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85">
@@ -4738,7 +5315,7 @@
         <v>255</v>
       </c>
       <c r="U85" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="86">
@@ -4746,7 +5323,7 @@
         <v>256</v>
       </c>
       <c r="U86" t="s">
-        <v>189</v>
+        <v>429</v>
       </c>
     </row>
     <row r="87">
@@ -4754,7 +5331,7 @@
         <v>288</v>
       </c>
       <c r="U87" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88">
@@ -4762,7 +5339,7 @@
         <v>294</v>
       </c>
       <c r="U88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89">
@@ -4770,7 +5347,7 @@
         <v>278</v>
       </c>
       <c r="U89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90">
@@ -4778,7 +5355,7 @@
         <v>323</v>
       </c>
       <c r="U90" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91">
@@ -4786,7 +5363,7 @@
         <v>260</v>
       </c>
       <c r="U91" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -4794,126 +5371,131 @@
         <v>261</v>
       </c>
       <c r="U92" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>135</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>432</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>148</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D7AF4C-3579-D141-95FA-363645C6C440}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{05D7AF4C-3579-D141-95FA-363645C6C440}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="31560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="lab1" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="lab1" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -26,7 +26,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="495">
   <si>
     <t>description</t>
   </si>
@@ -1547,13 +1547,17 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1630,8 +1634,109 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1650,8 +1755,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1689,144 +1947,474 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="52">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1860,7 +2448,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1885,10 +2473,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1923,7 +2511,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1958,7 +2546,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2052,21 +2640,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2083,7 +2671,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2135,26 +2723,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB118"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2237,7 +2825,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>354</v>
       </c>
@@ -2263,7 +2851,7 @@
         <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>332</v>
+        <v>494</v>
       </c>
       <c r="J2" t="s">
         <v>298</v>
@@ -2320,7 +2908,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>488</v>
       </c>
@@ -2346,7 +2934,7 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J3" t="s">
         <v>324</v>
@@ -2397,7 +2985,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2417,7 +3005,7 @@
         <v>451</v>
       </c>
       <c r="I4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J4" t="s">
         <v>221</v>
@@ -2468,7 +3056,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2488,7 +3076,7 @@
         <v>458</v>
       </c>
       <c r="I5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="J5" t="s">
         <v>491</v>
@@ -2533,7 +3121,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2549,6 +3137,9 @@
       <c r="G6" t="s">
         <v>452</v>
       </c>
+      <c r="I6" t="s">
+        <v>331</v>
+      </c>
       <c r="J6" t="s">
         <v>63</v>
       </c>
@@ -2589,7 +3180,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2645,7 +3236,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2698,7 +3289,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>330</v>
       </c>
@@ -2742,7 +3333,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2780,7 +3371,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>316</v>
       </c>
@@ -2815,7 +3406,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2847,7 +3438,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>181</v>
       </c>
@@ -2879,7 +3470,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2911,7 +3502,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>222</v>
       </c>
@@ -2937,7 +3528,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -2960,7 +3551,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>379</v>
       </c>
@@ -2980,7 +3571,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>395</v>
       </c>
@@ -2997,7 +3588,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>396</v>
       </c>
@@ -3014,7 +3605,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>340</v>
       </c>
@@ -3031,7 +3622,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>380</v>
       </c>
@@ -3048,7 +3639,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -3065,7 +3656,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -3082,7 +3673,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -3099,7 +3690,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -3113,7 +3704,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>397</v>
       </c>
@@ -3127,7 +3718,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>210</v>
       </c>
@@ -3141,7 +3732,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="D28" t="s">
         <v>399</v>
       </c>
@@ -3152,7 +3743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="D29" t="s">
         <v>55</v>
       </c>
@@ -3163,7 +3754,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="D30" t="s">
         <v>56</v>
       </c>
@@ -3174,7 +3765,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="D31" t="s">
         <v>57</v>
       </c>
@@ -3185,7 +3776,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="D32" t="s">
         <v>58</v>
       </c>
@@ -3196,7 +3787,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="D33" t="s">
         <v>59</v>
       </c>
@@ -3207,7 +3798,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="D34" t="s">
         <v>60</v>
       </c>
@@ -3218,7 +3809,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="D35" t="s">
         <v>61</v>
       </c>
@@ -3229,7 +3820,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="D36" t="s">
         <v>62</v>
       </c>
@@ -3240,7 +3831,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="F37" t="s">
         <v>291</v>
       </c>
@@ -3248,7 +3839,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="38" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="F38" t="s">
         <v>250</v>
       </c>
@@ -3256,7 +3847,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="F39" t="s">
         <v>69</v>
       </c>
@@ -3264,7 +3855,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="F40" t="s">
         <v>197</v>
       </c>
@@ -3272,7 +3863,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="F41" t="s">
         <v>272</v>
       </c>
@@ -3280,7 +3871,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="F42" t="s">
         <v>283</v>
       </c>
@@ -3288,7 +3879,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="F43" t="s">
         <v>284</v>
       </c>
@@ -3296,7 +3887,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="F44" t="s">
         <v>326</v>
       </c>
@@ -3304,7 +3895,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="F45" t="s">
         <v>325</v>
       </c>
@@ -3312,7 +3903,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="46" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="F46" t="s">
         <v>196</v>
       </c>
@@ -3320,7 +3911,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="F47" t="s">
         <v>303</v>
       </c>
@@ -3328,7 +3919,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="F48" t="s">
         <v>322</v>
       </c>
@@ -3336,7 +3927,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="F49" t="s">
         <v>351</v>
       </c>
@@ -3344,7 +3935,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="F50" t="s">
         <v>285</v>
       </c>
@@ -3352,7 +3943,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="F51" t="s">
         <v>339</v>
       </c>
@@ -3360,7 +3951,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="52" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="F52" t="s">
         <v>314</v>
       </c>
@@ -3368,7 +3959,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="F53" t="s">
         <v>251</v>
       </c>
@@ -3376,7 +3967,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="F54" t="s">
         <v>275</v>
       </c>
@@ -3384,7 +3975,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="55" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="F55" t="s">
         <v>276</v>
       </c>
@@ -3392,7 +3983,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="F56" t="s">
         <v>277</v>
       </c>
@@ -3400,7 +3991,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="F57" t="s">
         <v>286</v>
       </c>
@@ -3408,7 +3999,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="F58" t="s">
         <v>295</v>
       </c>
@@ -3416,7 +4007,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="F59" t="s">
         <v>320</v>
       </c>
@@ -3424,7 +4015,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="F60" t="s">
         <v>292</v>
       </c>
@@ -3432,7 +4023,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="F61" t="s">
         <v>293</v>
       </c>
@@ -3440,7 +4031,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="F62" t="s">
         <v>352</v>
       </c>
@@ -3448,7 +4039,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="63" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="F63" t="s">
         <v>353</v>
       </c>
@@ -3456,7 +4047,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="F64" t="s">
         <v>328</v>
       </c>
@@ -3464,7 +4055,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="65" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="F65" t="s">
         <v>296</v>
       </c>
@@ -3472,7 +4063,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="66" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="F66" t="s">
         <v>252</v>
       </c>
@@ -3480,7 +4071,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="F67" t="s">
         <v>336</v>
       </c>
@@ -3488,7 +4079,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="F68" t="s">
         <v>297</v>
       </c>
@@ -3496,7 +4087,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="F69" t="s">
         <v>393</v>
       </c>
@@ -3504,7 +4095,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="F70" t="s">
         <v>287</v>
       </c>
@@ -3512,7 +4103,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="F71" t="s">
         <v>394</v>
       </c>
@@ -3520,7 +4111,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="F72" t="s">
         <v>245</v>
       </c>
@@ -3528,7 +4119,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="73" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="F73" t="s">
         <v>327</v>
       </c>
@@ -3536,7 +4127,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="F74" t="s">
         <v>263</v>
       </c>
@@ -3544,7 +4135,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="F75" t="s">
         <v>269</v>
       </c>
@@ -3552,7 +4143,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="F76" t="s">
         <v>274</v>
       </c>
@@ -3560,7 +4151,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="F77" t="s">
         <v>412</v>
       </c>
@@ -3568,7 +4159,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="F78" t="s">
         <v>315</v>
       </c>
@@ -3576,7 +4167,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="F79" t="s">
         <v>253</v>
       </c>
@@ -3584,7 +4175,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="F80" t="s">
         <v>264</v>
       </c>
@@ -3592,7 +4183,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="81" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="F81" t="s">
         <v>270</v>
       </c>
@@ -3600,7 +4191,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="F82" t="s">
         <v>259</v>
       </c>
@@ -3608,7 +4199,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="F83" t="s">
         <v>254</v>
       </c>
@@ -3616,7 +4207,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="F84" t="s">
         <v>271</v>
       </c>
@@ -3624,7 +4215,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="F85" t="s">
         <v>255</v>
       </c>
@@ -3632,7 +4223,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="F86" t="s">
         <v>256</v>
       </c>
@@ -3640,7 +4231,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="87" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="F87" t="s">
         <v>288</v>
       </c>
@@ -3648,7 +4239,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="88" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="F88" t="s">
         <v>294</v>
       </c>
@@ -3656,7 +4247,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="F89" t="s">
         <v>278</v>
       </c>
@@ -3664,7 +4255,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="F90" t="s">
         <v>323</v>
       </c>
@@ -3672,7 +4263,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="F91" t="s">
         <v>260</v>
       </c>
@@ -3680,7 +4271,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="F92" t="s">
         <v>261</v>
       </c>
@@ -3688,169 +4279,169 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="V93" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="V94" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="V95" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="96" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="V96" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="V97" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="V98" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="V99" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="100" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="V100" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="101" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="V101" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="V102" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="V103" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="V104" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="105" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="V105" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="106" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="V106" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="V107" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="V108" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="V109" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="110" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="V110" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="111" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="V111" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="112" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="V112" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="V113" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="V114" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="V115" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="V116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="V117" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="V118" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O998"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScaleNormal="125" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="27" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="58.83203125" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="46.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="15.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.83203125" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="27" width="30.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="58.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="13" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="46.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="27.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="35.83203125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="9" width="15.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="22" width="32.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3881,7 +4472,7 @@
       <c r="N1" s="32"/>
       <c r="O1" s="33"/>
     </row>
-    <row r="2" spans="1:15" ht="98" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="98" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>460</v>
       </c>
@@ -3904,7 +4495,7 @@
       <c r="N2" s="35"/>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11"/>
@@ -3921,7 +4512,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>439</v>
       </c>
@@ -3966,7 +4557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>461</v>
       </c>
@@ -3993,7 +4584,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12" t="s">
@@ -4018,7 +4609,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12" t="s">
@@ -4043,7 +4634,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="4"/>
       <c r="C8" s="12" t="s">
@@ -4070,7 +4661,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="4"/>
       <c r="C9" s="12" t="s">
@@ -4097,7 +4688,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>474</v>
       </c>
@@ -4126,7 +4717,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
       <c r="B11" s="4" t="s">
         <v>480</v>
@@ -4153,7 +4744,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -4178,7 +4769,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="41" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12" t="s">
@@ -4205,7 +4796,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="53" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="4"/>
       <c r="C14" s="12" t="s">
@@ -4232,7 +4823,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
@@ -4257,7 +4848,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>483</v>
       </c>
@@ -4286,7 +4877,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="4" t="s">
         <v>482</v>
@@ -4313,7 +4904,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
@@ -4338,7 +4929,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="37" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
@@ -4365,7 +4956,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="60" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
@@ -4392,7 +4983,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
@@ -4417,7 +5008,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>484</v>
       </c>
@@ -4446,7 +5037,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23"/>
       <c r="C23" s="12"/>
@@ -4463,7 +5054,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12"/>
@@ -4480,7 +5071,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
@@ -4497,7 +5088,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="7"/>
       <c r="C26" s="12"/>
@@ -4514,7 +5105,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
@@ -4531,7 +5122,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
@@ -4548,7 +5139,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12"/>
@@ -4565,7 +5156,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="4"/>
       <c r="C30" s="12"/>
@@ -4582,7 +5173,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="4"/>
       <c r="C31" s="12"/>
@@ -4599,7 +5190,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
@@ -4616,7 +5207,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
@@ -4633,7 +5224,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
@@ -4650,7 +5241,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
@@ -4667,7 +5258,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
@@ -4684,7 +5275,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
@@ -4701,7 +5292,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
@@ -4718,7 +5309,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
@@ -4735,7 +5326,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -4752,7 +5343,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="26"/>
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
@@ -4769,7 +5360,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="26"/>
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
@@ -4786,7 +5377,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
@@ -4803,7 +5394,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
@@ -4820,7 +5411,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
@@ -4837,7 +5428,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="26"/>
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
@@ -4854,7 +5445,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
@@ -4871,7 +5462,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
@@ -4888,7 +5479,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
@@ -4905,7 +5496,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -4922,7 +5513,7 @@
       <c r="N50" s="14"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="26"/>
       <c r="B51" s="4"/>
       <c r="C51" s="12"/>
@@ -4939,7 +5530,7 @@
       <c r="N51" s="14"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="26"/>
       <c r="B52" s="4"/>
       <c r="C52" s="12"/>
@@ -4956,7 +5547,7 @@
       <c r="N52" s="14"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="26"/>
       <c r="B53" s="4"/>
       <c r="C53" s="12"/>
@@ -4973,7 +5564,7 @@
       <c r="N53" s="14"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="26"/>
       <c r="B54" s="4"/>
       <c r="C54" s="12"/>
@@ -4990,7 +5581,7 @@
       <c r="N54" s="14"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="26"/>
       <c r="B55" s="4"/>
       <c r="C55" s="12"/>
@@ -5007,7 +5598,7 @@
       <c r="N55" s="14"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="26"/>
       <c r="B56" s="4"/>
       <c r="C56" s="12"/>
@@ -5024,7 +5615,7 @@
       <c r="N56" s="14"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="26"/>
       <c r="B57" s="4"/>
       <c r="C57" s="12"/>
@@ -5041,7 +5632,7 @@
       <c r="N57" s="14"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="26"/>
       <c r="B58" s="4"/>
       <c r="C58" s="12"/>
@@ -5058,7 +5649,7 @@
       <c r="N58" s="14"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="26"/>
       <c r="B59" s="4"/>
       <c r="C59" s="12"/>
@@ -5075,7 +5666,7 @@
       <c r="N59" s="14"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="26"/>
       <c r="B60" s="4"/>
       <c r="C60" s="12"/>
@@ -5092,7 +5683,7 @@
       <c r="N60" s="14"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="26"/>
       <c r="B61" s="4"/>
       <c r="C61" s="12"/>
@@ -5109,7 +5700,7 @@
       <c r="N61" s="14"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="26"/>
       <c r="B62" s="4"/>
       <c r="C62" s="12"/>
@@ -5126,7 +5717,7 @@
       <c r="N62" s="14"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="26"/>
       <c r="B63" s="4"/>
       <c r="C63" s="12"/>
@@ -5143,7 +5734,7 @@
       <c r="N63" s="14"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="26"/>
       <c r="B64" s="4"/>
       <c r="C64" s="12"/>
@@ -5160,7 +5751,7 @@
       <c r="N64" s="14"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="26"/>
       <c r="B65" s="4"/>
       <c r="C65" s="12"/>
@@ -5177,7 +5768,7 @@
       <c r="N65" s="14"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="26"/>
       <c r="B66" s="4"/>
       <c r="C66" s="12"/>
@@ -5194,7 +5785,7 @@
       <c r="N66" s="14"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="26"/>
       <c r="B67" s="4"/>
       <c r="C67" s="12"/>
@@ -5211,7 +5802,7 @@
       <c r="N67" s="14"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="26"/>
       <c r="B68" s="4"/>
       <c r="C68" s="12"/>
@@ -5228,7 +5819,7 @@
       <c r="N68" s="14"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="26"/>
       <c r="B69" s="4"/>
       <c r="C69" s="12"/>
@@ -5245,7 +5836,7 @@
       <c r="N69" s="14"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="26"/>
       <c r="B70" s="4"/>
       <c r="C70" s="12"/>
@@ -5262,7 +5853,7 @@
       <c r="N70" s="14"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="26"/>
       <c r="B71" s="4"/>
       <c r="C71" s="12"/>
@@ -5279,7 +5870,7 @@
       <c r="N71" s="14"/>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="26"/>
       <c r="B72" s="4"/>
       <c r="C72" s="12"/>
@@ -5296,7 +5887,7 @@
       <c r="N72" s="14"/>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="26"/>
       <c r="B73" s="4"/>
       <c r="C73" s="12"/>
@@ -5313,7 +5904,7 @@
       <c r="N73" s="14"/>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="26"/>
       <c r="B74" s="4"/>
       <c r="C74" s="12"/>
@@ -5330,7 +5921,7 @@
       <c r="N74" s="14"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="26"/>
       <c r="B75" s="4"/>
       <c r="C75" s="12"/>
@@ -5347,7 +5938,7 @@
       <c r="N75" s="14"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="26"/>
       <c r="B76" s="4"/>
       <c r="C76" s="12"/>
@@ -5364,7 +5955,7 @@
       <c r="N76" s="14"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="26"/>
       <c r="B77" s="4"/>
       <c r="C77" s="12"/>
@@ -5381,7 +5972,7 @@
       <c r="N77" s="14"/>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="26"/>
       <c r="B78" s="4"/>
       <c r="C78" s="12"/>
@@ -5398,7 +5989,7 @@
       <c r="N78" s="14"/>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="26"/>
       <c r="B79" s="4"/>
       <c r="C79" s="12"/>
@@ -5415,7 +6006,7 @@
       <c r="N79" s="14"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="26"/>
       <c r="B80" s="4"/>
       <c r="C80" s="12"/>
@@ -5432,7 +6023,7 @@
       <c r="N80" s="14"/>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="26"/>
       <c r="B81" s="4"/>
       <c r="C81" s="12"/>
@@ -5449,7 +6040,7 @@
       <c r="N81" s="14"/>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="26"/>
       <c r="B82" s="4"/>
       <c r="C82" s="12"/>
@@ -5466,7 +6057,7 @@
       <c r="N82" s="14"/>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="26"/>
       <c r="B83" s="4"/>
       <c r="C83" s="12"/>
@@ -5483,7 +6074,7 @@
       <c r="N83" s="14"/>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="26"/>
       <c r="B84" s="4"/>
       <c r="C84" s="12"/>
@@ -5500,7 +6091,7 @@
       <c r="N84" s="14"/>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="26"/>
       <c r="B85" s="4"/>
       <c r="C85" s="12"/>
@@ -5517,7 +6108,7 @@
       <c r="N85" s="14"/>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="26"/>
       <c r="B86" s="4"/>
       <c r="C86" s="12"/>
@@ -5534,7 +6125,7 @@
       <c r="N86" s="14"/>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="26"/>
       <c r="B87" s="4"/>
       <c r="C87" s="12"/>
@@ -5551,7 +6142,7 @@
       <c r="N87" s="14"/>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="26"/>
       <c r="B88" s="4"/>
       <c r="C88" s="12"/>
@@ -5568,7 +6159,7 @@
       <c r="N88" s="14"/>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="26"/>
       <c r="B89" s="4"/>
       <c r="C89" s="12"/>
@@ -5585,7 +6176,7 @@
       <c r="N89" s="14"/>
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="26"/>
       <c r="B90" s="4"/>
       <c r="C90" s="12"/>
@@ -5602,7 +6193,7 @@
       <c r="N90" s="14"/>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="26"/>
       <c r="B91" s="4"/>
       <c r="C91" s="12"/>
@@ -5619,7 +6210,7 @@
       <c r="N91" s="14"/>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="26"/>
       <c r="B92" s="4"/>
       <c r="C92" s="12"/>
@@ -5636,7 +6227,7 @@
       <c r="N92" s="14"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="26"/>
       <c r="B93" s="4"/>
       <c r="C93" s="12"/>
@@ -5653,7 +6244,7 @@
       <c r="N93" s="14"/>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="26"/>
       <c r="B94" s="4"/>
       <c r="C94" s="12"/>
@@ -5670,7 +6261,7 @@
       <c r="N94" s="14"/>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="26"/>
       <c r="B95" s="4"/>
       <c r="C95" s="12"/>
@@ -5687,7 +6278,7 @@
       <c r="N95" s="14"/>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="26"/>
       <c r="B96" s="4"/>
       <c r="C96" s="12"/>
@@ -5704,7 +6295,7 @@
       <c r="N96" s="14"/>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="26"/>
       <c r="B97" s="4"/>
       <c r="C97" s="12"/>
@@ -5721,7 +6312,7 @@
       <c r="N97" s="14"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="26"/>
       <c r="B98" s="4"/>
       <c r="C98" s="12"/>
@@ -5738,7 +6329,7 @@
       <c r="N98" s="14"/>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="26"/>
       <c r="B99" s="4"/>
       <c r="C99" s="12"/>
@@ -5755,7 +6346,7 @@
       <c r="N99" s="14"/>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="26"/>
       <c r="B100" s="4"/>
       <c r="C100" s="12"/>
@@ -5772,7 +6363,7 @@
       <c r="N100" s="14"/>
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="26"/>
       <c r="B101" s="4"/>
       <c r="C101" s="12"/>
@@ -5789,7 +6380,7 @@
       <c r="N101" s="14"/>
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="26"/>
       <c r="B102" s="4"/>
       <c r="C102" s="12"/>
@@ -5806,7 +6397,7 @@
       <c r="N102" s="14"/>
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="26"/>
       <c r="B103" s="4"/>
       <c r="C103" s="12"/>
@@ -5823,7 +6414,7 @@
       <c r="N103" s="14"/>
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="26"/>
       <c r="B104" s="4"/>
       <c r="C104" s="12"/>
@@ -5840,7 +6431,7 @@
       <c r="N104" s="14"/>
       <c r="O104" s="2"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="26"/>
       <c r="B105" s="4"/>
       <c r="C105" s="12"/>
@@ -5857,7 +6448,7 @@
       <c r="N105" s="14"/>
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="26"/>
       <c r="B106" s="4"/>
       <c r="C106" s="12"/>
@@ -5874,7 +6465,7 @@
       <c r="N106" s="14"/>
       <c r="O106" s="2"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="26"/>
       <c r="B107" s="4"/>
       <c r="C107" s="12"/>
@@ -5891,7 +6482,7 @@
       <c r="N107" s="14"/>
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="26"/>
       <c r="B108" s="4"/>
       <c r="C108" s="12"/>
@@ -5908,7 +6499,7 @@
       <c r="N108" s="14"/>
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="26"/>
       <c r="B109" s="4"/>
       <c r="C109" s="12"/>
@@ -5925,7 +6516,7 @@
       <c r="N109" s="14"/>
       <c r="O109" s="2"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="26"/>
       <c r="B110" s="4"/>
       <c r="C110" s="12"/>
@@ -5942,7 +6533,7 @@
       <c r="N110" s="14"/>
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="26"/>
       <c r="B111" s="4"/>
       <c r="C111" s="12"/>
@@ -5959,7 +6550,7 @@
       <c r="N111" s="14"/>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="26"/>
       <c r="B112" s="4"/>
       <c r="C112" s="12"/>
@@ -5976,7 +6567,7 @@
       <c r="N112" s="14"/>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="26"/>
       <c r="B113" s="4"/>
       <c r="C113" s="12"/>
@@ -5993,7 +6584,7 @@
       <c r="N113" s="14"/>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="26"/>
       <c r="B114" s="4"/>
       <c r="C114" s="12"/>
@@ -6010,7 +6601,7 @@
       <c r="N114" s="14"/>
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="26"/>
       <c r="B115" s="4"/>
       <c r="C115" s="12"/>
@@ -6027,7 +6618,7 @@
       <c r="N115" s="14"/>
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="26"/>
       <c r="B116" s="4"/>
       <c r="C116" s="12"/>
@@ -6044,7 +6635,7 @@
       <c r="N116" s="14"/>
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="26"/>
       <c r="B117" s="4"/>
       <c r="C117" s="12"/>
@@ -6061,7 +6652,7 @@
       <c r="N117" s="14"/>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="26"/>
       <c r="B118" s="4"/>
       <c r="C118" s="12"/>
@@ -6078,7 +6669,7 @@
       <c r="N118" s="14"/>
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="26"/>
       <c r="B119" s="4"/>
       <c r="C119" s="12"/>
@@ -6095,7 +6686,7 @@
       <c r="N119" s="14"/>
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="26"/>
       <c r="B120" s="4"/>
       <c r="C120" s="12"/>
@@ -6112,7 +6703,7 @@
       <c r="N120" s="14"/>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="26"/>
       <c r="B121" s="4"/>
       <c r="C121" s="12"/>
@@ -6129,7 +6720,7 @@
       <c r="N121" s="14"/>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="26"/>
       <c r="B122" s="4"/>
       <c r="C122" s="12"/>
@@ -6146,7 +6737,7 @@
       <c r="N122" s="14"/>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="26"/>
       <c r="B123" s="4"/>
       <c r="C123" s="12"/>
@@ -6163,7 +6754,7 @@
       <c r="N123" s="14"/>
       <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="26"/>
       <c r="B124" s="4"/>
       <c r="C124" s="12"/>
@@ -6180,7 +6771,7 @@
       <c r="N124" s="14"/>
       <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="26"/>
       <c r="B125" s="4"/>
       <c r="C125" s="12"/>
@@ -6197,7 +6788,7 @@
       <c r="N125" s="14"/>
       <c r="O125" s="2"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="26"/>
       <c r="B126" s="4"/>
       <c r="C126" s="12"/>
@@ -6214,7 +6805,7 @@
       <c r="N126" s="14"/>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="26"/>
       <c r="B127" s="4"/>
       <c r="C127" s="12"/>
@@ -6231,7 +6822,7 @@
       <c r="N127" s="14"/>
       <c r="O127" s="2"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="26"/>
       <c r="B128" s="4"/>
       <c r="C128" s="12"/>
@@ -6248,7 +6839,7 @@
       <c r="N128" s="14"/>
       <c r="O128" s="2"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="26"/>
       <c r="B129" s="4"/>
       <c r="C129" s="12"/>
@@ -6265,7 +6856,7 @@
       <c r="N129" s="14"/>
       <c r="O129" s="2"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="26"/>
       <c r="B130" s="4"/>
       <c r="C130" s="12"/>
@@ -6282,7 +6873,7 @@
       <c r="N130" s="14"/>
       <c r="O130" s="2"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="26"/>
       <c r="B131" s="4"/>
       <c r="C131" s="12"/>
@@ -6299,7 +6890,7 @@
       <c r="N131" s="14"/>
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="26"/>
       <c r="B132" s="4"/>
       <c r="C132" s="12"/>
@@ -6316,7 +6907,7 @@
       <c r="N132" s="14"/>
       <c r="O132" s="2"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="26"/>
       <c r="B133" s="4"/>
       <c r="C133" s="12"/>
@@ -6333,7 +6924,7 @@
       <c r="N133" s="14"/>
       <c r="O133" s="2"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="26"/>
       <c r="B134" s="4"/>
       <c r="C134" s="12"/>
@@ -6350,7 +6941,7 @@
       <c r="N134" s="14"/>
       <c r="O134" s="2"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="26"/>
       <c r="B135" s="4"/>
       <c r="C135" s="12"/>
@@ -6367,7 +6958,7 @@
       <c r="N135" s="14"/>
       <c r="O135" s="2"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="26"/>
       <c r="B136" s="4"/>
       <c r="C136" s="12"/>
@@ -6384,7 +6975,7 @@
       <c r="N136" s="14"/>
       <c r="O136" s="2"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="26"/>
       <c r="B137" s="4"/>
       <c r="C137" s="12"/>
@@ -6401,7 +6992,7 @@
       <c r="N137" s="14"/>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="26"/>
       <c r="B138" s="4"/>
       <c r="C138" s="12"/>
@@ -6418,7 +7009,7 @@
       <c r="N138" s="14"/>
       <c r="O138" s="2"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="26"/>
       <c r="B139" s="4"/>
       <c r="C139" s="12"/>
@@ -6435,7 +7026,7 @@
       <c r="N139" s="14"/>
       <c r="O139" s="2"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="26"/>
       <c r="B140" s="4"/>
       <c r="C140" s="12"/>
@@ -6452,7 +7043,7 @@
       <c r="N140" s="14"/>
       <c r="O140" s="2"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="26"/>
       <c r="B141" s="4"/>
       <c r="C141" s="12"/>
@@ -6469,7 +7060,7 @@
       <c r="N141" s="14"/>
       <c r="O141" s="2"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="26"/>
       <c r="B142" s="4"/>
       <c r="C142" s="12"/>
@@ -6486,7 +7077,7 @@
       <c r="N142" s="14"/>
       <c r="O142" s="2"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="26"/>
       <c r="B143" s="4"/>
       <c r="C143" s="12"/>
@@ -6503,7 +7094,7 @@
       <c r="N143" s="14"/>
       <c r="O143" s="2"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="26"/>
       <c r="B144" s="4"/>
       <c r="C144" s="12"/>
@@ -6520,7 +7111,7 @@
       <c r="N144" s="14"/>
       <c r="O144" s="2"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="26"/>
       <c r="B145" s="4"/>
       <c r="C145" s="12"/>
@@ -6537,7 +7128,7 @@
       <c r="N145" s="14"/>
       <c r="O145" s="2"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="26"/>
       <c r="B146" s="4"/>
       <c r="C146" s="12"/>
@@ -6554,7 +7145,7 @@
       <c r="N146" s="14"/>
       <c r="O146" s="2"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="26"/>
       <c r="B147" s="4"/>
       <c r="C147" s="12"/>
@@ -6571,7 +7162,7 @@
       <c r="N147" s="14"/>
       <c r="O147" s="2"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="26"/>
       <c r="B148" s="4"/>
       <c r="C148" s="12"/>
@@ -6588,7 +7179,7 @@
       <c r="N148" s="14"/>
       <c r="O148" s="2"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="26"/>
       <c r="B149" s="4"/>
       <c r="C149" s="12"/>
@@ -6605,7 +7196,7 @@
       <c r="N149" s="14"/>
       <c r="O149" s="2"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="26"/>
       <c r="B150" s="4"/>
       <c r="C150" s="12"/>
@@ -6622,7 +7213,7 @@
       <c r="N150" s="14"/>
       <c r="O150" s="2"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="26"/>
       <c r="B151" s="4"/>
       <c r="C151" s="12"/>
@@ -6639,7 +7230,7 @@
       <c r="N151" s="14"/>
       <c r="O151" s="2"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="26"/>
       <c r="B152" s="4"/>
       <c r="C152" s="12"/>
@@ -6656,7 +7247,7 @@
       <c r="N152" s="14"/>
       <c r="O152" s="2"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="26"/>
       <c r="B153" s="4"/>
       <c r="C153" s="12"/>
@@ -6673,7 +7264,7 @@
       <c r="N153" s="14"/>
       <c r="O153" s="2"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="26"/>
       <c r="B154" s="4"/>
       <c r="C154" s="12"/>
@@ -6690,7 +7281,7 @@
       <c r="N154" s="14"/>
       <c r="O154" s="2"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="26"/>
       <c r="B155" s="4"/>
       <c r="C155" s="12"/>
@@ -6707,7 +7298,7 @@
       <c r="N155" s="14"/>
       <c r="O155" s="2"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="26"/>
       <c r="B156" s="4"/>
       <c r="C156" s="12"/>
@@ -6724,7 +7315,7 @@
       <c r="N156" s="14"/>
       <c r="O156" s="2"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="26"/>
       <c r="B157" s="4"/>
       <c r="C157" s="12"/>
@@ -6741,7 +7332,7 @@
       <c r="N157" s="14"/>
       <c r="O157" s="2"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="26"/>
       <c r="B158" s="4"/>
       <c r="C158" s="12"/>
@@ -6758,7 +7349,7 @@
       <c r="N158" s="14"/>
       <c r="O158" s="2"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="26"/>
       <c r="B159" s="4"/>
       <c r="C159" s="12"/>
@@ -6775,7 +7366,7 @@
       <c r="N159" s="14"/>
       <c r="O159" s="2"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="26"/>
       <c r="B160" s="4"/>
       <c r="C160" s="12"/>
@@ -6792,7 +7383,7 @@
       <c r="N160" s="14"/>
       <c r="O160" s="2"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="26"/>
       <c r="B161" s="4"/>
       <c r="C161" s="12"/>
@@ -6809,7 +7400,7 @@
       <c r="N161" s="14"/>
       <c r="O161" s="2"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="26"/>
       <c r="B162" s="4"/>
       <c r="C162" s="12"/>
@@ -6826,7 +7417,7 @@
       <c r="N162" s="14"/>
       <c r="O162" s="2"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="26"/>
       <c r="B163" s="4"/>
       <c r="C163" s="12"/>
@@ -6843,7 +7434,7 @@
       <c r="N163" s="14"/>
       <c r="O163" s="2"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="26"/>
       <c r="B164" s="4"/>
       <c r="C164" s="12"/>
@@ -6860,7 +7451,7 @@
       <c r="N164" s="14"/>
       <c r="O164" s="2"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="26"/>
       <c r="B165" s="4"/>
       <c r="C165" s="12"/>
@@ -6877,7 +7468,7 @@
       <c r="N165" s="14"/>
       <c r="O165" s="2"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="26"/>
       <c r="B166" s="4"/>
       <c r="C166" s="12"/>
@@ -6894,7 +7485,7 @@
       <c r="N166" s="14"/>
       <c r="O166" s="2"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="26"/>
       <c r="B167" s="4"/>
       <c r="C167" s="12"/>
@@ -6911,7 +7502,7 @@
       <c r="N167" s="14"/>
       <c r="O167" s="2"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="26"/>
       <c r="B168" s="4"/>
       <c r="C168" s="12"/>
@@ -6928,7 +7519,7 @@
       <c r="N168" s="14"/>
       <c r="O168" s="2"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="26"/>
       <c r="B169" s="4"/>
       <c r="C169" s="12"/>
@@ -6945,7 +7536,7 @@
       <c r="N169" s="14"/>
       <c r="O169" s="2"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="26"/>
       <c r="B170" s="4"/>
       <c r="C170" s="12"/>
@@ -6962,7 +7553,7 @@
       <c r="N170" s="14"/>
       <c r="O170" s="2"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="26"/>
       <c r="B171" s="4"/>
       <c r="C171" s="12"/>
@@ -6979,7 +7570,7 @@
       <c r="N171" s="14"/>
       <c r="O171" s="2"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="26"/>
       <c r="B172" s="4"/>
       <c r="C172" s="12"/>
@@ -6996,7 +7587,7 @@
       <c r="N172" s="14"/>
       <c r="O172" s="2"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="26"/>
       <c r="B173" s="4"/>
       <c r="C173" s="12"/>
@@ -7013,7 +7604,7 @@
       <c r="N173" s="14"/>
       <c r="O173" s="2"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="26"/>
       <c r="B174" s="4"/>
       <c r="C174" s="12"/>
@@ -7030,7 +7621,7 @@
       <c r="N174" s="14"/>
       <c r="O174" s="2"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="26"/>
       <c r="B175" s="4"/>
       <c r="C175" s="12"/>
@@ -7047,7 +7638,7 @@
       <c r="N175" s="14"/>
       <c r="O175" s="2"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="26"/>
       <c r="B176" s="4"/>
       <c r="C176" s="12"/>
@@ -7064,7 +7655,7 @@
       <c r="N176" s="14"/>
       <c r="O176" s="2"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="26"/>
       <c r="B177" s="4"/>
       <c r="C177" s="12"/>
@@ -7081,7 +7672,7 @@
       <c r="N177" s="14"/>
       <c r="O177" s="2"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="26"/>
       <c r="B178" s="4"/>
       <c r="C178" s="12"/>
@@ -7098,7 +7689,7 @@
       <c r="N178" s="14"/>
       <c r="O178" s="2"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="26"/>
       <c r="B179" s="4"/>
       <c r="C179" s="12"/>
@@ -7115,7 +7706,7 @@
       <c r="N179" s="14"/>
       <c r="O179" s="2"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="26"/>
       <c r="B180" s="4"/>
       <c r="C180" s="12"/>
@@ -7132,7 +7723,7 @@
       <c r="N180" s="14"/>
       <c r="O180" s="2"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="26"/>
       <c r="B181" s="4"/>
       <c r="C181" s="12"/>
@@ -7149,7 +7740,7 @@
       <c r="N181" s="14"/>
       <c r="O181" s="2"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="26"/>
       <c r="B182" s="4"/>
       <c r="C182" s="12"/>
@@ -7166,7 +7757,7 @@
       <c r="N182" s="14"/>
       <c r="O182" s="2"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="26"/>
       <c r="B183" s="4"/>
       <c r="C183" s="12"/>
@@ -7183,7 +7774,7 @@
       <c r="N183" s="14"/>
       <c r="O183" s="2"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="26"/>
       <c r="B184" s="4"/>
       <c r="C184" s="12"/>
@@ -7200,7 +7791,7 @@
       <c r="N184" s="14"/>
       <c r="O184" s="2"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="26"/>
       <c r="B185" s="4"/>
       <c r="C185" s="12"/>
@@ -7217,7 +7808,7 @@
       <c r="N185" s="14"/>
       <c r="O185" s="2"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="26"/>
       <c r="B186" s="4"/>
       <c r="C186" s="12"/>
@@ -7234,7 +7825,7 @@
       <c r="N186" s="14"/>
       <c r="O186" s="2"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="26"/>
       <c r="B187" s="4"/>
       <c r="C187" s="12"/>
@@ -7251,7 +7842,7 @@
       <c r="N187" s="14"/>
       <c r="O187" s="2"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="26"/>
       <c r="B188" s="4"/>
       <c r="C188" s="12"/>
@@ -7268,7 +7859,7 @@
       <c r="N188" s="14"/>
       <c r="O188" s="2"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="26"/>
       <c r="B189" s="4"/>
       <c r="C189" s="12"/>
@@ -7285,7 +7876,7 @@
       <c r="N189" s="14"/>
       <c r="O189" s="2"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="26"/>
       <c r="B190" s="4"/>
       <c r="C190" s="12"/>
@@ -7302,7 +7893,7 @@
       <c r="N190" s="14"/>
       <c r="O190" s="2"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="26"/>
       <c r="B191" s="4"/>
       <c r="C191" s="12"/>
@@ -7319,7 +7910,7 @@
       <c r="N191" s="14"/>
       <c r="O191" s="2"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="26"/>
       <c r="B192" s="4"/>
       <c r="C192" s="12"/>
@@ -7336,7 +7927,7 @@
       <c r="N192" s="14"/>
       <c r="O192" s="2"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="26"/>
       <c r="B193" s="4"/>
       <c r="C193" s="12"/>
@@ -7353,7 +7944,7 @@
       <c r="N193" s="14"/>
       <c r="O193" s="2"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="26"/>
       <c r="B194" s="4"/>
       <c r="C194" s="12"/>
@@ -7370,7 +7961,7 @@
       <c r="N194" s="14"/>
       <c r="O194" s="2"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="26"/>
       <c r="B195" s="4"/>
       <c r="C195" s="12"/>
@@ -7387,7 +7978,7 @@
       <c r="N195" s="14"/>
       <c r="O195" s="2"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="26"/>
       <c r="B196" s="4"/>
       <c r="C196" s="12"/>
@@ -7404,7 +7995,7 @@
       <c r="N196" s="14"/>
       <c r="O196" s="2"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="26"/>
       <c r="B197" s="4"/>
       <c r="C197" s="12"/>
@@ -7421,7 +8012,7 @@
       <c r="N197" s="14"/>
       <c r="O197" s="2"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="26"/>
       <c r="B198" s="4"/>
       <c r="C198" s="12"/>
@@ -7438,7 +8029,7 @@
       <c r="N198" s="14"/>
       <c r="O198" s="2"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="26"/>
       <c r="B199" s="4"/>
       <c r="C199" s="12"/>
@@ -7455,7 +8046,7 @@
       <c r="N199" s="14"/>
       <c r="O199" s="2"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="26"/>
       <c r="B200" s="4"/>
       <c r="C200" s="12"/>
@@ -7472,7 +8063,7 @@
       <c r="N200" s="14"/>
       <c r="O200" s="2"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="26"/>
       <c r="B201" s="4"/>
       <c r="C201" s="12"/>
@@ -7489,7 +8080,7 @@
       <c r="N201" s="14"/>
       <c r="O201" s="2"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="26"/>
       <c r="B202" s="4"/>
       <c r="C202" s="12"/>
@@ -7506,7 +8097,7 @@
       <c r="N202" s="14"/>
       <c r="O202" s="2"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="26"/>
       <c r="B203" s="4"/>
       <c r="C203" s="12"/>
@@ -7523,7 +8114,7 @@
       <c r="N203" s="14"/>
       <c r="O203" s="2"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="26"/>
       <c r="B204" s="4"/>
       <c r="C204" s="12"/>
@@ -7540,7 +8131,7 @@
       <c r="N204" s="14"/>
       <c r="O204" s="2"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="26"/>
       <c r="B205" s="4"/>
       <c r="C205" s="12"/>
@@ -7557,7 +8148,7 @@
       <c r="N205" s="14"/>
       <c r="O205" s="2"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="26"/>
       <c r="B206" s="4"/>
       <c r="C206" s="12"/>
@@ -7574,7 +8165,7 @@
       <c r="N206" s="14"/>
       <c r="O206" s="2"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="26"/>
       <c r="B207" s="4"/>
       <c r="C207" s="12"/>
@@ -7591,7 +8182,7 @@
       <c r="N207" s="14"/>
       <c r="O207" s="2"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="26"/>
       <c r="B208" s="4"/>
       <c r="C208" s="12"/>
@@ -7608,7 +8199,7 @@
       <c r="N208" s="14"/>
       <c r="O208" s="2"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="26"/>
       <c r="B209" s="4"/>
       <c r="C209" s="12"/>
@@ -7625,7 +8216,7 @@
       <c r="N209" s="14"/>
       <c r="O209" s="2"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="26"/>
       <c r="B210" s="4"/>
       <c r="C210" s="12"/>
@@ -7642,7 +8233,7 @@
       <c r="N210" s="14"/>
       <c r="O210" s="2"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="26"/>
       <c r="B211" s="4"/>
       <c r="C211" s="12"/>
@@ -7659,7 +8250,7 @@
       <c r="N211" s="14"/>
       <c r="O211" s="2"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="26"/>
       <c r="B212" s="4"/>
       <c r="C212" s="12"/>
@@ -7676,7 +8267,7 @@
       <c r="N212" s="14"/>
       <c r="O212" s="2"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="26"/>
       <c r="B213" s="4"/>
       <c r="C213" s="12"/>
@@ -7693,7 +8284,7 @@
       <c r="N213" s="14"/>
       <c r="O213" s="2"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="26"/>
       <c r="B214" s="4"/>
       <c r="C214" s="12"/>
@@ -7710,7 +8301,7 @@
       <c r="N214" s="14"/>
       <c r="O214" s="2"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="26"/>
       <c r="B215" s="4"/>
       <c r="C215" s="12"/>
@@ -7727,7 +8318,7 @@
       <c r="N215" s="14"/>
       <c r="O215" s="2"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="26"/>
       <c r="B216" s="4"/>
       <c r="C216" s="12"/>
@@ -7744,7 +8335,7 @@
       <c r="N216" s="14"/>
       <c r="O216" s="2"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="26"/>
       <c r="B217" s="4"/>
       <c r="C217" s="12"/>
@@ -7761,7 +8352,7 @@
       <c r="N217" s="14"/>
       <c r="O217" s="2"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="26"/>
       <c r="B218" s="4"/>
       <c r="C218" s="12"/>
@@ -7778,7 +8369,7 @@
       <c r="N218" s="14"/>
       <c r="O218" s="2"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="26"/>
       <c r="B219" s="4"/>
       <c r="C219" s="12"/>
@@ -7795,7 +8386,7 @@
       <c r="N219" s="14"/>
       <c r="O219" s="2"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="26"/>
       <c r="B220" s="4"/>
       <c r="C220" s="12"/>
@@ -7812,7 +8403,7 @@
       <c r="N220" s="14"/>
       <c r="O220" s="2"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="26"/>
       <c r="B221" s="4"/>
       <c r="C221" s="12"/>
@@ -7829,7 +8420,7 @@
       <c r="N221" s="14"/>
       <c r="O221" s="2"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="26"/>
       <c r="B222" s="4"/>
       <c r="C222" s="12"/>
@@ -7846,7 +8437,7 @@
       <c r="N222" s="14"/>
       <c r="O222" s="2"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="26"/>
       <c r="B223" s="4"/>
       <c r="C223" s="12"/>
@@ -7863,7 +8454,7 @@
       <c r="N223" s="14"/>
       <c r="O223" s="2"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="26"/>
       <c r="B224" s="4"/>
       <c r="C224" s="12"/>
@@ -7880,7 +8471,7 @@
       <c r="N224" s="14"/>
       <c r="O224" s="2"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="26"/>
       <c r="B225" s="4"/>
       <c r="C225" s="12"/>
@@ -7897,7 +8488,7 @@
       <c r="N225" s="14"/>
       <c r="O225" s="2"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="26"/>
       <c r="B226" s="4"/>
       <c r="C226" s="12"/>
@@ -7914,7 +8505,7 @@
       <c r="N226" s="14"/>
       <c r="O226" s="2"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="26"/>
       <c r="B227" s="4"/>
       <c r="C227" s="12"/>
@@ -7931,7 +8522,7 @@
       <c r="N227" s="14"/>
       <c r="O227" s="2"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="26"/>
       <c r="B228" s="4"/>
       <c r="C228" s="12"/>
@@ -7948,7 +8539,7 @@
       <c r="N228" s="14"/>
       <c r="O228" s="2"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="26"/>
       <c r="B229" s="4"/>
       <c r="C229" s="12"/>
@@ -7965,7 +8556,7 @@
       <c r="N229" s="14"/>
       <c r="O229" s="2"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="26"/>
       <c r="B230" s="4"/>
       <c r="C230" s="12"/>
@@ -7982,7 +8573,7 @@
       <c r="N230" s="14"/>
       <c r="O230" s="2"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="26"/>
       <c r="B231" s="4"/>
       <c r="C231" s="12"/>
@@ -7999,7 +8590,7 @@
       <c r="N231" s="14"/>
       <c r="O231" s="2"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="26"/>
       <c r="B232" s="4"/>
       <c r="C232" s="12"/>
@@ -8016,7 +8607,7 @@
       <c r="N232" s="14"/>
       <c r="O232" s="2"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="26"/>
       <c r="B233" s="4"/>
       <c r="C233" s="12"/>
@@ -8033,7 +8624,7 @@
       <c r="N233" s="14"/>
       <c r="O233" s="2"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="26"/>
       <c r="B234" s="4"/>
       <c r="C234" s="12"/>
@@ -8050,7 +8641,7 @@
       <c r="N234" s="14"/>
       <c r="O234" s="2"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="26"/>
       <c r="B235" s="4"/>
       <c r="C235" s="12"/>
@@ -8067,7 +8658,7 @@
       <c r="N235" s="14"/>
       <c r="O235" s="2"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="26"/>
       <c r="B236" s="4"/>
       <c r="C236" s="12"/>
@@ -8084,7 +8675,7 @@
       <c r="N236" s="14"/>
       <c r="O236" s="2"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="26"/>
       <c r="B237" s="4"/>
       <c r="C237" s="12"/>
@@ -8101,7 +8692,7 @@
       <c r="N237" s="14"/>
       <c r="O237" s="2"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="26"/>
       <c r="B238" s="4"/>
       <c r="C238" s="12"/>
@@ -8118,7 +8709,7 @@
       <c r="N238" s="14"/>
       <c r="O238" s="2"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="26"/>
       <c r="B239" s="4"/>
       <c r="C239" s="12"/>
@@ -8135,7 +8726,7 @@
       <c r="N239" s="14"/>
       <c r="O239" s="2"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="26"/>
       <c r="B240" s="4"/>
       <c r="C240" s="12"/>
@@ -8152,7 +8743,7 @@
       <c r="N240" s="14"/>
       <c r="O240" s="2"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="26"/>
       <c r="B241" s="4"/>
       <c r="C241" s="12"/>
@@ -8169,7 +8760,7 @@
       <c r="N241" s="14"/>
       <c r="O241" s="2"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="26"/>
       <c r="B242" s="4"/>
       <c r="C242" s="12"/>
@@ -8186,7 +8777,7 @@
       <c r="N242" s="14"/>
       <c r="O242" s="2"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="26"/>
       <c r="B243" s="4"/>
       <c r="C243" s="12"/>
@@ -8203,7 +8794,7 @@
       <c r="N243" s="14"/>
       <c r="O243" s="2"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="26"/>
       <c r="B244" s="4"/>
       <c r="C244" s="12"/>
@@ -8220,7 +8811,7 @@
       <c r="N244" s="14"/>
       <c r="O244" s="2"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="26"/>
       <c r="B245" s="4"/>
       <c r="C245" s="12"/>
@@ -8237,7 +8828,7 @@
       <c r="N245" s="14"/>
       <c r="O245" s="2"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="26"/>
       <c r="B246" s="4"/>
       <c r="C246" s="12"/>
@@ -8254,7 +8845,7 @@
       <c r="N246" s="14"/>
       <c r="O246" s="2"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="26"/>
       <c r="B247" s="4"/>
       <c r="C247" s="12"/>
@@ -8271,7 +8862,7 @@
       <c r="N247" s="14"/>
       <c r="O247" s="2"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="26"/>
       <c r="B248" s="4"/>
       <c r="C248" s="12"/>
@@ -8288,7 +8879,7 @@
       <c r="N248" s="14"/>
       <c r="O248" s="2"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="26"/>
       <c r="B249" s="4"/>
       <c r="C249" s="12"/>
@@ -8305,7 +8896,7 @@
       <c r="N249" s="14"/>
       <c r="O249" s="2"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="26"/>
       <c r="B250" s="4"/>
       <c r="C250" s="12"/>
@@ -8322,7 +8913,7 @@
       <c r="N250" s="14"/>
       <c r="O250" s="2"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="26"/>
       <c r="B251" s="4"/>
       <c r="C251" s="12"/>
@@ -8339,7 +8930,7 @@
       <c r="N251" s="14"/>
       <c r="O251" s="2"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="26"/>
       <c r="B252" s="4"/>
       <c r="C252" s="12"/>
@@ -8356,7 +8947,7 @@
       <c r="N252" s="14"/>
       <c r="O252" s="2"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="26"/>
       <c r="B253" s="4"/>
       <c r="C253" s="12"/>
@@ -8373,7 +8964,7 @@
       <c r="N253" s="14"/>
       <c r="O253" s="2"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="26"/>
       <c r="B254" s="4"/>
       <c r="C254" s="12"/>
@@ -8390,7 +8981,7 @@
       <c r="N254" s="14"/>
       <c r="O254" s="2"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="26"/>
       <c r="B255" s="4"/>
       <c r="C255" s="12"/>
@@ -8407,7 +8998,7 @@
       <c r="N255" s="14"/>
       <c r="O255" s="2"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="26"/>
       <c r="B256" s="4"/>
       <c r="C256" s="12"/>
@@ -8424,7 +9015,7 @@
       <c r="N256" s="14"/>
       <c r="O256" s="2"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="26"/>
       <c r="B257" s="4"/>
       <c r="C257" s="12"/>
@@ -8441,7 +9032,7 @@
       <c r="N257" s="14"/>
       <c r="O257" s="2"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="26"/>
       <c r="B258" s="4"/>
       <c r="C258" s="12"/>
@@ -8458,7 +9049,7 @@
       <c r="N258" s="14"/>
       <c r="O258" s="2"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="26"/>
       <c r="B259" s="4"/>
       <c r="C259" s="12"/>
@@ -8475,7 +9066,7 @@
       <c r="N259" s="14"/>
       <c r="O259" s="2"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="26"/>
       <c r="B260" s="4"/>
       <c r="C260" s="12"/>
@@ -8492,7 +9083,7 @@
       <c r="N260" s="14"/>
       <c r="O260" s="2"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="26"/>
       <c r="B261" s="4"/>
       <c r="C261" s="12"/>
@@ -8509,7 +9100,7 @@
       <c r="N261" s="14"/>
       <c r="O261" s="2"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="26"/>
       <c r="B262" s="4"/>
       <c r="C262" s="12"/>
@@ -8526,7 +9117,7 @@
       <c r="N262" s="14"/>
       <c r="O262" s="2"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="26"/>
       <c r="B263" s="4"/>
       <c r="C263" s="12"/>
@@ -8543,7 +9134,7 @@
       <c r="N263" s="14"/>
       <c r="O263" s="2"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="26"/>
       <c r="B264" s="4"/>
       <c r="C264" s="12"/>
@@ -8560,7 +9151,7 @@
       <c r="N264" s="14"/>
       <c r="O264" s="2"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="26"/>
       <c r="B265" s="4"/>
       <c r="C265" s="12"/>
@@ -8577,7 +9168,7 @@
       <c r="N265" s="14"/>
       <c r="O265" s="2"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="26"/>
       <c r="B266" s="4"/>
       <c r="C266" s="12"/>
@@ -8594,7 +9185,7 @@
       <c r="N266" s="14"/>
       <c r="O266" s="2"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="26"/>
       <c r="B267" s="4"/>
       <c r="C267" s="12"/>
@@ -8611,7 +9202,7 @@
       <c r="N267" s="14"/>
       <c r="O267" s="2"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="26"/>
       <c r="B268" s="4"/>
       <c r="C268" s="12"/>
@@ -8628,7 +9219,7 @@
       <c r="N268" s="14"/>
       <c r="O268" s="2"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="26"/>
       <c r="B269" s="4"/>
       <c r="C269" s="12"/>
@@ -8645,7 +9236,7 @@
       <c r="N269" s="14"/>
       <c r="O269" s="2"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="26"/>
       <c r="B270" s="4"/>
       <c r="C270" s="12"/>
@@ -8662,7 +9253,7 @@
       <c r="N270" s="14"/>
       <c r="O270" s="2"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="26"/>
       <c r="B271" s="4"/>
       <c r="C271" s="12"/>
@@ -8679,7 +9270,7 @@
       <c r="N271" s="14"/>
       <c r="O271" s="2"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="26"/>
       <c r="B272" s="4"/>
       <c r="C272" s="12"/>
@@ -8696,7 +9287,7 @@
       <c r="N272" s="14"/>
       <c r="O272" s="2"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="26"/>
       <c r="B273" s="4"/>
       <c r="C273" s="12"/>
@@ -8713,7 +9304,7 @@
       <c r="N273" s="14"/>
       <c r="O273" s="2"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="26"/>
       <c r="B274" s="4"/>
       <c r="C274" s="12"/>
@@ -8730,7 +9321,7 @@
       <c r="N274" s="14"/>
       <c r="O274" s="2"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="26"/>
       <c r="B275" s="4"/>
       <c r="C275" s="12"/>
@@ -8747,7 +9338,7 @@
       <c r="N275" s="14"/>
       <c r="O275" s="2"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="26"/>
       <c r="B276" s="4"/>
       <c r="C276" s="12"/>
@@ -8764,7 +9355,7 @@
       <c r="N276" s="14"/>
       <c r="O276" s="2"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="26"/>
       <c r="B277" s="4"/>
       <c r="C277" s="12"/>
@@ -8781,7 +9372,7 @@
       <c r="N277" s="14"/>
       <c r="O277" s="2"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="26"/>
       <c r="B278" s="4"/>
       <c r="C278" s="12"/>
@@ -8798,7 +9389,7 @@
       <c r="N278" s="14"/>
       <c r="O278" s="2"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="26"/>
       <c r="B279" s="4"/>
       <c r="C279" s="12"/>
@@ -8815,7 +9406,7 @@
       <c r="N279" s="14"/>
       <c r="O279" s="2"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="26"/>
       <c r="B280" s="4"/>
       <c r="C280" s="12"/>
@@ -8832,7 +9423,7 @@
       <c r="N280" s="14"/>
       <c r="O280" s="2"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="26"/>
       <c r="B281" s="4"/>
       <c r="C281" s="12"/>
@@ -8849,7 +9440,7 @@
       <c r="N281" s="14"/>
       <c r="O281" s="2"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="26"/>
       <c r="B282" s="4"/>
       <c r="C282" s="12"/>
@@ -8866,7 +9457,7 @@
       <c r="N282" s="14"/>
       <c r="O282" s="2"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="26"/>
       <c r="B283" s="4"/>
       <c r="C283" s="12"/>
@@ -8883,7 +9474,7 @@
       <c r="N283" s="14"/>
       <c r="O283" s="2"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="26"/>
       <c r="B284" s="4"/>
       <c r="C284" s="12"/>
@@ -8900,7 +9491,7 @@
       <c r="N284" s="14"/>
       <c r="O284" s="2"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="26"/>
       <c r="B285" s="4"/>
       <c r="C285" s="12"/>
@@ -8917,7 +9508,7 @@
       <c r="N285" s="14"/>
       <c r="O285" s="2"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="26"/>
       <c r="B286" s="4"/>
       <c r="C286" s="12"/>
@@ -8934,7 +9525,7 @@
       <c r="N286" s="14"/>
       <c r="O286" s="2"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="26"/>
       <c r="B287" s="4"/>
       <c r="C287" s="12"/>
@@ -8951,7 +9542,7 @@
       <c r="N287" s="14"/>
       <c r="O287" s="2"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="26"/>
       <c r="B288" s="4"/>
       <c r="C288" s="12"/>
@@ -8968,7 +9559,7 @@
       <c r="N288" s="14"/>
       <c r="O288" s="2"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="26"/>
       <c r="B289" s="4"/>
       <c r="C289" s="12"/>
@@ -8985,7 +9576,7 @@
       <c r="N289" s="14"/>
       <c r="O289" s="2"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="26"/>
       <c r="B290" s="4"/>
       <c r="C290" s="12"/>
@@ -9002,7 +9593,7 @@
       <c r="N290" s="14"/>
       <c r="O290" s="2"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="26"/>
       <c r="B291" s="4"/>
       <c r="C291" s="12"/>
@@ -9019,7 +9610,7 @@
       <c r="N291" s="14"/>
       <c r="O291" s="2"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="26"/>
       <c r="B292" s="4"/>
       <c r="C292" s="12"/>
@@ -9036,7 +9627,7 @@
       <c r="N292" s="14"/>
       <c r="O292" s="2"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="26"/>
       <c r="B293" s="4"/>
       <c r="C293" s="12"/>
@@ -9053,7 +9644,7 @@
       <c r="N293" s="14"/>
       <c r="O293" s="2"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="26"/>
       <c r="B294" s="4"/>
       <c r="C294" s="12"/>
@@ -9070,7 +9661,7 @@
       <c r="N294" s="14"/>
       <c r="O294" s="2"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="26"/>
       <c r="B295" s="4"/>
       <c r="C295" s="12"/>
@@ -9087,7 +9678,7 @@
       <c r="N295" s="14"/>
       <c r="O295" s="2"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="26"/>
       <c r="B296" s="4"/>
       <c r="C296" s="12"/>
@@ -9104,7 +9695,7 @@
       <c r="N296" s="14"/>
       <c r="O296" s="2"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="26"/>
       <c r="B297" s="4"/>
       <c r="C297" s="12"/>
@@ -9121,7 +9712,7 @@
       <c r="N297" s="14"/>
       <c r="O297" s="2"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="26"/>
       <c r="B298" s="4"/>
       <c r="C298" s="12"/>
@@ -9138,7 +9729,7 @@
       <c r="N298" s="14"/>
       <c r="O298" s="2"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="26"/>
       <c r="B299" s="4"/>
       <c r="C299" s="12"/>
@@ -9155,7 +9746,7 @@
       <c r="N299" s="14"/>
       <c r="O299" s="2"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="26"/>
       <c r="B300" s="4"/>
       <c r="C300" s="12"/>
@@ -9172,7 +9763,7 @@
       <c r="N300" s="14"/>
       <c r="O300" s="2"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="26"/>
       <c r="B301" s="4"/>
       <c r="C301" s="12"/>
@@ -9189,7 +9780,7 @@
       <c r="N301" s="14"/>
       <c r="O301" s="2"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="26"/>
       <c r="B302" s="4"/>
       <c r="C302" s="12"/>
@@ -9206,7 +9797,7 @@
       <c r="N302" s="14"/>
       <c r="O302" s="2"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="26"/>
       <c r="B303" s="4"/>
       <c r="C303" s="12"/>
@@ -9223,7 +9814,7 @@
       <c r="N303" s="14"/>
       <c r="O303" s="2"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="26"/>
       <c r="B304" s="4"/>
       <c r="C304" s="12"/>
@@ -9240,7 +9831,7 @@
       <c r="N304" s="14"/>
       <c r="O304" s="2"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="26"/>
       <c r="B305" s="4"/>
       <c r="C305" s="12"/>
@@ -9257,7 +9848,7 @@
       <c r="N305" s="14"/>
       <c r="O305" s="2"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="26"/>
       <c r="B306" s="4"/>
       <c r="C306" s="12"/>
@@ -9274,7 +9865,7 @@
       <c r="N306" s="14"/>
       <c r="O306" s="2"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="26"/>
       <c r="B307" s="4"/>
       <c r="C307" s="12"/>
@@ -9291,7 +9882,7 @@
       <c r="N307" s="14"/>
       <c r="O307" s="2"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="26"/>
       <c r="B308" s="4"/>
       <c r="C308" s="12"/>
@@ -9308,7 +9899,7 @@
       <c r="N308" s="14"/>
       <c r="O308" s="2"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="26"/>
       <c r="B309" s="4"/>
       <c r="C309" s="12"/>
@@ -9325,7 +9916,7 @@
       <c r="N309" s="14"/>
       <c r="O309" s="2"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="26"/>
       <c r="B310" s="4"/>
       <c r="C310" s="12"/>
@@ -9342,7 +9933,7 @@
       <c r="N310" s="14"/>
       <c r="O310" s="2"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="26"/>
       <c r="B311" s="4"/>
       <c r="C311" s="12"/>
@@ -9359,7 +9950,7 @@
       <c r="N311" s="14"/>
       <c r="O311" s="2"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="26"/>
       <c r="B312" s="4"/>
       <c r="C312" s="12"/>
@@ -9376,7 +9967,7 @@
       <c r="N312" s="14"/>
       <c r="O312" s="2"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="26"/>
       <c r="B313" s="4"/>
       <c r="C313" s="12"/>
@@ -9393,7 +9984,7 @@
       <c r="N313" s="14"/>
       <c r="O313" s="2"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="26"/>
       <c r="B314" s="4"/>
       <c r="C314" s="12"/>
@@ -9410,7 +10001,7 @@
       <c r="N314" s="14"/>
       <c r="O314" s="2"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="26"/>
       <c r="B315" s="4"/>
       <c r="C315" s="12"/>
@@ -9427,7 +10018,7 @@
       <c r="N315" s="14"/>
       <c r="O315" s="2"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="26"/>
       <c r="B316" s="4"/>
       <c r="C316" s="12"/>
@@ -9444,7 +10035,7 @@
       <c r="N316" s="14"/>
       <c r="O316" s="2"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="26"/>
       <c r="B317" s="4"/>
       <c r="C317" s="12"/>
@@ -9461,7 +10052,7 @@
       <c r="N317" s="14"/>
       <c r="O317" s="2"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="26"/>
       <c r="B318" s="4"/>
       <c r="C318" s="12"/>
@@ -9478,7 +10069,7 @@
       <c r="N318" s="14"/>
       <c r="O318" s="2"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="26"/>
       <c r="B319" s="4"/>
       <c r="C319" s="12"/>
@@ -9495,7 +10086,7 @@
       <c r="N319" s="14"/>
       <c r="O319" s="2"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="26"/>
       <c r="B320" s="4"/>
       <c r="C320" s="12"/>
@@ -9512,7 +10103,7 @@
       <c r="N320" s="14"/>
       <c r="O320" s="2"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="26"/>
       <c r="B321" s="4"/>
       <c r="C321" s="12"/>
@@ -9529,7 +10120,7 @@
       <c r="N321" s="14"/>
       <c r="O321" s="2"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="26"/>
       <c r="B322" s="4"/>
       <c r="C322" s="12"/>
@@ -9546,7 +10137,7 @@
       <c r="N322" s="14"/>
       <c r="O322" s="2"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="26"/>
       <c r="B323" s="4"/>
       <c r="C323" s="12"/>
@@ -9563,7 +10154,7 @@
       <c r="N323" s="14"/>
       <c r="O323" s="2"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="26"/>
       <c r="B324" s="4"/>
       <c r="C324" s="12"/>
@@ -9580,7 +10171,7 @@
       <c r="N324" s="14"/>
       <c r="O324" s="2"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="26"/>
       <c r="B325" s="4"/>
       <c r="C325" s="12"/>
@@ -9597,7 +10188,7 @@
       <c r="N325" s="14"/>
       <c r="O325" s="2"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="26"/>
       <c r="B326" s="4"/>
       <c r="C326" s="12"/>
@@ -9614,7 +10205,7 @@
       <c r="N326" s="14"/>
       <c r="O326" s="2"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="26"/>
       <c r="B327" s="4"/>
       <c r="C327" s="12"/>
@@ -9631,7 +10222,7 @@
       <c r="N327" s="14"/>
       <c r="O327" s="2"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="26"/>
       <c r="B328" s="4"/>
       <c r="C328" s="12"/>
@@ -9648,7 +10239,7 @@
       <c r="N328" s="14"/>
       <c r="O328" s="2"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="26"/>
       <c r="B329" s="4"/>
       <c r="C329" s="12"/>
@@ -9665,7 +10256,7 @@
       <c r="N329" s="14"/>
       <c r="O329" s="2"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="26"/>
       <c r="B330" s="4"/>
       <c r="C330" s="12"/>
@@ -9682,7 +10273,7 @@
       <c r="N330" s="14"/>
       <c r="O330" s="2"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="26"/>
       <c r="B331" s="4"/>
       <c r="C331" s="12"/>
@@ -9699,7 +10290,7 @@
       <c r="N331" s="14"/>
       <c r="O331" s="2"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="26"/>
       <c r="B332" s="4"/>
       <c r="C332" s="12"/>
@@ -9716,7 +10307,7 @@
       <c r="N332" s="14"/>
       <c r="O332" s="2"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="26"/>
       <c r="B333" s="4"/>
       <c r="C333" s="12"/>
@@ -9733,7 +10324,7 @@
       <c r="N333" s="14"/>
       <c r="O333" s="2"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="26"/>
       <c r="B334" s="4"/>
       <c r="C334" s="12"/>
@@ -9750,7 +10341,7 @@
       <c r="N334" s="14"/>
       <c r="O334" s="2"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="26"/>
       <c r="B335" s="4"/>
       <c r="C335" s="12"/>
@@ -9767,7 +10358,7 @@
       <c r="N335" s="14"/>
       <c r="O335" s="2"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="26"/>
       <c r="B336" s="4"/>
       <c r="C336" s="12"/>
@@ -9784,7 +10375,7 @@
       <c r="N336" s="14"/>
       <c r="O336" s="2"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="26"/>
       <c r="B337" s="4"/>
       <c r="C337" s="12"/>
@@ -9801,7 +10392,7 @@
       <c r="N337" s="14"/>
       <c r="O337" s="2"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="26"/>
       <c r="B338" s="4"/>
       <c r="C338" s="12"/>
@@ -9818,7 +10409,7 @@
       <c r="N338" s="14"/>
       <c r="O338" s="2"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="26"/>
       <c r="B339" s="4"/>
       <c r="C339" s="12"/>
@@ -9835,7 +10426,7 @@
       <c r="N339" s="14"/>
       <c r="O339" s="2"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="26"/>
       <c r="B340" s="4"/>
       <c r="C340" s="12"/>
@@ -9852,7 +10443,7 @@
       <c r="N340" s="14"/>
       <c r="O340" s="2"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="26"/>
       <c r="B341" s="4"/>
       <c r="C341" s="12"/>
@@ -9869,7 +10460,7 @@
       <c r="N341" s="14"/>
       <c r="O341" s="2"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="26"/>
       <c r="B342" s="4"/>
       <c r="C342" s="12"/>
@@ -9886,7 +10477,7 @@
       <c r="N342" s="14"/>
       <c r="O342" s="2"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="26"/>
       <c r="B343" s="4"/>
       <c r="C343" s="12"/>
@@ -9903,7 +10494,7 @@
       <c r="N343" s="14"/>
       <c r="O343" s="2"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="26"/>
       <c r="B344" s="4"/>
       <c r="C344" s="12"/>
@@ -9920,7 +10511,7 @@
       <c r="N344" s="14"/>
       <c r="O344" s="2"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="26"/>
       <c r="B345" s="4"/>
       <c r="C345" s="12"/>
@@ -9937,7 +10528,7 @@
       <c r="N345" s="14"/>
       <c r="O345" s="2"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="26"/>
       <c r="B346" s="4"/>
       <c r="C346" s="12"/>
@@ -9954,7 +10545,7 @@
       <c r="N346" s="14"/>
       <c r="O346" s="2"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="26"/>
       <c r="B347" s="4"/>
       <c r="C347" s="12"/>
@@ -9971,7 +10562,7 @@
       <c r="N347" s="14"/>
       <c r="O347" s="2"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="26"/>
       <c r="B348" s="4"/>
       <c r="C348" s="12"/>
@@ -9988,7 +10579,7 @@
       <c r="N348" s="14"/>
       <c r="O348" s="2"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="26"/>
       <c r="B349" s="4"/>
       <c r="C349" s="12"/>
@@ -10005,7 +10596,7 @@
       <c r="N349" s="14"/>
       <c r="O349" s="2"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="26"/>
       <c r="B350" s="4"/>
       <c r="C350" s="12"/>
@@ -10022,7 +10613,7 @@
       <c r="N350" s="14"/>
       <c r="O350" s="2"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="26"/>
       <c r="B351" s="4"/>
       <c r="C351" s="12"/>
@@ -10039,7 +10630,7 @@
       <c r="N351" s="14"/>
       <c r="O351" s="2"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="26"/>
       <c r="B352" s="4"/>
       <c r="C352" s="12"/>
@@ -10056,7 +10647,7 @@
       <c r="N352" s="14"/>
       <c r="O352" s="2"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="26"/>
       <c r="B353" s="4"/>
       <c r="C353" s="12"/>
@@ -10073,7 +10664,7 @@
       <c r="N353" s="14"/>
       <c r="O353" s="2"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="26"/>
       <c r="B354" s="4"/>
       <c r="C354" s="12"/>
@@ -10090,7 +10681,7 @@
       <c r="N354" s="14"/>
       <c r="O354" s="2"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="26"/>
       <c r="B355" s="4"/>
       <c r="C355" s="12"/>
@@ -10107,7 +10698,7 @@
       <c r="N355" s="14"/>
       <c r="O355" s="2"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="26"/>
       <c r="B356" s="4"/>
       <c r="C356" s="12"/>
@@ -10124,7 +10715,7 @@
       <c r="N356" s="14"/>
       <c r="O356" s="2"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="26"/>
       <c r="B357" s="4"/>
       <c r="C357" s="12"/>
@@ -10141,7 +10732,7 @@
       <c r="N357" s="14"/>
       <c r="O357" s="2"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="26"/>
       <c r="B358" s="4"/>
       <c r="C358" s="12"/>
@@ -10158,7 +10749,7 @@
       <c r="N358" s="14"/>
       <c r="O358" s="2"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="26"/>
       <c r="B359" s="4"/>
       <c r="C359" s="12"/>
@@ -10175,7 +10766,7 @@
       <c r="N359" s="14"/>
       <c r="O359" s="2"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="26"/>
       <c r="B360" s="4"/>
       <c r="C360" s="12"/>
@@ -10192,7 +10783,7 @@
       <c r="N360" s="14"/>
       <c r="O360" s="2"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="26"/>
       <c r="B361" s="4"/>
       <c r="C361" s="12"/>
@@ -10209,7 +10800,7 @@
       <c r="N361" s="14"/>
       <c r="O361" s="2"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="26"/>
       <c r="B362" s="4"/>
       <c r="C362" s="12"/>
@@ -10226,7 +10817,7 @@
       <c r="N362" s="14"/>
       <c r="O362" s="2"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="26"/>
       <c r="B363" s="4"/>
       <c r="C363" s="12"/>
@@ -10243,7 +10834,7 @@
       <c r="N363" s="14"/>
       <c r="O363" s="2"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="26"/>
       <c r="B364" s="4"/>
       <c r="C364" s="12"/>
@@ -10260,7 +10851,7 @@
       <c r="N364" s="14"/>
       <c r="O364" s="2"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="26"/>
       <c r="B365" s="4"/>
       <c r="C365" s="12"/>
@@ -10277,7 +10868,7 @@
       <c r="N365" s="14"/>
       <c r="O365" s="2"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="26"/>
       <c r="B366" s="4"/>
       <c r="C366" s="12"/>
@@ -10294,7 +10885,7 @@
       <c r="N366" s="14"/>
       <c r="O366" s="2"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="26"/>
       <c r="B367" s="4"/>
       <c r="C367" s="12"/>
@@ -10311,7 +10902,7 @@
       <c r="N367" s="14"/>
       <c r="O367" s="2"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="26"/>
       <c r="B368" s="4"/>
       <c r="C368" s="12"/>
@@ -10328,7 +10919,7 @@
       <c r="N368" s="14"/>
       <c r="O368" s="2"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="26"/>
       <c r="B369" s="4"/>
       <c r="C369" s="12"/>
@@ -10345,7 +10936,7 @@
       <c r="N369" s="14"/>
       <c r="O369" s="2"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="26"/>
       <c r="B370" s="4"/>
       <c r="C370" s="12"/>
@@ -10362,7 +10953,7 @@
       <c r="N370" s="14"/>
       <c r="O370" s="2"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="26"/>
       <c r="B371" s="4"/>
       <c r="C371" s="12"/>
@@ -10379,7 +10970,7 @@
       <c r="N371" s="14"/>
       <c r="O371" s="2"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="26"/>
       <c r="B372" s="4"/>
       <c r="C372" s="12"/>
@@ -10396,7 +10987,7 @@
       <c r="N372" s="14"/>
       <c r="O372" s="2"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="26"/>
       <c r="B373" s="4"/>
       <c r="C373" s="12"/>
@@ -10413,7 +11004,7 @@
       <c r="N373" s="14"/>
       <c r="O373" s="2"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="26"/>
       <c r="B374" s="4"/>
       <c r="C374" s="12"/>
@@ -10430,7 +11021,7 @@
       <c r="N374" s="14"/>
       <c r="O374" s="2"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="26"/>
       <c r="B375" s="4"/>
       <c r="C375" s="12"/>
@@ -10447,7 +11038,7 @@
       <c r="N375" s="14"/>
       <c r="O375" s="2"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="26"/>
       <c r="B376" s="4"/>
       <c r="C376" s="12"/>
@@ -10464,7 +11055,7 @@
       <c r="N376" s="14"/>
       <c r="O376" s="2"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="26"/>
       <c r="B377" s="4"/>
       <c r="C377" s="12"/>
@@ -10481,7 +11072,7 @@
       <c r="N377" s="14"/>
       <c r="O377" s="2"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="26"/>
       <c r="B378" s="4"/>
       <c r="C378" s="12"/>
@@ -10498,7 +11089,7 @@
       <c r="N378" s="14"/>
       <c r="O378" s="2"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="26"/>
       <c r="B379" s="4"/>
       <c r="C379" s="12"/>
@@ -10515,7 +11106,7 @@
       <c r="N379" s="14"/>
       <c r="O379" s="2"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="26"/>
       <c r="B380" s="4"/>
       <c r="C380" s="12"/>
@@ -10532,7 +11123,7 @@
       <c r="N380" s="14"/>
       <c r="O380" s="2"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="26"/>
       <c r="B381" s="4"/>
       <c r="C381" s="12"/>
@@ -10549,7 +11140,7 @@
       <c r="N381" s="14"/>
       <c r="O381" s="2"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="26"/>
       <c r="B382" s="4"/>
       <c r="C382" s="12"/>
@@ -10566,7 +11157,7 @@
       <c r="N382" s="14"/>
       <c r="O382" s="2"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="26"/>
       <c r="B383" s="4"/>
       <c r="C383" s="12"/>
@@ -10583,7 +11174,7 @@
       <c r="N383" s="14"/>
       <c r="O383" s="2"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="26"/>
       <c r="B384" s="4"/>
       <c r="C384" s="12"/>
@@ -10600,7 +11191,7 @@
       <c r="N384" s="14"/>
       <c r="O384" s="2"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="26"/>
       <c r="B385" s="4"/>
       <c r="C385" s="12"/>
@@ -10617,7 +11208,7 @@
       <c r="N385" s="14"/>
       <c r="O385" s="2"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="26"/>
       <c r="B386" s="4"/>
       <c r="C386" s="12"/>
@@ -10634,7 +11225,7 @@
       <c r="N386" s="14"/>
       <c r="O386" s="2"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="26"/>
       <c r="B387" s="4"/>
       <c r="C387" s="12"/>
@@ -10651,7 +11242,7 @@
       <c r="N387" s="14"/>
       <c r="O387" s="2"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="26"/>
       <c r="B388" s="4"/>
       <c r="C388" s="12"/>
@@ -10668,7 +11259,7 @@
       <c r="N388" s="14"/>
       <c r="O388" s="2"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="26"/>
       <c r="B389" s="4"/>
       <c r="C389" s="12"/>
@@ -10685,7 +11276,7 @@
       <c r="N389" s="14"/>
       <c r="O389" s="2"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="26"/>
       <c r="B390" s="4"/>
       <c r="C390" s="12"/>
@@ -10702,7 +11293,7 @@
       <c r="N390" s="14"/>
       <c r="O390" s="2"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="26"/>
       <c r="B391" s="4"/>
       <c r="C391" s="12"/>
@@ -10719,7 +11310,7 @@
       <c r="N391" s="14"/>
       <c r="O391" s="2"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="26"/>
       <c r="B392" s="4"/>
       <c r="C392" s="12"/>
@@ -10736,7 +11327,7 @@
       <c r="N392" s="14"/>
       <c r="O392" s="2"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="26"/>
       <c r="B393" s="4"/>
       <c r="C393" s="12"/>
@@ -10753,7 +11344,7 @@
       <c r="N393" s="14"/>
       <c r="O393" s="2"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="26"/>
       <c r="B394" s="4"/>
       <c r="C394" s="12"/>
@@ -10770,7 +11361,7 @@
       <c r="N394" s="14"/>
       <c r="O394" s="2"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="26"/>
       <c r="B395" s="4"/>
       <c r="C395" s="12"/>
@@ -10787,7 +11378,7 @@
       <c r="N395" s="14"/>
       <c r="O395" s="2"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="26"/>
       <c r="B396" s="4"/>
       <c r="C396" s="12"/>
@@ -10804,7 +11395,7 @@
       <c r="N396" s="14"/>
       <c r="O396" s="2"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="26"/>
       <c r="B397" s="4"/>
       <c r="C397" s="12"/>
@@ -10821,7 +11412,7 @@
       <c r="N397" s="14"/>
       <c r="O397" s="2"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="26"/>
       <c r="B398" s="4"/>
       <c r="C398" s="12"/>
@@ -10838,7 +11429,7 @@
       <c r="N398" s="14"/>
       <c r="O398" s="2"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="26"/>
       <c r="B399" s="4"/>
       <c r="C399" s="12"/>
@@ -10855,7 +11446,7 @@
       <c r="N399" s="14"/>
       <c r="O399" s="2"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="26"/>
       <c r="B400" s="4"/>
       <c r="C400" s="12"/>
@@ -10872,7 +11463,7 @@
       <c r="N400" s="14"/>
       <c r="O400" s="2"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="26"/>
       <c r="B401" s="4"/>
       <c r="C401" s="12"/>
@@ -10889,7 +11480,7 @@
       <c r="N401" s="14"/>
       <c r="O401" s="2"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="26"/>
       <c r="B402" s="4"/>
       <c r="C402" s="12"/>
@@ -10906,7 +11497,7 @@
       <c r="N402" s="14"/>
       <c r="O402" s="2"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="26"/>
       <c r="B403" s="4"/>
       <c r="C403" s="12"/>
@@ -10923,7 +11514,7 @@
       <c r="N403" s="14"/>
       <c r="O403" s="2"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="26"/>
       <c r="B404" s="4"/>
       <c r="C404" s="12"/>
@@ -10940,7 +11531,7 @@
       <c r="N404" s="14"/>
       <c r="O404" s="2"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="26"/>
       <c r="B405" s="4"/>
       <c r="C405" s="12"/>
@@ -10957,7 +11548,7 @@
       <c r="N405" s="14"/>
       <c r="O405" s="2"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="26"/>
       <c r="B406" s="4"/>
       <c r="C406" s="12"/>
@@ -10974,7 +11565,7 @@
       <c r="N406" s="14"/>
       <c r="O406" s="2"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="26"/>
       <c r="B407" s="4"/>
       <c r="C407" s="12"/>
@@ -10991,7 +11582,7 @@
       <c r="N407" s="14"/>
       <c r="O407" s="2"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="26"/>
       <c r="B408" s="4"/>
       <c r="C408" s="12"/>
@@ -11008,7 +11599,7 @@
       <c r="N408" s="14"/>
       <c r="O408" s="2"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="26"/>
       <c r="B409" s="4"/>
       <c r="C409" s="12"/>
@@ -11025,7 +11616,7 @@
       <c r="N409" s="14"/>
       <c r="O409" s="2"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="26"/>
       <c r="B410" s="4"/>
       <c r="C410" s="12"/>
@@ -11042,7 +11633,7 @@
       <c r="N410" s="14"/>
       <c r="O410" s="2"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="26"/>
       <c r="B411" s="4"/>
       <c r="C411" s="12"/>
@@ -11059,7 +11650,7 @@
       <c r="N411" s="14"/>
       <c r="O411" s="2"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="26"/>
       <c r="B412" s="4"/>
       <c r="C412" s="12"/>
@@ -11076,7 +11667,7 @@
       <c r="N412" s="14"/>
       <c r="O412" s="2"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="26"/>
       <c r="B413" s="4"/>
       <c r="C413" s="12"/>
@@ -11093,7 +11684,7 @@
       <c r="N413" s="14"/>
       <c r="O413" s="2"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="26"/>
       <c r="B414" s="4"/>
       <c r="C414" s="12"/>
@@ -11110,7 +11701,7 @@
       <c r="N414" s="14"/>
       <c r="O414" s="2"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="26"/>
       <c r="B415" s="4"/>
       <c r="C415" s="12"/>
@@ -11127,7 +11718,7 @@
       <c r="N415" s="14"/>
       <c r="O415" s="2"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="26"/>
       <c r="B416" s="4"/>
       <c r="C416" s="12"/>
@@ -11144,7 +11735,7 @@
       <c r="N416" s="14"/>
       <c r="O416" s="2"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="26"/>
       <c r="B417" s="4"/>
       <c r="C417" s="12"/>
@@ -11161,7 +11752,7 @@
       <c r="N417" s="14"/>
       <c r="O417" s="2"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="26"/>
       <c r="B418" s="4"/>
       <c r="C418" s="12"/>
@@ -11178,7 +11769,7 @@
       <c r="N418" s="14"/>
       <c r="O418" s="2"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="26"/>
       <c r="B419" s="4"/>
       <c r="C419" s="12"/>
@@ -11195,7 +11786,7 @@
       <c r="N419" s="14"/>
       <c r="O419" s="2"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="26"/>
       <c r="B420" s="4"/>
       <c r="C420" s="12"/>
@@ -11212,7 +11803,7 @@
       <c r="N420" s="14"/>
       <c r="O420" s="2"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="26"/>
       <c r="B421" s="4"/>
       <c r="C421" s="12"/>
@@ -11229,7 +11820,7 @@
       <c r="N421" s="14"/>
       <c r="O421" s="2"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="26"/>
       <c r="B422" s="4"/>
       <c r="C422" s="12"/>
@@ -11246,7 +11837,7 @@
       <c r="N422" s="14"/>
       <c r="O422" s="2"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="26"/>
       <c r="B423" s="4"/>
       <c r="C423" s="12"/>
@@ -11263,7 +11854,7 @@
       <c r="N423" s="14"/>
       <c r="O423" s="2"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="26"/>
       <c r="B424" s="4"/>
       <c r="C424" s="12"/>
@@ -11280,7 +11871,7 @@
       <c r="N424" s="14"/>
       <c r="O424" s="2"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="26"/>
       <c r="B425" s="4"/>
       <c r="C425" s="12"/>
@@ -11297,7 +11888,7 @@
       <c r="N425" s="14"/>
       <c r="O425" s="2"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="26"/>
       <c r="B426" s="4"/>
       <c r="C426" s="12"/>
@@ -11314,7 +11905,7 @@
       <c r="N426" s="14"/>
       <c r="O426" s="2"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="26"/>
       <c r="B427" s="4"/>
       <c r="C427" s="12"/>
@@ -11331,7 +11922,7 @@
       <c r="N427" s="14"/>
       <c r="O427" s="2"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="26"/>
       <c r="B428" s="4"/>
       <c r="C428" s="12"/>
@@ -11348,7 +11939,7 @@
       <c r="N428" s="14"/>
       <c r="O428" s="2"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="26"/>
       <c r="B429" s="4"/>
       <c r="C429" s="12"/>
@@ -11365,7 +11956,7 @@
       <c r="N429" s="14"/>
       <c r="O429" s="2"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="26"/>
       <c r="B430" s="4"/>
       <c r="C430" s="12"/>
@@ -11382,7 +11973,7 @@
       <c r="N430" s="14"/>
       <c r="O430" s="2"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="26"/>
       <c r="B431" s="4"/>
       <c r="C431" s="12"/>
@@ -11399,7 +11990,7 @@
       <c r="N431" s="14"/>
       <c r="O431" s="2"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="26"/>
       <c r="B432" s="4"/>
       <c r="C432" s="12"/>
@@ -11416,7 +12007,7 @@
       <c r="N432" s="14"/>
       <c r="O432" s="2"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="26"/>
       <c r="B433" s="4"/>
       <c r="C433" s="12"/>
@@ -11433,7 +12024,7 @@
       <c r="N433" s="14"/>
       <c r="O433" s="2"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="26"/>
       <c r="B434" s="4"/>
       <c r="C434" s="12"/>
@@ -11450,7 +12041,7 @@
       <c r="N434" s="14"/>
       <c r="O434" s="2"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="26"/>
       <c r="B435" s="4"/>
       <c r="C435" s="12"/>
@@ -11467,7 +12058,7 @@
       <c r="N435" s="14"/>
       <c r="O435" s="2"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="26"/>
       <c r="B436" s="4"/>
       <c r="C436" s="12"/>
@@ -11484,7 +12075,7 @@
       <c r="N436" s="14"/>
       <c r="O436" s="2"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="26"/>
       <c r="B437" s="4"/>
       <c r="C437" s="12"/>
@@ -11501,7 +12092,7 @@
       <c r="N437" s="14"/>
       <c r="O437" s="2"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="26"/>
       <c r="B438" s="4"/>
       <c r="C438" s="12"/>
@@ -11518,7 +12109,7 @@
       <c r="N438" s="14"/>
       <c r="O438" s="2"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="26"/>
       <c r="B439" s="4"/>
       <c r="C439" s="12"/>
@@ -11535,7 +12126,7 @@
       <c r="N439" s="14"/>
       <c r="O439" s="2"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="26"/>
       <c r="B440" s="4"/>
       <c r="C440" s="12"/>
@@ -11552,7 +12143,7 @@
       <c r="N440" s="14"/>
       <c r="O440" s="2"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="26"/>
       <c r="B441" s="4"/>
       <c r="C441" s="12"/>
@@ -11569,7 +12160,7 @@
       <c r="N441" s="14"/>
       <c r="O441" s="2"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="26"/>
       <c r="B442" s="4"/>
       <c r="C442" s="12"/>
@@ -11586,7 +12177,7 @@
       <c r="N442" s="14"/>
       <c r="O442" s="2"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="26"/>
       <c r="B443" s="4"/>
       <c r="C443" s="12"/>
@@ -11603,7 +12194,7 @@
       <c r="N443" s="14"/>
       <c r="O443" s="2"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="26"/>
       <c r="B444" s="4"/>
       <c r="C444" s="12"/>
@@ -11620,7 +12211,7 @@
       <c r="N444" s="14"/>
       <c r="O444" s="2"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="26"/>
       <c r="B445" s="4"/>
       <c r="C445" s="12"/>
@@ -11637,7 +12228,7 @@
       <c r="N445" s="14"/>
       <c r="O445" s="2"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="26"/>
       <c r="B446" s="4"/>
       <c r="C446" s="12"/>
@@ -11654,7 +12245,7 @@
       <c r="N446" s="14"/>
       <c r="O446" s="2"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="26"/>
       <c r="B447" s="4"/>
       <c r="C447" s="12"/>
@@ -11671,7 +12262,7 @@
       <c r="N447" s="14"/>
       <c r="O447" s="2"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="26"/>
       <c r="B448" s="4"/>
       <c r="C448" s="12"/>
@@ -11688,7 +12279,7 @@
       <c r="N448" s="14"/>
       <c r="O448" s="2"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="26"/>
       <c r="B449" s="4"/>
       <c r="C449" s="12"/>
@@ -11705,7 +12296,7 @@
       <c r="N449" s="14"/>
       <c r="O449" s="2"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="26"/>
       <c r="B450" s="4"/>
       <c r="C450" s="12"/>
@@ -11722,7 +12313,7 @@
       <c r="N450" s="14"/>
       <c r="O450" s="2"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="26"/>
       <c r="B451" s="4"/>
       <c r="C451" s="12"/>
@@ -11739,7 +12330,7 @@
       <c r="N451" s="14"/>
       <c r="O451" s="2"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="26"/>
       <c r="B452" s="4"/>
       <c r="C452" s="12"/>
@@ -11756,7 +12347,7 @@
       <c r="N452" s="14"/>
       <c r="O452" s="2"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="26"/>
       <c r="B453" s="4"/>
       <c r="C453" s="12"/>
@@ -11773,7 +12364,7 @@
       <c r="N453" s="14"/>
       <c r="O453" s="2"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="26"/>
       <c r="B454" s="4"/>
       <c r="C454" s="12"/>
@@ -11790,7 +12381,7 @@
       <c r="N454" s="14"/>
       <c r="O454" s="2"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="26"/>
       <c r="B455" s="4"/>
       <c r="C455" s="12"/>
@@ -11807,7 +12398,7 @@
       <c r="N455" s="14"/>
       <c r="O455" s="2"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="26"/>
       <c r="B456" s="4"/>
       <c r="C456" s="12"/>
@@ -11824,7 +12415,7 @@
       <c r="N456" s="14"/>
       <c r="O456" s="2"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="26"/>
       <c r="B457" s="4"/>
       <c r="C457" s="12"/>
@@ -11841,7 +12432,7 @@
       <c r="N457" s="14"/>
       <c r="O457" s="2"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="26"/>
       <c r="B458" s="4"/>
       <c r="C458" s="12"/>
@@ -11858,7 +12449,7 @@
       <c r="N458" s="14"/>
       <c r="O458" s="2"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="26"/>
       <c r="B459" s="4"/>
       <c r="C459" s="12"/>
@@ -11875,7 +12466,7 @@
       <c r="N459" s="14"/>
       <c r="O459" s="2"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="26"/>
       <c r="B460" s="4"/>
       <c r="C460" s="12"/>
@@ -11892,7 +12483,7 @@
       <c r="N460" s="14"/>
       <c r="O460" s="2"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="26"/>
       <c r="B461" s="4"/>
       <c r="C461" s="12"/>
@@ -11909,7 +12500,7 @@
       <c r="N461" s="14"/>
       <c r="O461" s="2"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="26"/>
       <c r="B462" s="4"/>
       <c r="C462" s="12"/>
@@ -11926,7 +12517,7 @@
       <c r="N462" s="14"/>
       <c r="O462" s="2"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="26"/>
       <c r="B463" s="4"/>
       <c r="C463" s="12"/>
@@ -11943,7 +12534,7 @@
       <c r="N463" s="14"/>
       <c r="O463" s="2"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="26"/>
       <c r="B464" s="4"/>
       <c r="C464" s="12"/>
@@ -11960,7 +12551,7 @@
       <c r="N464" s="14"/>
       <c r="O464" s="2"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="26"/>
       <c r="B465" s="4"/>
       <c r="C465" s="12"/>
@@ -11977,7 +12568,7 @@
       <c r="N465" s="14"/>
       <c r="O465" s="2"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="26"/>
       <c r="B466" s="4"/>
       <c r="C466" s="12"/>
@@ -11994,7 +12585,7 @@
       <c r="N466" s="14"/>
       <c r="O466" s="2"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="26"/>
       <c r="B467" s="4"/>
       <c r="C467" s="12"/>
@@ -12011,7 +12602,7 @@
       <c r="N467" s="14"/>
       <c r="O467" s="2"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="26"/>
       <c r="B468" s="4"/>
       <c r="C468" s="12"/>
@@ -12028,7 +12619,7 @@
       <c r="N468" s="14"/>
       <c r="O468" s="2"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="26"/>
       <c r="B469" s="4"/>
       <c r="C469" s="12"/>
@@ -12045,7 +12636,7 @@
       <c r="N469" s="14"/>
       <c r="O469" s="2"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="26"/>
       <c r="B470" s="4"/>
       <c r="C470" s="12"/>
@@ -12062,7 +12653,7 @@
       <c r="N470" s="14"/>
       <c r="O470" s="2"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="26"/>
       <c r="B471" s="4"/>
       <c r="C471" s="12"/>
@@ -12079,7 +12670,7 @@
       <c r="N471" s="14"/>
       <c r="O471" s="2"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="26"/>
       <c r="B472" s="4"/>
       <c r="C472" s="12"/>
@@ -12096,7 +12687,7 @@
       <c r="N472" s="14"/>
       <c r="O472" s="2"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="26"/>
       <c r="B473" s="4"/>
       <c r="C473" s="12"/>
@@ -12113,7 +12704,7 @@
       <c r="N473" s="14"/>
       <c r="O473" s="2"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="26"/>
       <c r="B474" s="4"/>
       <c r="C474" s="12"/>
@@ -12130,7 +12721,7 @@
       <c r="N474" s="14"/>
       <c r="O474" s="2"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="26"/>
       <c r="B475" s="4"/>
       <c r="C475" s="12"/>
@@ -12147,7 +12738,7 @@
       <c r="N475" s="14"/>
       <c r="O475" s="2"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="26"/>
       <c r="B476" s="4"/>
       <c r="C476" s="12"/>
@@ -12164,7 +12755,7 @@
       <c r="N476" s="14"/>
       <c r="O476" s="2"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="26"/>
       <c r="B477" s="4"/>
       <c r="C477" s="12"/>
@@ -12181,7 +12772,7 @@
       <c r="N477" s="14"/>
       <c r="O477" s="2"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="26"/>
       <c r="B478" s="4"/>
       <c r="C478" s="12"/>
@@ -12198,7 +12789,7 @@
       <c r="N478" s="14"/>
       <c r="O478" s="2"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="26"/>
       <c r="B479" s="4"/>
       <c r="C479" s="12"/>
@@ -12215,7 +12806,7 @@
       <c r="N479" s="14"/>
       <c r="O479" s="2"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="26"/>
       <c r="B480" s="4"/>
       <c r="C480" s="12"/>
@@ -12232,7 +12823,7 @@
       <c r="N480" s="14"/>
       <c r="O480" s="2"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="26"/>
       <c r="B481" s="4"/>
       <c r="C481" s="12"/>
@@ -12249,7 +12840,7 @@
       <c r="N481" s="14"/>
       <c r="O481" s="2"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="26"/>
       <c r="B482" s="4"/>
       <c r="C482" s="12"/>
@@ -12266,7 +12857,7 @@
       <c r="N482" s="14"/>
       <c r="O482" s="2"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="26"/>
       <c r="B483" s="4"/>
       <c r="C483" s="12"/>
@@ -12283,7 +12874,7 @@
       <c r="N483" s="14"/>
       <c r="O483" s="2"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="26"/>
       <c r="B484" s="4"/>
       <c r="C484" s="12"/>
@@ -12300,7 +12891,7 @@
       <c r="N484" s="14"/>
       <c r="O484" s="2"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="26"/>
       <c r="B485" s="4"/>
       <c r="C485" s="12"/>
@@ -12317,7 +12908,7 @@
       <c r="N485" s="14"/>
       <c r="O485" s="2"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="26"/>
       <c r="B486" s="4"/>
       <c r="C486" s="12"/>
@@ -12334,7 +12925,7 @@
       <c r="N486" s="14"/>
       <c r="O486" s="2"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="26"/>
       <c r="B487" s="4"/>
       <c r="C487" s="12"/>
@@ -12351,7 +12942,7 @@
       <c r="N487" s="14"/>
       <c r="O487" s="2"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="26"/>
       <c r="B488" s="4"/>
       <c r="C488" s="12"/>
@@ -12368,7 +12959,7 @@
       <c r="N488" s="14"/>
       <c r="O488" s="2"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="26"/>
       <c r="B489" s="4"/>
       <c r="C489" s="12"/>
@@ -12385,7 +12976,7 @@
       <c r="N489" s="14"/>
       <c r="O489" s="2"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="26"/>
       <c r="B490" s="4"/>
       <c r="C490" s="12"/>
@@ -12402,7 +12993,7 @@
       <c r="N490" s="14"/>
       <c r="O490" s="2"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="26"/>
       <c r="B491" s="4"/>
       <c r="C491" s="12"/>
@@ -12419,7 +13010,7 @@
       <c r="N491" s="14"/>
       <c r="O491" s="2"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="26"/>
       <c r="B492" s="4"/>
       <c r="C492" s="12"/>
@@ -12436,7 +13027,7 @@
       <c r="N492" s="14"/>
       <c r="O492" s="2"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="26"/>
       <c r="B493" s="4"/>
       <c r="C493" s="12"/>
@@ -12453,7 +13044,7 @@
       <c r="N493" s="14"/>
       <c r="O493" s="2"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="26"/>
       <c r="B494" s="4"/>
       <c r="C494" s="12"/>
@@ -12470,7 +13061,7 @@
       <c r="N494" s="14"/>
       <c r="O494" s="2"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="26"/>
       <c r="B495" s="4"/>
       <c r="C495" s="12"/>
@@ -12487,7 +13078,7 @@
       <c r="N495" s="14"/>
       <c r="O495" s="2"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="26"/>
       <c r="B496" s="4"/>
       <c r="C496" s="12"/>
@@ -12504,7 +13095,7 @@
       <c r="N496" s="14"/>
       <c r="O496" s="2"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="26"/>
       <c r="B497" s="4"/>
       <c r="C497" s="12"/>
@@ -12521,7 +13112,7 @@
       <c r="N497" s="14"/>
       <c r="O497" s="2"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="26"/>
       <c r="B498" s="4"/>
       <c r="C498" s="12"/>
@@ -12538,7 +13129,7 @@
       <c r="N498" s="14"/>
       <c r="O498" s="2"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="26"/>
       <c r="B499" s="4"/>
       <c r="C499" s="12"/>
@@ -12555,7 +13146,7 @@
       <c r="N499" s="14"/>
       <c r="O499" s="2"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="26"/>
       <c r="B500" s="4"/>
       <c r="C500" s="12"/>
@@ -12572,7 +13163,7 @@
       <c r="N500" s="14"/>
       <c r="O500" s="2"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="26"/>
       <c r="B501" s="4"/>
       <c r="C501" s="12"/>
@@ -12589,7 +13180,7 @@
       <c r="N501" s="14"/>
       <c r="O501" s="2"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="26"/>
       <c r="B502" s="4"/>
       <c r="C502" s="12"/>
@@ -12606,7 +13197,7 @@
       <c r="N502" s="14"/>
       <c r="O502" s="2"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="26"/>
       <c r="B503" s="4"/>
       <c r="C503" s="12"/>
@@ -12623,7 +13214,7 @@
       <c r="N503" s="14"/>
       <c r="O503" s="2"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="26"/>
       <c r="B504" s="4"/>
       <c r="C504" s="12"/>
@@ -12640,7 +13231,7 @@
       <c r="N504" s="14"/>
       <c r="O504" s="2"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="26"/>
       <c r="B505" s="4"/>
       <c r="C505" s="12"/>
@@ -12657,7 +13248,7 @@
       <c r="N505" s="14"/>
       <c r="O505" s="2"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="26"/>
       <c r="B506" s="4"/>
       <c r="C506" s="12"/>
@@ -12674,7 +13265,7 @@
       <c r="N506" s="14"/>
       <c r="O506" s="2"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="26"/>
       <c r="B507" s="4"/>
       <c r="C507" s="12"/>
@@ -12691,7 +13282,7 @@
       <c r="N507" s="14"/>
       <c r="O507" s="2"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="26"/>
       <c r="B508" s="4"/>
       <c r="C508" s="12"/>
@@ -12708,7 +13299,7 @@
       <c r="N508" s="14"/>
       <c r="O508" s="2"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="26"/>
       <c r="B509" s="4"/>
       <c r="C509" s="12"/>
@@ -12725,7 +13316,7 @@
       <c r="N509" s="14"/>
       <c r="O509" s="2"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="26"/>
       <c r="B510" s="4"/>
       <c r="C510" s="12"/>
@@ -12742,7 +13333,7 @@
       <c r="N510" s="14"/>
       <c r="O510" s="2"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="26"/>
       <c r="B511" s="4"/>
       <c r="C511" s="12"/>
@@ -12759,7 +13350,7 @@
       <c r="N511" s="14"/>
       <c r="O511" s="2"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="26"/>
       <c r="B512" s="4"/>
       <c r="C512" s="12"/>
@@ -12776,7 +13367,7 @@
       <c r="N512" s="14"/>
       <c r="O512" s="2"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="26"/>
       <c r="B513" s="4"/>
       <c r="C513" s="12"/>
@@ -12793,7 +13384,7 @@
       <c r="N513" s="14"/>
       <c r="O513" s="2"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="26"/>
       <c r="B514" s="4"/>
       <c r="C514" s="12"/>
@@ -12810,7 +13401,7 @@
       <c r="N514" s="14"/>
       <c r="O514" s="2"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="26"/>
       <c r="B515" s="4"/>
       <c r="C515" s="12"/>
@@ -12827,7 +13418,7 @@
       <c r="N515" s="14"/>
       <c r="O515" s="2"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="26"/>
       <c r="B516" s="4"/>
       <c r="C516" s="12"/>
@@ -12844,7 +13435,7 @@
       <c r="N516" s="14"/>
       <c r="O516" s="2"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="26"/>
       <c r="B517" s="4"/>
       <c r="C517" s="12"/>
@@ -12861,7 +13452,7 @@
       <c r="N517" s="14"/>
       <c r="O517" s="2"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="26"/>
       <c r="B518" s="4"/>
       <c r="C518" s="12"/>
@@ -12878,7 +13469,7 @@
       <c r="N518" s="14"/>
       <c r="O518" s="2"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="26"/>
       <c r="B519" s="4"/>
       <c r="C519" s="12"/>
@@ -12895,7 +13486,7 @@
       <c r="N519" s="14"/>
       <c r="O519" s="2"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="26"/>
       <c r="B520" s="4"/>
       <c r="C520" s="12"/>
@@ -12912,7 +13503,7 @@
       <c r="N520" s="14"/>
       <c r="O520" s="2"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="26"/>
       <c r="B521" s="4"/>
       <c r="C521" s="12"/>
@@ -12929,7 +13520,7 @@
       <c r="N521" s="14"/>
       <c r="O521" s="2"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="26"/>
       <c r="B522" s="4"/>
       <c r="C522" s="12"/>
@@ -12946,7 +13537,7 @@
       <c r="N522" s="14"/>
       <c r="O522" s="2"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="26"/>
       <c r="B523" s="4"/>
       <c r="C523" s="12"/>
@@ -12963,7 +13554,7 @@
       <c r="N523" s="14"/>
       <c r="O523" s="2"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="26"/>
       <c r="B524" s="4"/>
       <c r="C524" s="12"/>
@@ -12980,7 +13571,7 @@
       <c r="N524" s="14"/>
       <c r="O524" s="2"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="26"/>
       <c r="B525" s="4"/>
       <c r="C525" s="12"/>
@@ -12997,7 +13588,7 @@
       <c r="N525" s="14"/>
       <c r="O525" s="2"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="26"/>
       <c r="B526" s="4"/>
       <c r="C526" s="12"/>
@@ -13014,7 +13605,7 @@
       <c r="N526" s="14"/>
       <c r="O526" s="2"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="26"/>
       <c r="B527" s="4"/>
       <c r="C527" s="12"/>
@@ -13031,7 +13622,7 @@
       <c r="N527" s="14"/>
       <c r="O527" s="2"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="26"/>
       <c r="B528" s="4"/>
       <c r="C528" s="12"/>
@@ -13048,7 +13639,7 @@
       <c r="N528" s="14"/>
       <c r="O528" s="2"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="26"/>
       <c r="B529" s="4"/>
       <c r="C529" s="12"/>
@@ -13065,7 +13656,7 @@
       <c r="N529" s="14"/>
       <c r="O529" s="2"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="26"/>
       <c r="B530" s="4"/>
       <c r="C530" s="12"/>
@@ -13082,7 +13673,7 @@
       <c r="N530" s="14"/>
       <c r="O530" s="2"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="26"/>
       <c r="B531" s="4"/>
       <c r="C531" s="12"/>
@@ -13099,7 +13690,7 @@
       <c r="N531" s="14"/>
       <c r="O531" s="2"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="26"/>
       <c r="B532" s="4"/>
       <c r="C532" s="12"/>
@@ -13116,7 +13707,7 @@
       <c r="N532" s="14"/>
       <c r="O532" s="2"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="26"/>
       <c r="B533" s="4"/>
       <c r="C533" s="12"/>
@@ -13133,7 +13724,7 @@
       <c r="N533" s="14"/>
       <c r="O533" s="2"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="26"/>
       <c r="B534" s="4"/>
       <c r="C534" s="12"/>
@@ -13150,7 +13741,7 @@
       <c r="N534" s="14"/>
       <c r="O534" s="2"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="26"/>
       <c r="B535" s="4"/>
       <c r="C535" s="12"/>
@@ -13167,7 +13758,7 @@
       <c r="N535" s="14"/>
       <c r="O535" s="2"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="26"/>
       <c r="B536" s="4"/>
       <c r="C536" s="12"/>
@@ -13184,7 +13775,7 @@
       <c r="N536" s="14"/>
       <c r="O536" s="2"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="26"/>
       <c r="B537" s="4"/>
       <c r="C537" s="12"/>
@@ -13201,7 +13792,7 @@
       <c r="N537" s="14"/>
       <c r="O537" s="2"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="26"/>
       <c r="B538" s="4"/>
       <c r="C538" s="12"/>
@@ -13218,7 +13809,7 @@
       <c r="N538" s="14"/>
       <c r="O538" s="2"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="26"/>
       <c r="B539" s="4"/>
       <c r="C539" s="12"/>
@@ -13235,7 +13826,7 @@
       <c r="N539" s="14"/>
       <c r="O539" s="2"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="26"/>
       <c r="B540" s="4"/>
       <c r="C540" s="12"/>
@@ -13252,7 +13843,7 @@
       <c r="N540" s="14"/>
       <c r="O540" s="2"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="26"/>
       <c r="B541" s="4"/>
       <c r="C541" s="12"/>
@@ -13269,7 +13860,7 @@
       <c r="N541" s="14"/>
       <c r="O541" s="2"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="26"/>
       <c r="B542" s="4"/>
       <c r="C542" s="12"/>
@@ -13286,7 +13877,7 @@
       <c r="N542" s="14"/>
       <c r="O542" s="2"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="26"/>
       <c r="B543" s="4"/>
       <c r="C543" s="12"/>
@@ -13303,7 +13894,7 @@
       <c r="N543" s="14"/>
       <c r="O543" s="2"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="26"/>
       <c r="B544" s="4"/>
       <c r="C544" s="12"/>
@@ -13320,7 +13911,7 @@
       <c r="N544" s="14"/>
       <c r="O544" s="2"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="26"/>
       <c r="B545" s="4"/>
       <c r="C545" s="12"/>
@@ -13337,7 +13928,7 @@
       <c r="N545" s="14"/>
       <c r="O545" s="2"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="26"/>
       <c r="B546" s="4"/>
       <c r="C546" s="12"/>
@@ -13354,7 +13945,7 @@
       <c r="N546" s="14"/>
       <c r="O546" s="2"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="26"/>
       <c r="B547" s="4"/>
       <c r="C547" s="12"/>
@@ -13371,7 +13962,7 @@
       <c r="N547" s="14"/>
       <c r="O547" s="2"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="26"/>
       <c r="B548" s="4"/>
       <c r="C548" s="12"/>
@@ -13388,7 +13979,7 @@
       <c r="N548" s="14"/>
       <c r="O548" s="2"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="26"/>
       <c r="B549" s="4"/>
       <c r="C549" s="12"/>
@@ -13405,7 +13996,7 @@
       <c r="N549" s="14"/>
       <c r="O549" s="2"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="26"/>
       <c r="B550" s="4"/>
       <c r="C550" s="12"/>
@@ -13422,7 +14013,7 @@
       <c r="N550" s="14"/>
       <c r="O550" s="2"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="26"/>
       <c r="B551" s="4"/>
       <c r="C551" s="12"/>
@@ -13439,7 +14030,7 @@
       <c r="N551" s="14"/>
       <c r="O551" s="2"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="26"/>
       <c r="B552" s="4"/>
       <c r="C552" s="12"/>
@@ -13456,7 +14047,7 @@
       <c r="N552" s="14"/>
       <c r="O552" s="2"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="26"/>
       <c r="B553" s="4"/>
       <c r="C553" s="12"/>
@@ -13473,7 +14064,7 @@
       <c r="N553" s="14"/>
       <c r="O553" s="2"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="26"/>
       <c r="B554" s="4"/>
       <c r="C554" s="12"/>
@@ -13490,7 +14081,7 @@
       <c r="N554" s="14"/>
       <c r="O554" s="2"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="26"/>
       <c r="B555" s="4"/>
       <c r="C555" s="12"/>
@@ -13507,7 +14098,7 @@
       <c r="N555" s="14"/>
       <c r="O555" s="2"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="26"/>
       <c r="B556" s="4"/>
       <c r="C556" s="12"/>
@@ -13524,7 +14115,7 @@
       <c r="N556" s="14"/>
       <c r="O556" s="2"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="26"/>
       <c r="B557" s="4"/>
       <c r="C557" s="12"/>
@@ -13541,7 +14132,7 @@
       <c r="N557" s="14"/>
       <c r="O557" s="2"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="26"/>
       <c r="B558" s="4"/>
       <c r="C558" s="12"/>
@@ -13558,7 +14149,7 @@
       <c r="N558" s="14"/>
       <c r="O558" s="2"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="26"/>
       <c r="B559" s="4"/>
       <c r="C559" s="12"/>
@@ -13575,7 +14166,7 @@
       <c r="N559" s="14"/>
       <c r="O559" s="2"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="26"/>
       <c r="B560" s="4"/>
       <c r="C560" s="12"/>
@@ -13592,7 +14183,7 @@
       <c r="N560" s="14"/>
       <c r="O560" s="2"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="26"/>
       <c r="B561" s="4"/>
       <c r="C561" s="12"/>
@@ -13609,7 +14200,7 @@
       <c r="N561" s="14"/>
       <c r="O561" s="2"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="26"/>
       <c r="B562" s="4"/>
       <c r="C562" s="12"/>
@@ -13626,7 +14217,7 @@
       <c r="N562" s="14"/>
       <c r="O562" s="2"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="26"/>
       <c r="B563" s="4"/>
       <c r="C563" s="12"/>
@@ -13643,7 +14234,7 @@
       <c r="N563" s="14"/>
       <c r="O563" s="2"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="26"/>
       <c r="B564" s="4"/>
       <c r="C564" s="12"/>
@@ -13660,7 +14251,7 @@
       <c r="N564" s="14"/>
       <c r="O564" s="2"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="26"/>
       <c r="B565" s="4"/>
       <c r="C565" s="12"/>
@@ -13677,7 +14268,7 @@
       <c r="N565" s="14"/>
       <c r="O565" s="2"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="26"/>
       <c r="B566" s="4"/>
       <c r="C566" s="12"/>
@@ -13694,7 +14285,7 @@
       <c r="N566" s="14"/>
       <c r="O566" s="2"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="26"/>
       <c r="B567" s="4"/>
       <c r="C567" s="12"/>
@@ -13711,7 +14302,7 @@
       <c r="N567" s="14"/>
       <c r="O567" s="2"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="26"/>
       <c r="B568" s="4"/>
       <c r="C568" s="12"/>
@@ -13728,7 +14319,7 @@
       <c r="N568" s="14"/>
       <c r="O568" s="2"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="26"/>
       <c r="B569" s="4"/>
       <c r="C569" s="12"/>
@@ -13745,7 +14336,7 @@
       <c r="N569" s="14"/>
       <c r="O569" s="2"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="26"/>
       <c r="B570" s="4"/>
       <c r="C570" s="12"/>
@@ -13762,7 +14353,7 @@
       <c r="N570" s="14"/>
       <c r="O570" s="2"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="26"/>
       <c r="B571" s="4"/>
       <c r="C571" s="12"/>
@@ -13779,7 +14370,7 @@
       <c r="N571" s="14"/>
       <c r="O571" s="2"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="26"/>
       <c r="B572" s="4"/>
       <c r="C572" s="12"/>
@@ -13796,7 +14387,7 @@
       <c r="N572" s="14"/>
       <c r="O572" s="2"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="26"/>
       <c r="B573" s="4"/>
       <c r="C573" s="12"/>
@@ -13813,7 +14404,7 @@
       <c r="N573" s="14"/>
       <c r="O573" s="2"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="26"/>
       <c r="B574" s="4"/>
       <c r="C574" s="12"/>
@@ -13830,7 +14421,7 @@
       <c r="N574" s="14"/>
       <c r="O574" s="2"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="26"/>
       <c r="B575" s="4"/>
       <c r="C575" s="12"/>
@@ -13847,7 +14438,7 @@
       <c r="N575" s="14"/>
       <c r="O575" s="2"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="26"/>
       <c r="B576" s="4"/>
       <c r="C576" s="12"/>
@@ -13864,7 +14455,7 @@
       <c r="N576" s="14"/>
       <c r="O576" s="2"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="26"/>
       <c r="B577" s="4"/>
       <c r="C577" s="12"/>
@@ -13881,7 +14472,7 @@
       <c r="N577" s="14"/>
       <c r="O577" s="2"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="26"/>
       <c r="B578" s="4"/>
       <c r="C578" s="12"/>
@@ -13898,7 +14489,7 @@
       <c r="N578" s="14"/>
       <c r="O578" s="2"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="26"/>
       <c r="B579" s="4"/>
       <c r="C579" s="12"/>
@@ -13915,7 +14506,7 @@
       <c r="N579" s="14"/>
       <c r="O579" s="2"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="26"/>
       <c r="B580" s="4"/>
       <c r="C580" s="12"/>
@@ -13932,7 +14523,7 @@
       <c r="N580" s="14"/>
       <c r="O580" s="2"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="26"/>
       <c r="B581" s="4"/>
       <c r="C581" s="12"/>
@@ -13949,7 +14540,7 @@
       <c r="N581" s="14"/>
       <c r="O581" s="2"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="26"/>
       <c r="B582" s="4"/>
       <c r="C582" s="12"/>
@@ -13966,7 +14557,7 @@
       <c r="N582" s="14"/>
       <c r="O582" s="2"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="26"/>
       <c r="B583" s="4"/>
       <c r="C583" s="12"/>
@@ -13983,7 +14574,7 @@
       <c r="N583" s="14"/>
       <c r="O583" s="2"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="26"/>
       <c r="B584" s="4"/>
       <c r="C584" s="12"/>
@@ -14000,7 +14591,7 @@
       <c r="N584" s="14"/>
       <c r="O584" s="2"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="26"/>
       <c r="B585" s="4"/>
       <c r="C585" s="12"/>
@@ -14017,7 +14608,7 @@
       <c r="N585" s="14"/>
       <c r="O585" s="2"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="26"/>
       <c r="B586" s="4"/>
       <c r="C586" s="12"/>
@@ -14034,7 +14625,7 @@
       <c r="N586" s="14"/>
       <c r="O586" s="2"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="26"/>
       <c r="B587" s="4"/>
       <c r="C587" s="12"/>
@@ -14051,7 +14642,7 @@
       <c r="N587" s="14"/>
       <c r="O587" s="2"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="26"/>
       <c r="B588" s="4"/>
       <c r="C588" s="12"/>
@@ -14068,7 +14659,7 @@
       <c r="N588" s="14"/>
       <c r="O588" s="2"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="26"/>
       <c r="B589" s="4"/>
       <c r="C589" s="12"/>
@@ -14085,7 +14676,7 @@
       <c r="N589" s="14"/>
       <c r="O589" s="2"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="26"/>
       <c r="B590" s="4"/>
       <c r="C590" s="12"/>
@@ -14102,7 +14693,7 @@
       <c r="N590" s="14"/>
       <c r="O590" s="2"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="26"/>
       <c r="B591" s="4"/>
       <c r="C591" s="12"/>
@@ -14119,7 +14710,7 @@
       <c r="N591" s="14"/>
       <c r="O591" s="2"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="26"/>
       <c r="B592" s="4"/>
       <c r="C592" s="12"/>
@@ -14136,7 +14727,7 @@
       <c r="N592" s="14"/>
       <c r="O592" s="2"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="26"/>
       <c r="B593" s="4"/>
       <c r="C593" s="12"/>
@@ -14153,7 +14744,7 @@
       <c r="N593" s="14"/>
       <c r="O593" s="2"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="26"/>
       <c r="B594" s="4"/>
       <c r="C594" s="12"/>
@@ -14170,7 +14761,7 @@
       <c r="N594" s="14"/>
       <c r="O594" s="2"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="26"/>
       <c r="B595" s="4"/>
       <c r="C595" s="12"/>
@@ -14187,7 +14778,7 @@
       <c r="N595" s="14"/>
       <c r="O595" s="2"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="26"/>
       <c r="B596" s="4"/>
       <c r="C596" s="12"/>
@@ -14204,7 +14795,7 @@
       <c r="N596" s="14"/>
       <c r="O596" s="2"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="26"/>
       <c r="B597" s="4"/>
       <c r="C597" s="12"/>
@@ -14221,7 +14812,7 @@
       <c r="N597" s="14"/>
       <c r="O597" s="2"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="26"/>
       <c r="B598" s="4"/>
       <c r="C598" s="12"/>
@@ -14238,7 +14829,7 @@
       <c r="N598" s="14"/>
       <c r="O598" s="2"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="26"/>
       <c r="B599" s="4"/>
       <c r="C599" s="12"/>
@@ -14255,7 +14846,7 @@
       <c r="N599" s="14"/>
       <c r="O599" s="2"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="26"/>
       <c r="B600" s="4"/>
       <c r="C600" s="12"/>
@@ -14272,7 +14863,7 @@
       <c r="N600" s="14"/>
       <c r="O600" s="2"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="26"/>
       <c r="B601" s="4"/>
       <c r="C601" s="12"/>
@@ -14289,7 +14880,7 @@
       <c r="N601" s="14"/>
       <c r="O601" s="2"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="26"/>
       <c r="B602" s="4"/>
       <c r="C602" s="12"/>
@@ -14306,7 +14897,7 @@
       <c r="N602" s="14"/>
       <c r="O602" s="2"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="26"/>
       <c r="B603" s="4"/>
       <c r="C603" s="12"/>
@@ -14323,7 +14914,7 @@
       <c r="N603" s="14"/>
       <c r="O603" s="2"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="26"/>
       <c r="B604" s="4"/>
       <c r="C604" s="12"/>
@@ -14340,7 +14931,7 @@
       <c r="N604" s="14"/>
       <c r="O604" s="2"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="26"/>
       <c r="B605" s="4"/>
       <c r="C605" s="12"/>
@@ -14357,7 +14948,7 @@
       <c r="N605" s="14"/>
       <c r="O605" s="2"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="26"/>
       <c r="B606" s="4"/>
       <c r="C606" s="12"/>
@@ -14374,7 +14965,7 @@
       <c r="N606" s="14"/>
       <c r="O606" s="2"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="26"/>
       <c r="B607" s="4"/>
       <c r="C607" s="12"/>
@@ -14391,7 +14982,7 @@
       <c r="N607" s="14"/>
       <c r="O607" s="2"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="26"/>
       <c r="B608" s="4"/>
       <c r="C608" s="12"/>
@@ -14408,7 +14999,7 @@
       <c r="N608" s="14"/>
       <c r="O608" s="2"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="26"/>
       <c r="B609" s="4"/>
       <c r="C609" s="12"/>
@@ -14425,7 +15016,7 @@
       <c r="N609" s="14"/>
       <c r="O609" s="2"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="26"/>
       <c r="B610" s="4"/>
       <c r="C610" s="12"/>
@@ -14442,7 +15033,7 @@
       <c r="N610" s="14"/>
       <c r="O610" s="2"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="26"/>
       <c r="B611" s="4"/>
       <c r="C611" s="12"/>
@@ -14459,7 +15050,7 @@
       <c r="N611" s="14"/>
       <c r="O611" s="2"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="26"/>
       <c r="B612" s="4"/>
       <c r="C612" s="12"/>
@@ -14476,7 +15067,7 @@
       <c r="N612" s="14"/>
       <c r="O612" s="2"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="26"/>
       <c r="B613" s="4"/>
       <c r="C613" s="12"/>
@@ -14493,7 +15084,7 @@
       <c r="N613" s="14"/>
       <c r="O613" s="2"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="26"/>
       <c r="B614" s="4"/>
       <c r="C614" s="12"/>
@@ -14510,7 +15101,7 @@
       <c r="N614" s="14"/>
       <c r="O614" s="2"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="26"/>
       <c r="B615" s="4"/>
       <c r="C615" s="12"/>
@@ -14527,7 +15118,7 @@
       <c r="N615" s="14"/>
       <c r="O615" s="2"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="26"/>
       <c r="B616" s="4"/>
       <c r="C616" s="12"/>
@@ -14544,7 +15135,7 @@
       <c r="N616" s="14"/>
       <c r="O616" s="2"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="26"/>
       <c r="B617" s="4"/>
       <c r="C617" s="12"/>
@@ -14561,7 +15152,7 @@
       <c r="N617" s="14"/>
       <c r="O617" s="2"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="26"/>
       <c r="B618" s="4"/>
       <c r="C618" s="12"/>
@@ -14578,7 +15169,7 @@
       <c r="N618" s="14"/>
       <c r="O618" s="2"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="26"/>
       <c r="B619" s="4"/>
       <c r="C619" s="12"/>
@@ -14595,7 +15186,7 @@
       <c r="N619" s="14"/>
       <c r="O619" s="2"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="26"/>
       <c r="B620" s="4"/>
       <c r="C620" s="12"/>
@@ -14612,7 +15203,7 @@
       <c r="N620" s="14"/>
       <c r="O620" s="2"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="26"/>
       <c r="B621" s="4"/>
       <c r="C621" s="12"/>
@@ -14629,7 +15220,7 @@
       <c r="N621" s="14"/>
       <c r="O621" s="2"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="26"/>
       <c r="B622" s="4"/>
       <c r="C622" s="12"/>
@@ -14646,7 +15237,7 @@
       <c r="N622" s="14"/>
       <c r="O622" s="2"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="26"/>
       <c r="B623" s="4"/>
       <c r="C623" s="12"/>
@@ -14663,7 +15254,7 @@
       <c r="N623" s="14"/>
       <c r="O623" s="2"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="26"/>
       <c r="B624" s="4"/>
       <c r="C624" s="12"/>
@@ -14680,7 +15271,7 @@
       <c r="N624" s="14"/>
       <c r="O624" s="2"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="26"/>
       <c r="B625" s="4"/>
       <c r="C625" s="12"/>
@@ -14697,7 +15288,7 @@
       <c r="N625" s="14"/>
       <c r="O625" s="2"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="26"/>
       <c r="B626" s="4"/>
       <c r="C626" s="12"/>
@@ -14714,7 +15305,7 @@
       <c r="N626" s="14"/>
       <c r="O626" s="2"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="26"/>
       <c r="B627" s="4"/>
       <c r="C627" s="12"/>
@@ -14731,7 +15322,7 @@
       <c r="N627" s="14"/>
       <c r="O627" s="2"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="26"/>
       <c r="B628" s="4"/>
       <c r="C628" s="12"/>
@@ -14748,7 +15339,7 @@
       <c r="N628" s="14"/>
       <c r="O628" s="2"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="26"/>
       <c r="B629" s="4"/>
       <c r="C629" s="12"/>
@@ -14765,7 +15356,7 @@
       <c r="N629" s="14"/>
       <c r="O629" s="2"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="26"/>
       <c r="B630" s="4"/>
       <c r="C630" s="12"/>
@@ -14782,7 +15373,7 @@
       <c r="N630" s="14"/>
       <c r="O630" s="2"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="26"/>
       <c r="B631" s="4"/>
       <c r="C631" s="12"/>
@@ -14799,7 +15390,7 @@
       <c r="N631" s="14"/>
       <c r="O631" s="2"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="26"/>
       <c r="B632" s="4"/>
       <c r="C632" s="12"/>
@@ -14816,7 +15407,7 @@
       <c r="N632" s="14"/>
       <c r="O632" s="2"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="26"/>
       <c r="B633" s="4"/>
       <c r="C633" s="12"/>
@@ -14833,7 +15424,7 @@
       <c r="N633" s="14"/>
       <c r="O633" s="2"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="26"/>
       <c r="B634" s="4"/>
       <c r="C634" s="12"/>
@@ -14850,7 +15441,7 @@
       <c r="N634" s="14"/>
       <c r="O634" s="2"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="26"/>
       <c r="B635" s="4"/>
       <c r="C635" s="12"/>
@@ -14867,7 +15458,7 @@
       <c r="N635" s="14"/>
       <c r="O635" s="2"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="26"/>
       <c r="B636" s="4"/>
       <c r="C636" s="12"/>
@@ -14884,7 +15475,7 @@
       <c r="N636" s="14"/>
       <c r="O636" s="2"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="26"/>
       <c r="B637" s="4"/>
       <c r="C637" s="12"/>
@@ -14901,7 +15492,7 @@
       <c r="N637" s="14"/>
       <c r="O637" s="2"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="26"/>
       <c r="B638" s="4"/>
       <c r="C638" s="12"/>
@@ -14918,7 +15509,7 @@
       <c r="N638" s="14"/>
       <c r="O638" s="2"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="26"/>
       <c r="B639" s="4"/>
       <c r="C639" s="12"/>
@@ -14935,7 +15526,7 @@
       <c r="N639" s="14"/>
       <c r="O639" s="2"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="26"/>
       <c r="B640" s="4"/>
       <c r="C640" s="12"/>
@@ -14952,7 +15543,7 @@
       <c r="N640" s="14"/>
       <c r="O640" s="2"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="26"/>
       <c r="B641" s="4"/>
       <c r="C641" s="12"/>
@@ -14969,7 +15560,7 @@
       <c r="N641" s="14"/>
       <c r="O641" s="2"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="26"/>
       <c r="B642" s="4"/>
       <c r="C642" s="12"/>
@@ -14986,7 +15577,7 @@
       <c r="N642" s="14"/>
       <c r="O642" s="2"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="26"/>
       <c r="B643" s="4"/>
       <c r="C643" s="12"/>
@@ -15003,7 +15594,7 @@
       <c r="N643" s="14"/>
       <c r="O643" s="2"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="26"/>
       <c r="B644" s="4"/>
       <c r="C644" s="12"/>
@@ -15020,7 +15611,7 @@
       <c r="N644" s="14"/>
       <c r="O644" s="2"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="26"/>
       <c r="B645" s="4"/>
       <c r="C645" s="12"/>
@@ -15037,7 +15628,7 @@
       <c r="N645" s="14"/>
       <c r="O645" s="2"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="26"/>
       <c r="B646" s="4"/>
       <c r="C646" s="12"/>
@@ -15054,360 +15645,360 @@
       <c r="N646" s="14"/>
       <c r="O646" s="2"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -15415,25 +16006,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D696" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D696" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C698" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C698" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{05D7AF4C-3579-D141-95FA-363645C6C440}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="499">
   <si>
     <t>description</t>
   </si>
@@ -1550,6 +1550,18 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1569,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1735,8 +1747,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1908,8 +2122,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2229,6 +2749,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2236,7 +3320,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="84">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2361,52 +3445,148 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2731,9 +3911,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3599,7 +4779,7 @@
         <v>279</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>498</v>
       </c>
       <c r="V19" t="s">
         <v>92</v>
@@ -3616,7 +4796,7 @@
         <v>280</v>
       </c>
       <c r="J20" t="s">
-        <v>375</v>
+        <v>37</v>
       </c>
       <c r="V20" t="s">
         <v>93</v>
@@ -3633,7 +4813,7 @@
         <v>281</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="V21" t="s">
         <v>94</v>
@@ -3650,7 +4830,7 @@
         <v>282</v>
       </c>
       <c r="J22" t="s">
-        <v>434</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s">
         <v>95</v>
@@ -3667,7 +4847,7 @@
         <v>273</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>434</v>
       </c>
       <c r="V23" t="s">
         <v>96</v>
@@ -3684,7 +4864,7 @@
         <v>262</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s">
         <v>97</v>
@@ -3700,6 +4880,9 @@
       <c r="F25" t="s">
         <v>67</v>
       </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
       <c r="V25" t="s">
         <v>98</v>
       </c>
@@ -3734,7 +4917,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>399</v>
+        <v>495</v>
       </c>
       <c r="F28" t="s">
         <v>266</v>
@@ -3745,7 +4928,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>55</v>
+        <v>496</v>
       </c>
       <c r="F29" t="s">
         <v>267</v>
@@ -3756,7 +4939,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>56</v>
+        <v>399</v>
       </c>
       <c r="F30" t="s">
         <v>201</v>
@@ -3767,7 +4950,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
         <v>258</v>
@@ -3778,7 +4961,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
         <v>268</v>
@@ -3789,7 +4972,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
         <v>243</v>
@@ -3800,7 +4983,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
         <v>313</v>
@@ -3811,7 +4994,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
         <v>290</v>
@@ -3822,7 +5005,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
         <v>244</v>
@@ -3832,6 +5015,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
       <c r="F37" t="s">
         <v>291</v>
       </c>
@@ -3840,6 +5026,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
       <c r="F38" t="s">
         <v>250</v>
       </c>
@@ -4124,7 +5313,7 @@
         <v>327</v>
       </c>
       <c r="V73" t="s">
-        <v>128</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74">
@@ -4132,7 +5321,7 @@
         <v>263</v>
       </c>
       <c r="V74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75">
@@ -4140,7 +5329,7 @@
         <v>269</v>
       </c>
       <c r="V75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76">
@@ -4148,7 +5337,7 @@
         <v>274</v>
       </c>
       <c r="V76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77">
@@ -4156,7 +5345,7 @@
         <v>412</v>
       </c>
       <c r="V77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78">
@@ -4164,7 +5353,7 @@
         <v>315</v>
       </c>
       <c r="V78" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79">
@@ -4172,7 +5361,7 @@
         <v>253</v>
       </c>
       <c r="V79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80">
@@ -4180,7 +5369,7 @@
         <v>264</v>
       </c>
       <c r="V80" t="s">
-        <v>454</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81">
@@ -4188,7 +5377,7 @@
         <v>270</v>
       </c>
       <c r="V81" t="s">
-        <v>186</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82">
@@ -4196,7 +5385,7 @@
         <v>259</v>
       </c>
       <c r="V82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83">
@@ -4204,7 +5393,7 @@
         <v>254</v>
       </c>
       <c r="V83" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84">
@@ -4212,7 +5401,7 @@
         <v>271</v>
       </c>
       <c r="V84" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85">
@@ -4220,7 +5409,7 @@
         <v>255</v>
       </c>
       <c r="V85" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86">
@@ -4228,7 +5417,7 @@
         <v>256</v>
       </c>
       <c r="V86" t="s">
-        <v>428</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87">
@@ -4236,7 +5425,7 @@
         <v>288</v>
       </c>
       <c r="V87" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="88">
@@ -4244,7 +5433,7 @@
         <v>294</v>
       </c>
       <c r="V88" t="s">
-        <v>189</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89">
@@ -4252,7 +5441,7 @@
         <v>278</v>
       </c>
       <c r="V89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90">
@@ -4260,7 +5449,7 @@
         <v>323</v>
       </c>
       <c r="V90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91">
@@ -4268,7 +5457,7 @@
         <v>260</v>
       </c>
       <c r="V91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92">
@@ -4276,136 +5465,141 @@
         <v>261</v>
       </c>
       <c r="V92" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>135</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>432</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>148</v>
+        <v>432</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4418,7 +5612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" zoomScaleNormal="125" zoomScale="100">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="125">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -25,30 +25,31 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="513">
   <si>
     <t>description</t>
   </si>
@@ -1562,6 +1563,48 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1612,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1949,8 +1992,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2428,8 +2572,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3313,6 +3610,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3320,7 +3899,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3541,52 +4120,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3911,7 +4538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3960,48 +4587,51 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
+        <v>499</v>
+      </c>
+      <c r="N1" t="s">
         <v>181</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>222</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>379</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>395</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>396</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>340</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>380</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>397</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4043,48 +4673,51 @@
         <v>416</v>
       </c>
       <c r="M2" t="s">
+        <v>504</v>
+      </c>
+      <c r="N2" t="s">
         <v>400</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>413</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>236</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>202</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>381</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>402</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>403</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>364</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>390</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>82</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>156</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>161</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>168</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>415</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4111,7 +4744,7 @@
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="I3" t="s">
         <v>332</v>
@@ -4125,43 +4758,46 @@
       <c r="L3" t="s">
         <v>77</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>505</v>
+      </c>
+      <c r="O3" t="s">
         <v>414</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>223</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>203</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>382</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>404</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>365</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>391</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>83</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>157</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>162</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>347</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>169</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4184,6 +4820,9 @@
       <c r="G4" t="s">
         <v>451</v>
       </c>
+      <c r="H4" t="s">
+        <v>501</v>
+      </c>
       <c r="I4" t="s">
         <v>333</v>
       </c>
@@ -4196,43 +4835,46 @@
       <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>506</v>
+      </c>
+      <c r="O4" t="s">
         <v>20</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>224</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>204</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>383</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>405</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>341</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>392</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>337</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>158</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>163</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>169</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>407</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4264,40 +4906,40 @@
       <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>24</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>225</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>205</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>384</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>406</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>342</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>338</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>159</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>164</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>170</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>408</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4326,37 +4968,37 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>25</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>226</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>374</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>385</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>344</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>84</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>437</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>165</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>171</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>409</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4382,37 +5024,37 @@
       <c r="L7" t="s">
         <v>298</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>27</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>227</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>401</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>386</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>343</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>85</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>438</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>166</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>172</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>410</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4438,34 +5080,34 @@
       <c r="L8" t="s">
         <v>28</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>417</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>228</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>387</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>345</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>86</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>160</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>167</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>173</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>411</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4491,26 +5133,26 @@
       <c r="L9" t="s">
         <v>29</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>418</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>229</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>388</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>346</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>194</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>174</v>
       </c>
-      <c r="AA9" t="s">
-        <v>218</v>
+      <c r="AB9" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="10">
@@ -4532,23 +5174,23 @@
       <c r="L10" t="s">
         <v>30</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>419</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>230</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>389</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>240</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>175</v>
       </c>
-      <c r="AA10" t="s">
-        <v>219</v>
+      <c r="AB10" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="11">
@@ -4568,22 +5210,22 @@
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>435</v>
-      </c>
-      <c r="N11" t="s">
+        <v>502</v>
+      </c>
+      <c r="O11" t="s">
         <v>420</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>231</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>241</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>242</v>
       </c>
-      <c r="AA11" t="s">
-        <v>220</v>
+      <c r="AB11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12">
@@ -4603,24 +5245,27 @@
         <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" t="s">
+        <v>435</v>
+      </c>
+      <c r="O12" t="s">
         <v>421</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>232</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>87</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>176</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>499</v>
       </c>
       <c r="D13" t="s">
         <v>324</v>
@@ -4635,24 +5280,27 @@
         <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" t="s">
+        <v>503</v>
+      </c>
+      <c r="O13" t="s">
         <v>422</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>237</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>309</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>177</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
@@ -4667,24 +5315,24 @@
         <v>73</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" t="s">
         <v>423</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>233</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>88</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
@@ -4695,22 +5343,25 @@
       <c r="J15" t="s">
         <v>459</v>
       </c>
-      <c r="N15" t="s">
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" t="s">
         <v>424</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>234</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>89</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
         <v>368</v>
@@ -4721,19 +5372,22 @@
       <c r="J16" t="s">
         <v>74</v>
       </c>
-      <c r="O16" t="s">
+      <c r="L16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" t="s">
         <v>235</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>66</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>369</v>
@@ -4744,16 +5398,16 @@
       <c r="J17" t="s">
         <v>75</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>90</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="D18" t="s">
         <v>398</v>
@@ -4764,13 +5418,13 @@
       <c r="J18" t="s">
         <v>363</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D19" t="s">
         <v>51</v>
@@ -4781,13 +5435,13 @@
       <c r="J19" t="s">
         <v>498</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="D20" t="s">
         <v>52</v>
@@ -4798,13 +5452,13 @@
       <c r="J20" t="s">
         <v>37</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="D21" t="s">
         <v>239</v>
@@ -4815,13 +5469,13 @@
       <c r="J21" t="s">
         <v>375</v>
       </c>
-      <c r="V21" t="s">
-        <v>94</v>
+      <c r="W21" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
@@ -4832,13 +5486,13 @@
       <c r="J22" t="s">
         <v>76</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
         <v>304</v>
@@ -4849,13 +5503,13 @@
       <c r="J23" t="s">
         <v>434</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>54</v>
@@ -4866,13 +5520,13 @@
       <c r="J24" t="s">
         <v>38</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
         <v>449</v>
@@ -4883,13 +5537,13 @@
       <c r="J25" t="s">
         <v>39</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>397</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>208</v>
@@ -4897,13 +5551,13 @@
       <c r="F26" t="s">
         <v>265</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>397</v>
       </c>
       <c r="D27" t="s">
         <v>209</v>
@@ -4911,18 +5565,21 @@
       <c r="F27" t="s">
         <v>249</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>210</v>
+      </c>
       <c r="D28" t="s">
         <v>495</v>
       </c>
       <c r="F28" t="s">
         <v>266</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4933,7 +5590,7 @@
       <c r="F29" t="s">
         <v>267</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4944,7 +5601,7 @@
       <c r="F30" t="s">
         <v>201</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4955,7 +5612,7 @@
       <c r="F31" t="s">
         <v>258</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4966,7 +5623,7 @@
       <c r="F32" t="s">
         <v>268</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4977,7 +5634,7 @@
       <c r="F33" t="s">
         <v>243</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4988,7 +5645,7 @@
       <c r="F34" t="s">
         <v>313</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4999,7 +5656,7 @@
       <c r="F35" t="s">
         <v>290</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5010,7 +5667,7 @@
       <c r="F36" t="s">
         <v>244</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5021,7 +5678,7 @@
       <c r="F37" t="s">
         <v>291</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>425</v>
       </c>
     </row>
@@ -5032,7 +5689,7 @@
       <c r="F38" t="s">
         <v>250</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>376</v>
       </c>
     </row>
@@ -5040,7 +5697,7 @@
       <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5048,7 +5705,7 @@
       <c r="F40" t="s">
         <v>197</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5056,7 +5713,7 @@
       <c r="F41" t="s">
         <v>272</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5064,7 +5721,7 @@
       <c r="F42" t="s">
         <v>283</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5072,7 +5729,7 @@
       <c r="F43" t="s">
         <v>284</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5080,7 +5737,7 @@
       <c r="F44" t="s">
         <v>326</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5088,7 +5745,7 @@
       <c r="F45" t="s">
         <v>325</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5096,7 +5753,7 @@
       <c r="F46" t="s">
         <v>196</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5104,7 +5761,7 @@
       <c r="F47" t="s">
         <v>303</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5112,7 +5769,7 @@
       <c r="F48" t="s">
         <v>322</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5120,7 +5777,7 @@
       <c r="F49" t="s">
         <v>351</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5128,7 +5785,7 @@
       <c r="F50" t="s">
         <v>285</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5136,470 +5793,485 @@
       <c r="F51" t="s">
         <v>339</v>
       </c>
-      <c r="V51" t="s">
-        <v>492</v>
+      <c r="W51" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>314</v>
       </c>
-      <c r="V52" t="s">
-        <v>116</v>
+      <c r="W52" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>251</v>
       </c>
-      <c r="V53" t="s">
-        <v>329</v>
+      <c r="W53" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>275</v>
       </c>
-      <c r="V54" t="s">
-        <v>487</v>
+      <c r="W54" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>276</v>
       </c>
-      <c r="V55" t="s">
-        <v>117</v>
+      <c r="W55" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>277</v>
       </c>
-      <c r="V56" t="s">
-        <v>118</v>
+      <c r="W56" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>286</v>
       </c>
-      <c r="V57" t="s">
-        <v>119</v>
+      <c r="W57" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>295</v>
       </c>
-      <c r="V58" t="s">
-        <v>120</v>
+      <c r="W58" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>320</v>
       </c>
-      <c r="V59" t="s">
-        <v>121</v>
+      <c r="W59" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>292</v>
       </c>
-      <c r="V60" t="s">
-        <v>122</v>
+      <c r="W60" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>293</v>
       </c>
-      <c r="V61" t="s">
-        <v>123</v>
+      <c r="W61" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>352</v>
       </c>
-      <c r="V62" t="s">
-        <v>430</v>
+      <c r="W62" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>353</v>
       </c>
-      <c r="V63" t="s">
-        <v>199</v>
+      <c r="W63" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>328</v>
       </c>
-      <c r="V64" t="s">
-        <v>372</v>
+      <c r="W64" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>296</v>
       </c>
-      <c r="V65" t="s">
-        <v>436</v>
+      <c r="W65" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>252</v>
       </c>
-      <c r="V66" t="s">
-        <v>124</v>
+      <c r="W66" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>336</v>
       </c>
-      <c r="V67" t="s">
-        <v>125</v>
+      <c r="W67" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>297</v>
       </c>
-      <c r="V68" t="s">
-        <v>126</v>
+      <c r="W68" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>393</v>
       </c>
-      <c r="V69" t="s">
-        <v>127</v>
+      <c r="W69" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>287</v>
       </c>
-      <c r="V70" t="s">
-        <v>182</v>
+      <c r="W70" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>394</v>
       </c>
-      <c r="V71" t="s">
-        <v>183</v>
+      <c r="W71" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>245</v>
       </c>
-      <c r="V72" t="s">
-        <v>457</v>
+      <c r="W72" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>327</v>
       </c>
-      <c r="V73" t="s">
-        <v>497</v>
+      <c r="W73" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>263</v>
       </c>
-      <c r="V74" t="s">
-        <v>128</v>
+      <c r="W74" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>269</v>
       </c>
-      <c r="V75" t="s">
-        <v>129</v>
+      <c r="W75" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>274</v>
       </c>
-      <c r="V76" t="s">
-        <v>130</v>
+      <c r="W76" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>412</v>
       </c>
-      <c r="V77" t="s">
-        <v>131</v>
+      <c r="W77" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>315</v>
       </c>
-      <c r="V78" t="s">
-        <v>132</v>
+      <c r="W78" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>253</v>
       </c>
-      <c r="V79" t="s">
-        <v>184</v>
+      <c r="W79" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>264</v>
       </c>
-      <c r="V80" t="s">
-        <v>185</v>
+      <c r="W80" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>270</v>
       </c>
-      <c r="V81" t="s">
-        <v>454</v>
+      <c r="W81" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>259</v>
       </c>
-      <c r="V82" t="s">
-        <v>186</v>
+      <c r="W82" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>254</v>
       </c>
-      <c r="V83" t="s">
-        <v>187</v>
+      <c r="W83" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>271</v>
       </c>
-      <c r="V84" t="s">
-        <v>200</v>
+      <c r="W84" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>255</v>
       </c>
-      <c r="V85" t="s">
-        <v>133</v>
+      <c r="W85" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>256</v>
       </c>
-      <c r="V86" t="s">
-        <v>188</v>
+      <c r="W86" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>288</v>
       </c>
-      <c r="V87" t="s">
-        <v>428</v>
+      <c r="W87" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>294</v>
       </c>
-      <c r="V88" t="s">
-        <v>429</v>
+      <c r="W88" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>278</v>
       </c>
-      <c r="V89" t="s">
-        <v>189</v>
+      <c r="W89" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>323</v>
       </c>
-      <c r="V90" t="s">
-        <v>190</v>
+      <c r="W90" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>260</v>
       </c>
-      <c r="V91" t="s">
-        <v>191</v>
+      <c r="W91" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>261</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="W95" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -19,37 +19,38 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4044" uniqueCount="530">
   <si>
     <t>description</t>
   </si>
@@ -1605,6 +1606,57 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1664,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2093,8 +2145,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2725,8 +3080,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -3892,6 +4706,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3899,7 +5559,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="148">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4168,52 +5828,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="77" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="78" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="123" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="93" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4538,7 +6342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4560,78 +6364,81 @@
         <v>488</v>
       </c>
       <c r="D1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>330</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>316</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>499</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>181</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>222</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>379</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>395</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>396</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>340</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>380</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>45</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>397</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4646,79 +6453,82 @@
         <v>489</v>
       </c>
       <c r="D2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>65</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>450</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>494</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>298</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>367</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>416</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>504</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>400</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>413</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>202</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>381</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>402</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>403</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>364</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>390</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>82</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>161</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>168</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>415</v>
       </c>
-      <c r="AB2" t="s">
-        <v>211</v>
+      <c r="AC2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="3">
@@ -4732,1546 +6542,1595 @@
         <v>490</v>
       </c>
       <c r="D3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E3" t="s">
         <v>485</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>348</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>79</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>500</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>332</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>324</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>317</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>77</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>505</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>414</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>223</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>203</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>382</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>404</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>365</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>391</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>83</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>162</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>347</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>169</v>
       </c>
-      <c r="AB3" t="s">
-        <v>212</v>
+      <c r="AC3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>513</v>
       </c>
       <c r="B4" t="s">
         <v>357</v>
       </c>
       <c r="D4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>370</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>451</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>501</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>333</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>221</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>318</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>506</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>20</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>224</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>204</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>383</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>405</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>341</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>392</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>337</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>163</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>407</v>
       </c>
-      <c r="AB4" t="s">
-        <v>213</v>
+      <c r="AC4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>358</v>
       </c>
       <c r="D5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E5" t="s">
         <v>486</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>433</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>319</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>458</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>334</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>491</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>78</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>24</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>225</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>205</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>384</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>406</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>342</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>338</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>164</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>408</v>
       </c>
-      <c r="AB5" t="s">
-        <v>214</v>
+      <c r="AC5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>359</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>371</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>452</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>331</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>63</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>23</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>25</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>226</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>374</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>385</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>344</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>84</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>437</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>165</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>171</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>409</v>
       </c>
-      <c r="AB6" t="s">
-        <v>215</v>
+      <c r="AC6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>360</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>207</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>349</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>448</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>10</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>298</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>27</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>227</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>401</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>386</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>343</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>85</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>438</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>166</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>172</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>410</v>
       </c>
-      <c r="AB7" t="s">
-        <v>216</v>
+      <c r="AC7" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>361</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>301</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>350</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>311</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>71</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>28</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>417</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>228</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>387</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>345</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>86</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>160</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>167</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>411</v>
       </c>
-      <c r="AB8" t="s">
-        <v>217</v>
+      <c r="AC8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>362</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>289</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>312</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>32</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>29</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>418</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>229</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>388</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>346</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>194</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>174</v>
       </c>
-      <c r="AB9" t="s">
-        <v>511</v>
+      <c r="AC9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E10" t="s">
         <v>298</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>335</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>453</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>373</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>30</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>419</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>230</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>389</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>240</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>175</v>
       </c>
-      <c r="AB10" t="s">
-        <v>512</v>
+      <c r="AC10" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
         <v>238</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>257</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>305</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>11</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>502</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>420</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>231</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>241</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>242</v>
       </c>
-      <c r="AB11" t="s">
-        <v>218</v>
+      <c r="AC11" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" t="s">
         <v>302</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>246</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>306</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>435</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>421</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>232</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>87</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>176</v>
       </c>
-      <c r="AB12" t="s">
-        <v>219</v>
+      <c r="AC12" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
         <v>324</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>299</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>307</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>72</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>503</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>422</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>237</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>309</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>177</v>
       </c>
-      <c r="AB13" t="s">
-        <v>220</v>
+      <c r="AC13" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" t="s">
+        <v>499</v>
+      </c>
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>247</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>308</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>73</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>33</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>423</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>233</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>88</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>178</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>248</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>459</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>34</v>
       </c>
-      <c r="O15" t="s">
-        <v>424</v>
-      </c>
       <c r="P15" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q15" t="s">
         <v>234</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>89</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>179</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
         <v>368</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>300</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>74</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>36</v>
       </c>
       <c r="P16" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q16" t="s">
         <v>235</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>66</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>180</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" t="s">
         <v>369</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>80</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>75</v>
       </c>
-      <c r="W17" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="X17" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA17" t="s">
         <v>493</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>379</v>
-      </c>
-      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
         <v>398</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>81</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>363</v>
       </c>
-      <c r="W18" t="s">
-        <v>91</v>
+      <c r="X18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>395</v>
-      </c>
-      <c r="D19" t="s">
+        <v>379</v>
+      </c>
+      <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>279</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>498</v>
       </c>
-      <c r="W19" t="s">
-        <v>92</v>
+      <c r="X19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>396</v>
-      </c>
-      <c r="D20" t="s">
+        <v>395</v>
+      </c>
+      <c r="E20" t="s">
         <v>52</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>280</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>37</v>
       </c>
-      <c r="W20" t="s">
-        <v>93</v>
+      <c r="X20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>340</v>
-      </c>
-      <c r="D21" t="s">
+        <v>396</v>
+      </c>
+      <c r="E21" t="s">
         <v>239</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>281</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>375</v>
       </c>
-      <c r="W21" t="s">
-        <v>507</v>
+      <c r="X21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>380</v>
-      </c>
-      <c r="D22" t="s">
+        <v>340</v>
+      </c>
+      <c r="E22" t="s">
         <v>53</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>282</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>76</v>
       </c>
-      <c r="W22" t="s">
-        <v>95</v>
+      <c r="X22" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
+        <v>380</v>
+      </c>
+      <c r="E23" t="s">
         <v>304</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>273</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>434</v>
       </c>
-      <c r="W23" t="s">
-        <v>96</v>
+      <c r="X23" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
         <v>54</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>262</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>38</v>
       </c>
-      <c r="W24" t="s">
-        <v>97</v>
+      <c r="X24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
         <v>449</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>67</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>39</v>
       </c>
-      <c r="W25" t="s">
-        <v>98</v>
+      <c r="X25" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
         <v>208</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>265</v>
       </c>
-      <c r="W26" t="s">
-        <v>99</v>
+      <c r="X26" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>397</v>
-      </c>
-      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
         <v>209</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>249</v>
       </c>
-      <c r="W27" t="s">
-        <v>310</v>
+      <c r="X27" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>397</v>
+      </c>
+      <c r="E28" t="s">
+        <v>495</v>
+      </c>
+      <c r="G28" t="s">
+        <v>266</v>
+      </c>
+      <c r="X28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>210</v>
       </c>
-      <c r="D28" t="s">
-        <v>495</v>
-      </c>
-      <c r="F28" t="s">
-        <v>266</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="E29" t="s">
+        <v>496</v>
+      </c>
+      <c r="G29" t="s">
+        <v>267</v>
+      </c>
+      <c r="X29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" t="s">
-        <v>496</v>
-      </c>
-      <c r="F29" t="s">
-        <v>267</v>
-      </c>
-      <c r="W29" t="s">
+    <row r="30">
+      <c r="E30" t="s">
+        <v>399</v>
+      </c>
+      <c r="G30" t="s">
+        <v>201</v>
+      </c>
+      <c r="X30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" t="s">
-        <v>399</v>
-      </c>
-      <c r="F30" t="s">
-        <v>201</v>
-      </c>
-      <c r="W30" t="s">
+    <row r="31">
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>258</v>
+      </c>
+      <c r="X31" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31">
-      <c r="D31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>258</v>
-      </c>
-      <c r="W31" t="s">
+    <row r="32">
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s">
+        <v>268</v>
+      </c>
+      <c r="X32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" t="s">
-        <v>268</v>
-      </c>
-      <c r="W32" t="s">
+    <row r="33">
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" t="s">
+        <v>243</v>
+      </c>
+      <c r="X33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" t="s">
-        <v>243</v>
-      </c>
-      <c r="W33" t="s">
+    <row r="34">
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
+        <v>313</v>
+      </c>
+      <c r="X34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34">
-      <c r="D34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" t="s">
-        <v>313</v>
-      </c>
-      <c r="W34" t="s">
+    <row r="35">
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" t="s">
+        <v>290</v>
+      </c>
+      <c r="X35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" t="s">
-        <v>290</v>
-      </c>
-      <c r="W35" t="s">
+    <row r="36">
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
+        <v>244</v>
+      </c>
+      <c r="X36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" t="s">
-        <v>244</v>
-      </c>
-      <c r="W36" t="s">
+    <row r="37">
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
+        <v>291</v>
+      </c>
+      <c r="X37" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" t="s">
-        <v>291</v>
-      </c>
-      <c r="W37" t="s">
+    <row r="38">
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" t="s">
+        <v>250</v>
+      </c>
+      <c r="X38" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" t="s">
-        <v>250</v>
-      </c>
-      <c r="W38" t="s">
+    <row r="39">
+      <c r="G39" t="s">
+        <v>69</v>
+      </c>
+      <c r="X39" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" t="s">
-        <v>69</v>
-      </c>
-      <c r="W39" t="s">
+    <row r="40">
+      <c r="G40" t="s">
+        <v>197</v>
+      </c>
+      <c r="X40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40">
-      <c r="F40" t="s">
-        <v>197</v>
-      </c>
-      <c r="W40" t="s">
+    <row r="41">
+      <c r="G41" t="s">
+        <v>272</v>
+      </c>
+      <c r="X41" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" t="s">
-        <v>272</v>
-      </c>
-      <c r="W41" t="s">
+    <row r="42">
+      <c r="G42" t="s">
+        <v>283</v>
+      </c>
+      <c r="X42" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" t="s">
-        <v>283</v>
-      </c>
-      <c r="W42" t="s">
+    <row r="43">
+      <c r="G43" t="s">
+        <v>284</v>
+      </c>
+      <c r="X43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43">
-      <c r="F43" t="s">
-        <v>284</v>
-      </c>
-      <c r="W43" t="s">
+    <row r="44">
+      <c r="G44" t="s">
+        <v>326</v>
+      </c>
+      <c r="X44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44">
-      <c r="F44" t="s">
-        <v>326</v>
-      </c>
-      <c r="W44" t="s">
+    <row r="45">
+      <c r="G45" t="s">
+        <v>325</v>
+      </c>
+      <c r="X45" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45">
-      <c r="F45" t="s">
-        <v>325</v>
-      </c>
-      <c r="W45" t="s">
+    <row r="46">
+      <c r="G46" t="s">
+        <v>196</v>
+      </c>
+      <c r="X46" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="46">
-      <c r="F46" t="s">
-        <v>196</v>
-      </c>
-      <c r="W46" t="s">
+    <row r="47">
+      <c r="G47" t="s">
+        <v>303</v>
+      </c>
+      <c r="X47" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="s">
-        <v>303</v>
-      </c>
-      <c r="W47" t="s">
+    <row r="48">
+      <c r="G48" t="s">
+        <v>322</v>
+      </c>
+      <c r="X48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48">
-      <c r="F48" t="s">
-        <v>322</v>
-      </c>
-      <c r="W48" t="s">
+    <row r="49">
+      <c r="G49" t="s">
+        <v>351</v>
+      </c>
+      <c r="X49" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" t="s">
-        <v>351</v>
-      </c>
-      <c r="W49" t="s">
+    <row r="50">
+      <c r="G50" t="s">
+        <v>285</v>
+      </c>
+      <c r="X50" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50">
-      <c r="F50" t="s">
-        <v>285</v>
-      </c>
-      <c r="W50" t="s">
+    <row r="51">
+      <c r="G51" t="s">
+        <v>339</v>
+      </c>
+      <c r="X51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51">
-      <c r="F51" t="s">
-        <v>339</v>
-      </c>
-      <c r="W51" t="s">
+    <row r="52">
+      <c r="G52" t="s">
+        <v>314</v>
+      </c>
+      <c r="X52" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="52">
-      <c r="F52" t="s">
-        <v>314</v>
-      </c>
-      <c r="W52" t="s">
+    <row r="53">
+      <c r="G53" t="s">
+        <v>251</v>
+      </c>
+      <c r="X53" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="53">
-      <c r="F53" t="s">
-        <v>251</v>
-      </c>
-      <c r="W53" t="s">
+    <row r="54">
+      <c r="G54" t="s">
+        <v>275</v>
+      </c>
+      <c r="X54" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54">
-      <c r="F54" t="s">
-        <v>275</v>
-      </c>
-      <c r="W54" t="s">
+    <row r="55">
+      <c r="G55" t="s">
+        <v>276</v>
+      </c>
+      <c r="X55" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="55">
-      <c r="F55" t="s">
-        <v>276</v>
-      </c>
-      <c r="W55" t="s">
+    <row r="56">
+      <c r="G56" t="s">
+        <v>277</v>
+      </c>
+      <c r="X56" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="56">
-      <c r="F56" t="s">
-        <v>277</v>
-      </c>
-      <c r="W56" t="s">
+    <row r="57">
+      <c r="G57" t="s">
+        <v>286</v>
+      </c>
+      <c r="X57" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="57">
-      <c r="F57" t="s">
-        <v>286</v>
-      </c>
-      <c r="W57" t="s">
+    <row r="58">
+      <c r="G58" t="s">
+        <v>295</v>
+      </c>
+      <c r="X58" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="58">
-      <c r="F58" t="s">
-        <v>295</v>
-      </c>
-      <c r="W58" t="s">
+    <row r="59">
+      <c r="G59" t="s">
+        <v>320</v>
+      </c>
+      <c r="X59" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="59">
-      <c r="F59" t="s">
-        <v>320</v>
-      </c>
-      <c r="W59" t="s">
+    <row r="60">
+      <c r="G60" t="s">
+        <v>292</v>
+      </c>
+      <c r="X60" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60">
-      <c r="F60" t="s">
-        <v>292</v>
-      </c>
-      <c r="W60" t="s">
+    <row r="61">
+      <c r="G61" t="s">
+        <v>293</v>
+      </c>
+      <c r="X61" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="61">
-      <c r="F61" t="s">
-        <v>293</v>
-      </c>
-      <c r="W61" t="s">
+    <row r="62">
+      <c r="G62" t="s">
+        <v>352</v>
+      </c>
+      <c r="X62" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="62">
-      <c r="F62" t="s">
-        <v>352</v>
-      </c>
-      <c r="W62" t="s">
+    <row r="63">
+      <c r="G63" t="s">
+        <v>353</v>
+      </c>
+      <c r="X63" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63">
-      <c r="F63" t="s">
-        <v>353</v>
-      </c>
-      <c r="W63" t="s">
+    <row r="64">
+      <c r="G64" t="s">
+        <v>328</v>
+      </c>
+      <c r="X64" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="64">
-      <c r="F64" t="s">
-        <v>328</v>
-      </c>
-      <c r="W64" t="s">
+    <row r="65">
+      <c r="G65" t="s">
+        <v>296</v>
+      </c>
+      <c r="X65" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="65">
-      <c r="F65" t="s">
-        <v>296</v>
-      </c>
-      <c r="W65" t="s">
+    <row r="66">
+      <c r="G66" t="s">
+        <v>252</v>
+      </c>
+      <c r="X66" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="66">
-      <c r="F66" t="s">
-        <v>252</v>
-      </c>
-      <c r="W66" t="s">
+    <row r="67">
+      <c r="G67" t="s">
+        <v>336</v>
+      </c>
+      <c r="X67" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="67">
-      <c r="F67" t="s">
-        <v>336</v>
-      </c>
-      <c r="W67" t="s">
+    <row r="68">
+      <c r="G68" t="s">
+        <v>297</v>
+      </c>
+      <c r="X68" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="68">
-      <c r="F68" t="s">
-        <v>297</v>
-      </c>
-      <c r="W68" t="s">
+    <row r="69">
+      <c r="G69" t="s">
+        <v>393</v>
+      </c>
+      <c r="X69" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69">
-      <c r="F69" t="s">
-        <v>393</v>
-      </c>
-      <c r="W69" t="s">
+    <row r="70">
+      <c r="G70" t="s">
+        <v>287</v>
+      </c>
+      <c r="X70" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70">
-      <c r="F70" t="s">
-        <v>287</v>
-      </c>
-      <c r="W70" t="s">
+    <row r="71">
+      <c r="G71" t="s">
+        <v>394</v>
+      </c>
+      <c r="X71" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="71">
-      <c r="F71" t="s">
-        <v>394</v>
-      </c>
-      <c r="W71" t="s">
+    <row r="72">
+      <c r="G72" t="s">
+        <v>245</v>
+      </c>
+      <c r="X72" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72">
-      <c r="F72" t="s">
-        <v>245</v>
-      </c>
-      <c r="W72" t="s">
+    <row r="73">
+      <c r="G73" t="s">
+        <v>327</v>
+      </c>
+      <c r="X73" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="73">
-      <c r="F73" t="s">
-        <v>327</v>
-      </c>
-      <c r="W73" t="s">
+    <row r="74">
+      <c r="G74" t="s">
+        <v>263</v>
+      </c>
+      <c r="X74" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="74">
-      <c r="F74" t="s">
-        <v>263</v>
-      </c>
-      <c r="W74" t="s">
+    <row r="75">
+      <c r="G75" t="s">
+        <v>269</v>
+      </c>
+      <c r="X75" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="75">
-      <c r="F75" t="s">
-        <v>269</v>
-      </c>
-      <c r="W75" t="s">
+    <row r="76">
+      <c r="G76" t="s">
+        <v>274</v>
+      </c>
+      <c r="X76" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="76">
-      <c r="F76" t="s">
-        <v>274</v>
-      </c>
-      <c r="W76" t="s">
+    <row r="77">
+      <c r="G77" t="s">
+        <v>412</v>
+      </c>
+      <c r="X77" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="77">
-      <c r="F77" t="s">
-        <v>412</v>
-      </c>
-      <c r="W77" t="s">
+    <row r="78">
+      <c r="G78" t="s">
+        <v>315</v>
+      </c>
+      <c r="X78" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="78">
-      <c r="F78" t="s">
-        <v>315</v>
-      </c>
-      <c r="W78" t="s">
+    <row r="79">
+      <c r="G79" t="s">
+        <v>253</v>
+      </c>
+      <c r="X79" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79">
-      <c r="F79" t="s">
-        <v>253</v>
-      </c>
-      <c r="W79" t="s">
+    <row r="80">
+      <c r="G80" t="s">
+        <v>264</v>
+      </c>
+      <c r="X80" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81" t="s">
+        <v>270</v>
+      </c>
+      <c r="X81" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="80">
-      <c r="F80" t="s">
-        <v>264</v>
-      </c>
-      <c r="W80" t="s">
+    <row r="82">
+      <c r="G82" t="s">
+        <v>259</v>
+      </c>
+      <c r="X82" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="81">
-      <c r="F81" t="s">
-        <v>270</v>
-      </c>
-      <c r="W81" t="s">
+    <row r="83">
+      <c r="G83" t="s">
+        <v>254</v>
+      </c>
+      <c r="X83" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="82">
-      <c r="F82" t="s">
-        <v>259</v>
-      </c>
-      <c r="W82" t="s">
+    <row r="84">
+      <c r="G84" t="s">
+        <v>271</v>
+      </c>
+      <c r="X84" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="83">
-      <c r="F83" t="s">
-        <v>254</v>
-      </c>
-      <c r="W83" t="s">
+    <row r="85">
+      <c r="G85" t="s">
+        <v>255</v>
+      </c>
+      <c r="X85" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="84">
-      <c r="F84" t="s">
-        <v>271</v>
-      </c>
-      <c r="W84" t="s">
+    <row r="86">
+      <c r="G86" t="s">
+        <v>256</v>
+      </c>
+      <c r="X86" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="85">
-      <c r="F85" t="s">
-        <v>255</v>
-      </c>
-      <c r="W85" t="s">
+    <row r="87">
+      <c r="G87" t="s">
+        <v>288</v>
+      </c>
+      <c r="X87" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="86">
-      <c r="F86" t="s">
-        <v>256</v>
-      </c>
-      <c r="W86" t="s">
+    <row r="88">
+      <c r="G88" t="s">
+        <v>294</v>
+      </c>
+      <c r="X88" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="87">
-      <c r="F87" t="s">
-        <v>288</v>
-      </c>
-      <c r="W87" t="s">
+    <row r="89">
+      <c r="G89" t="s">
+        <v>278</v>
+      </c>
+      <c r="X89" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="88">
-      <c r="F88" t="s">
-        <v>294</v>
-      </c>
-      <c r="W88" t="s">
+    <row r="90">
+      <c r="G90" t="s">
+        <v>323</v>
+      </c>
+      <c r="X90" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="89">
-      <c r="F89" t="s">
-        <v>278</v>
-      </c>
-      <c r="W89" t="s">
+    <row r="91">
+      <c r="G91" t="s">
+        <v>260</v>
+      </c>
+      <c r="X91" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="90">
-      <c r="F90" t="s">
-        <v>323</v>
-      </c>
-      <c r="W90" t="s">
+    <row r="92">
+      <c r="G92" t="s">
+        <v>261</v>
+      </c>
+      <c r="X92" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="91">
-      <c r="F91" t="s">
-        <v>260</v>
-      </c>
-      <c r="W91" t="s">
+    <row r="93">
+      <c r="X93" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="92">
-      <c r="F92" t="s">
-        <v>261</v>
-      </c>
-      <c r="W92" t="s">
+    <row r="94">
+      <c r="X94" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="93">
-      <c r="W93" t="s">
+    <row r="95">
+      <c r="X95" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="94">
-      <c r="W94" t="s">
+    <row r="96">
+      <c r="X96" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="95">
-      <c r="W95" t="s">
+    <row r="97">
+      <c r="X97" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="96">
-      <c r="W96" t="s">
+    <row r="98">
+      <c r="X98" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="97">
-      <c r="W97" t="s">
+    <row r="99">
+      <c r="X99" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="98">
-      <c r="W98" t="s">
+    <row r="100">
+      <c r="X100" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="99">
-      <c r="W99" t="s">
+    <row r="101">
+      <c r="X101" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="100">
-      <c r="W100" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="101">
-      <c r="W101" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="102">
-      <c r="W102" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="103">
-      <c r="W103" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="104">
-      <c r="W104" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="105">
-      <c r="W105" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="106">
-      <c r="W106" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="107">
-      <c r="W107" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="108">
-      <c r="W108" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="109">
-      <c r="W109" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="110">
-      <c r="W110" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="111">
-      <c r="W111" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="112">
-      <c r="W112" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113">
-      <c r="W113" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="114">
-      <c r="W114" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="115">
-      <c r="W115" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="116">
-      <c r="W116" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="117">
-      <c r="W117" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118">
-      <c r="W118" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="119">
-      <c r="W119" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="120">
-      <c r="W120" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="121">
-      <c r="W121" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="122">
-      <c r="W122" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -20,14 +20,14 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4044" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4562" uniqueCount="537">
   <si>
     <t>description</t>
   </si>
@@ -1657,6 +1657,27 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1685,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2448,8 +2469,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3539,8 +3661,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5552,6 +5827,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5559,7 +6116,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="164">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5972,52 +6529,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="177" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6342,7 +6947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6772,6 +7377,9 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
+      <c r="F6" t="s">
+        <v>530</v>
+      </c>
       <c r="G6" t="s">
         <v>371</v>
       </c>
@@ -6894,7 +7502,7 @@
         <v>311</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>533</v>
       </c>
       <c r="M8" t="s">
         <v>28</v>
@@ -6947,7 +7555,7 @@
         <v>312</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
         <v>29</v>
@@ -6988,7 +7596,7 @@
         <v>453</v>
       </c>
       <c r="K10" t="s">
-        <v>373</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
         <v>30</v>
@@ -7026,7 +7634,7 @@
         <v>305</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>534</v>
       </c>
       <c r="M11" t="s">
         <v>502</v>
@@ -7061,7 +7669,7 @@
         <v>306</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>373</v>
       </c>
       <c r="M12" t="s">
         <v>435</v>
@@ -7096,7 +7704,7 @@
         <v>307</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="M13" t="s">
         <v>503</v>
@@ -7131,7 +7739,7 @@
         <v>308</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
         <v>33</v>
@@ -7163,7 +7771,7 @@
         <v>248</v>
       </c>
       <c r="K15" t="s">
-        <v>459</v>
+        <v>535</v>
       </c>
       <c r="M15" t="s">
         <v>34</v>
@@ -7195,7 +7803,7 @@
         <v>300</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s">
         <v>36</v>
@@ -7227,7 +7835,7 @@
         <v>80</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s">
         <v>529</v>
@@ -7250,7 +7858,7 @@
         <v>81</v>
       </c>
       <c r="K18" t="s">
-        <v>363</v>
+        <v>459</v>
       </c>
       <c r="X18" t="s">
         <v>90</v>
@@ -7270,7 +7878,7 @@
         <v>279</v>
       </c>
       <c r="K19" t="s">
-        <v>498</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s">
         <v>91</v>
@@ -7290,7 +7898,7 @@
         <v>280</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s">
         <v>92</v>
@@ -7310,7 +7918,7 @@
         <v>281</v>
       </c>
       <c r="K21" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="X21" t="s">
         <v>93</v>
@@ -7330,7 +7938,7 @@
         <v>282</v>
       </c>
       <c r="K22" t="s">
-        <v>76</v>
+        <v>498</v>
       </c>
       <c r="X22" t="s">
         <v>507</v>
@@ -7347,7 +7955,7 @@
         <v>273</v>
       </c>
       <c r="K23" t="s">
-        <v>434</v>
+        <v>37</v>
       </c>
       <c r="X23" t="s">
         <v>95</v>
@@ -7364,7 +7972,7 @@
         <v>262</v>
       </c>
       <c r="K24" t="s">
-        <v>38</v>
+        <v>375</v>
       </c>
       <c r="X24" t="s">
         <v>96</v>
@@ -7381,7 +7989,7 @@
         <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s">
         <v>97</v>
@@ -7397,6 +8005,9 @@
       <c r="G26" t="s">
         <v>265</v>
       </c>
+      <c r="K26" t="s">
+        <v>434</v>
+      </c>
       <c r="X26" t="s">
         <v>98</v>
       </c>
@@ -7411,6 +8022,9 @@
       <c r="G27" t="s">
         <v>249</v>
       </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
       <c r="X27" t="s">
         <v>99</v>
       </c>
@@ -7425,6 +8039,9 @@
       <c r="G28" t="s">
         <v>266</v>
       </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
       <c r="X28" t="s">
         <v>310</v>
       </c>
@@ -7481,7 +8098,7 @@
         <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>243</v>
+        <v>531</v>
       </c>
       <c r="X33" t="s">
         <v>104</v>
@@ -7492,7 +8109,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="X34" t="s">
         <v>105</v>
@@ -7503,7 +8120,7 @@
         <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="X35" t="s">
         <v>195</v>
@@ -7514,7 +8131,7 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="X36" t="s">
         <v>106</v>
@@ -7525,7 +8142,7 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="X37" t="s">
         <v>321</v>
@@ -7536,7 +8153,7 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="X38" t="s">
         <v>425</v>
@@ -7544,7 +8161,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="X39" t="s">
         <v>376</v>
@@ -7552,7 +8169,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="X40" t="s">
         <v>107</v>
@@ -7560,7 +8177,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="X41" t="s">
         <v>108</v>
@@ -7568,7 +8185,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="X42" t="s">
         <v>109</v>
@@ -7576,7 +8193,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X43" t="s">
         <v>110</v>
@@ -7584,7 +8201,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="X44" t="s">
         <v>111</v>
@@ -7592,7 +8209,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X45" t="s">
         <v>112</v>
@@ -7600,7 +8217,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c r="X46" t="s">
         <v>431</v>
@@ -7608,7 +8225,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>303</v>
+        <v>196</v>
       </c>
       <c r="X47" t="s">
         <v>198</v>
@@ -7616,7 +8233,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="X48" t="s">
         <v>68</v>
@@ -7624,7 +8241,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="X49" t="s">
         <v>113</v>
@@ -7632,7 +8249,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="X50" t="s">
         <v>114</v>
@@ -7640,7 +8257,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="X51" t="s">
         <v>115</v>
@@ -7648,7 +8265,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="X52" t="s">
         <v>508</v>
@@ -7656,7 +8273,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="X53" t="s">
         <v>492</v>
@@ -7664,7 +8281,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="X54" t="s">
         <v>116</v>
@@ -7672,7 +8289,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X55" t="s">
         <v>329</v>
@@ -7680,7 +8297,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X56" t="s">
         <v>487</v>
@@ -7688,7 +8305,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="X57" t="s">
         <v>117</v>
@@ -7696,7 +8313,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="X58" t="s">
         <v>118</v>
@@ -7704,7 +8321,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="X59" t="s">
         <v>119</v>
@@ -7712,7 +8329,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="X60" t="s">
         <v>120</v>
@@ -7720,7 +8337,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X61" t="s">
         <v>121</v>
@@ -7728,7 +8345,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>352</v>
+        <v>293</v>
       </c>
       <c r="X62" t="s">
         <v>122</v>
@@ -7736,7 +8353,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="X63" t="s">
         <v>123</v>
@@ -7744,7 +8361,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="X64" t="s">
         <v>430</v>
@@ -7752,7 +8369,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="X65" t="s">
         <v>509</v>
@@ -7760,7 +8377,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="X66" t="s">
         <v>199</v>
@@ -7768,7 +8385,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>336</v>
+        <v>252</v>
       </c>
       <c r="X67" t="s">
         <v>372</v>
@@ -7776,7 +8393,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="X68" t="s">
         <v>436</v>
@@ -7784,7 +8401,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
       <c r="X69" t="s">
         <v>124</v>
@@ -7792,7 +8409,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>287</v>
+        <v>393</v>
       </c>
       <c r="X70" t="s">
         <v>125</v>
@@ -7800,7 +8417,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
       <c r="X71" t="s">
         <v>126</v>
@@ -7808,7 +8425,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>245</v>
+        <v>394</v>
       </c>
       <c r="X72" t="s">
         <v>127</v>
@@ -7816,7 +8433,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>327</v>
+        <v>245</v>
       </c>
       <c r="X73" t="s">
         <v>182</v>
@@ -7824,7 +8441,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>263</v>
+        <v>532</v>
       </c>
       <c r="X74" t="s">
         <v>183</v>
@@ -7832,7 +8449,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="X75" t="s">
         <v>457</v>
@@ -7840,7 +8457,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="X76" t="s">
         <v>497</v>
@@ -7848,7 +8465,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>412</v>
+        <v>269</v>
       </c>
       <c r="X77" t="s">
         <v>128</v>
@@ -7856,7 +8473,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="X78" t="s">
         <v>129</v>
@@ -7864,7 +8481,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="X79" t="s">
         <v>130</v>
@@ -7872,7 +8489,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="X80" t="s">
         <v>523</v>
@@ -7880,7 +8497,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="X81" t="s">
         <v>131</v>
@@ -7888,7 +8505,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="X82" t="s">
         <v>132</v>
@@ -7896,7 +8513,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="X83" t="s">
         <v>184</v>
@@ -7904,7 +8521,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="X84" t="s">
         <v>510</v>
@@ -7912,7 +8529,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X85" t="s">
         <v>185</v>
@@ -7920,7 +8537,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="X86" t="s">
         <v>454</v>
@@ -7928,7 +8545,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="X87" t="s">
         <v>186</v>
@@ -7936,7 +8553,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="X88" t="s">
         <v>187</v>
@@ -7944,7 +8561,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="X89" t="s">
         <v>200</v>
@@ -7952,7 +8569,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="X90" t="s">
         <v>133</v>
@@ -7960,7 +8577,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="X91" t="s">
         <v>188</v>
@@ -7968,18 +8585,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="X92" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>260</v>
+      </c>
       <c r="X93" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>261</v>
+      </c>
       <c r="X94" t="s">
         <v>189</v>
       </c>
@@ -8011,126 +8634,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>134</v>
+        <v>536</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>135</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>432</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>148</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4562" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5602" uniqueCount="539">
   <si>
     <t>description</t>
   </si>
@@ -1678,6 +1678,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1691,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="139" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2570,8 +2576,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="280">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3814,8 +4022,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6109,6 +6657,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6116,7 +7228,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="196">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6577,52 +7689,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="204" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="141" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="231" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="145" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="252" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="255" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="261" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="264" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="267" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="270" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="273" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="273" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="279" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6947,7 +8155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8639,126 +9847,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>134</v>
+        <v>537</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>135</v>
+        <v>538</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>136</v>
+        <v>366</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>432</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>149</v>
+        <v>432</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -30,27 +30,28 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5602" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6658" uniqueCount="546">
   <si>
     <t>description</t>
   </si>
@@ -1684,6 +1685,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1713,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="203" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2778,8 +2800,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="280">
+  <fills count="340">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4362,8 +4586,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7221,6 +7785,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7228,7 +8356,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="228">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7785,52 +8913,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="252" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="252" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="255" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="255" fontId="157" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="258" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="261" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="261" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="264" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="264" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="267" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="267" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="270" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="270" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="273" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="273" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="273" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="273" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="279" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="282" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="285" fontId="173" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="288" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="291" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="177" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="297" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="300" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="303" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="303" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="306" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="312" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="315" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="318" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="321" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="327" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="330" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="333" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="333" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8155,7 +9379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8207,51 +9431,54 @@
         <v>18</v>
       </c>
       <c r="N1" t="s">
+        <v>539</v>
+      </c>
+      <c r="O1" t="s">
         <v>499</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>181</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>222</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>379</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>395</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>396</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>340</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>380</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>397</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -8296,51 +9523,54 @@
         <v>416</v>
       </c>
       <c r="N2" t="s">
+        <v>540</v>
+      </c>
+      <c r="O2" t="s">
         <v>504</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>400</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>413</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>236</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>202</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>381</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>402</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>403</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>364</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>390</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>82</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>156</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>161</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>168</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>415</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8385,45 +9615,48 @@
         <v>77</v>
       </c>
       <c r="N3" t="s">
+        <v>541</v>
+      </c>
+      <c r="O3" t="s">
         <v>505</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>414</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>223</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>203</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>382</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>404</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>365</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>391</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>157</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>162</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>347</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>169</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>211</v>
       </c>
     </row>
@@ -8465,45 +9698,48 @@
         <v>19</v>
       </c>
       <c r="N4" t="s">
+        <v>542</v>
+      </c>
+      <c r="O4" t="s">
         <v>506</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>224</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>204</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>383</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>405</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>341</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>392</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>337</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>158</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>163</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>169</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>407</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>212</v>
       </c>
     </row>
@@ -8538,40 +9774,43 @@
       <c r="M5" t="s">
         <v>78</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q5" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>225</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>205</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>384</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>406</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>342</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>338</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>159</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>164</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>170</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>408</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>213</v>
       </c>
     </row>
@@ -8603,37 +9842,40 @@
       <c r="M6" t="s">
         <v>23</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q6" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>226</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>374</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>385</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>344</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>84</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>437</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>165</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>171</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>409</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -8659,37 +9901,40 @@
       <c r="M7" t="s">
         <v>298</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q7" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>227</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>401</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>386</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>343</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>85</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>438</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>166</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>172</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>410</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>215</v>
       </c>
     </row>
@@ -8715,34 +9960,34 @@
       <c r="M8" t="s">
         <v>28</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>417</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>228</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>387</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>345</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>86</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>160</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>167</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>173</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>411</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -8768,25 +10013,25 @@
       <c r="M9" t="s">
         <v>29</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>418</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>229</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>388</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>346</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>194</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>174</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8809,22 +10054,22 @@
       <c r="M10" t="s">
         <v>30</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>419</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>230</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>389</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>240</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>175</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>511</v>
       </c>
     </row>
@@ -8847,19 +10092,19 @@
       <c r="M11" t="s">
         <v>502</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>420</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>231</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>241</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>242</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>519</v>
       </c>
     </row>
@@ -8882,19 +10127,19 @@
       <c r="M12" t="s">
         <v>435</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>421</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>232</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>87</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>176</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>520</v>
       </c>
     </row>
@@ -8917,25 +10162,25 @@
       <c r="M13" t="s">
         <v>503</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>422</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>237</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>309</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>177</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>499</v>
+        <v>539</v>
       </c>
       <c r="E14" t="s">
         <v>31</v>
@@ -8952,25 +10197,25 @@
       <c r="M14" t="s">
         <v>33</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>423</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>233</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>88</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>178</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>499</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -8984,25 +10229,25 @@
       <c r="M15" t="s">
         <v>34</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>527</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>234</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>89</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>179</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="E16" t="s">
         <v>368</v>
@@ -9016,25 +10261,25 @@
       <c r="M16" t="s">
         <v>36</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>528</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>235</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>66</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>180</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
         <v>369</v>
@@ -9045,19 +10290,19 @@
       <c r="K17" t="s">
         <v>73</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>529</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>493</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="E18" t="s">
         <v>398</v>
@@ -9068,16 +10313,16 @@
       <c r="K18" t="s">
         <v>459</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>90</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -9088,16 +10333,16 @@
       <c r="K19" t="s">
         <v>74</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>91</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
@@ -9108,16 +10353,16 @@
       <c r="K20" t="s">
         <v>75</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>92</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E21" t="s">
         <v>239</v>
@@ -9128,16 +10373,16 @@
       <c r="K21" t="s">
         <v>363</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>93</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="E22" t="s">
         <v>53</v>
@@ -9148,13 +10393,13 @@
       <c r="K22" t="s">
         <v>498</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="E23" t="s">
         <v>304</v>
@@ -9165,13 +10410,13 @@
       <c r="K23" t="s">
         <v>37</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="E24" t="s">
         <v>54</v>
@@ -9182,13 +10427,13 @@
       <c r="K24" t="s">
         <v>375</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>449</v>
@@ -9199,13 +10444,13 @@
       <c r="K25" t="s">
         <v>76</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
         <v>208</v>
@@ -9216,13 +10461,13 @@
       <c r="K26" t="s">
         <v>434</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
         <v>209</v>
@@ -9233,13 +10478,13 @@
       <c r="K27" t="s">
         <v>38</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>397</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
         <v>495</v>
@@ -9250,13 +10495,13 @@
       <c r="K28" t="s">
         <v>39</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>397</v>
       </c>
       <c r="E29" t="s">
         <v>496</v>
@@ -9264,18 +10509,21 @@
       <c r="G29" t="s">
         <v>267</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>210</v>
+      </c>
       <c r="E30" t="s">
         <v>399</v>
       </c>
       <c r="G30" t="s">
         <v>201</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9286,7 +10534,7 @@
       <c r="G31" t="s">
         <v>258</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>102</v>
       </c>
     </row>
@@ -9297,7 +10545,7 @@
       <c r="G32" t="s">
         <v>268</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>103</v>
       </c>
     </row>
@@ -9308,7 +10556,7 @@
       <c r="G33" t="s">
         <v>531</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9319,7 +10567,7 @@
       <c r="G34" t="s">
         <v>243</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>105</v>
       </c>
     </row>
@@ -9330,7 +10578,7 @@
       <c r="G35" t="s">
         <v>313</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>195</v>
       </c>
     </row>
@@ -9341,7 +10589,7 @@
       <c r="G36" t="s">
         <v>290</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9352,7 +10600,7 @@
       <c r="G37" t="s">
         <v>244</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>321</v>
       </c>
     </row>
@@ -9363,7 +10611,7 @@
       <c r="G38" t="s">
         <v>291</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>425</v>
       </c>
     </row>
@@ -9371,7 +10619,7 @@
       <c r="G39" t="s">
         <v>250</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>376</v>
       </c>
     </row>
@@ -9379,7 +10627,7 @@
       <c r="G40" t="s">
         <v>69</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9387,7 +10635,7 @@
       <c r="G41" t="s">
         <v>197</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>108</v>
       </c>
     </row>
@@ -9395,7 +10643,7 @@
       <c r="G42" t="s">
         <v>272</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>109</v>
       </c>
     </row>
@@ -9403,7 +10651,7 @@
       <c r="G43" t="s">
         <v>283</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>110</v>
       </c>
     </row>
@@ -9411,7 +10659,7 @@
       <c r="G44" t="s">
         <v>284</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>111</v>
       </c>
     </row>
@@ -9419,7 +10667,7 @@
       <c r="G45" t="s">
         <v>326</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>112</v>
       </c>
     </row>
@@ -9427,7 +10675,7 @@
       <c r="G46" t="s">
         <v>325</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>431</v>
       </c>
     </row>
@@ -9435,7 +10683,7 @@
       <c r="G47" t="s">
         <v>196</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>198</v>
       </c>
     </row>
@@ -9443,7 +10691,7 @@
       <c r="G48" t="s">
         <v>303</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>68</v>
       </c>
     </row>
@@ -9451,7 +10699,7 @@
       <c r="G49" t="s">
         <v>322</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>113</v>
       </c>
     </row>
@@ -9459,7 +10707,7 @@
       <c r="G50" t="s">
         <v>351</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>114</v>
       </c>
     </row>
@@ -9467,7 +10715,7 @@
       <c r="G51" t="s">
         <v>285</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>115</v>
       </c>
     </row>
@@ -9475,7 +10723,7 @@
       <c r="G52" t="s">
         <v>339</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>508</v>
       </c>
     </row>
@@ -9483,7 +10731,7 @@
       <c r="G53" t="s">
         <v>314</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>492</v>
       </c>
     </row>
@@ -9491,7 +10739,7 @@
       <c r="G54" t="s">
         <v>251</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>116</v>
       </c>
     </row>
@@ -9499,7 +10747,7 @@
       <c r="G55" t="s">
         <v>275</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>329</v>
       </c>
     </row>
@@ -9507,7 +10755,7 @@
       <c r="G56" t="s">
         <v>276</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>487</v>
       </c>
     </row>
@@ -9515,7 +10763,7 @@
       <c r="G57" t="s">
         <v>277</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>117</v>
       </c>
     </row>
@@ -9523,7 +10771,7 @@
       <c r="G58" t="s">
         <v>286</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>118</v>
       </c>
     </row>
@@ -9531,7 +10779,7 @@
       <c r="G59" t="s">
         <v>295</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>119</v>
       </c>
     </row>
@@ -9539,7 +10787,7 @@
       <c r="G60" t="s">
         <v>320</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9547,7 +10795,7 @@
       <c r="G61" t="s">
         <v>292</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>121</v>
       </c>
     </row>
@@ -9555,7 +10803,7 @@
       <c r="G62" t="s">
         <v>293</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9563,7 +10811,7 @@
       <c r="G63" t="s">
         <v>352</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>123</v>
       </c>
     </row>
@@ -9571,7 +10819,7 @@
       <c r="G64" t="s">
         <v>353</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>430</v>
       </c>
     </row>
@@ -9579,7 +10827,7 @@
       <c r="G65" t="s">
         <v>328</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>509</v>
       </c>
     </row>
@@ -9587,7 +10835,7 @@
       <c r="G66" t="s">
         <v>296</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>199</v>
       </c>
     </row>
@@ -9595,7 +10843,7 @@
       <c r="G67" t="s">
         <v>252</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>372</v>
       </c>
     </row>
@@ -9603,7 +10851,7 @@
       <c r="G68" t="s">
         <v>336</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>436</v>
       </c>
     </row>
@@ -9611,7 +10859,7 @@
       <c r="G69" t="s">
         <v>297</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>124</v>
       </c>
     </row>
@@ -9619,7 +10867,7 @@
       <c r="G70" t="s">
         <v>393</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9627,7 +10875,7 @@
       <c r="G71" t="s">
         <v>287</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>126</v>
       </c>
     </row>
@@ -9635,7 +10883,7 @@
       <c r="G72" t="s">
         <v>394</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>127</v>
       </c>
     </row>
@@ -9643,7 +10891,7 @@
       <c r="G73" t="s">
         <v>245</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>182</v>
       </c>
     </row>
@@ -9651,7 +10899,7 @@
       <c r="G74" t="s">
         <v>532</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>183</v>
       </c>
     </row>
@@ -9659,7 +10907,7 @@
       <c r="G75" t="s">
         <v>327</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>457</v>
       </c>
     </row>
@@ -9667,7 +10915,7 @@
       <c r="G76" t="s">
         <v>263</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>497</v>
       </c>
     </row>
@@ -9675,7 +10923,7 @@
       <c r="G77" t="s">
         <v>269</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>128</v>
       </c>
     </row>
@@ -9683,7 +10931,7 @@
       <c r="G78" t="s">
         <v>274</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>129</v>
       </c>
     </row>
@@ -9691,7 +10939,7 @@
       <c r="G79" t="s">
         <v>412</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9699,7 +10947,7 @@
       <c r="G80" t="s">
         <v>315</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>523</v>
       </c>
     </row>
@@ -9707,7 +10955,7 @@
       <c r="G81" t="s">
         <v>253</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>131</v>
       </c>
     </row>
@@ -9715,7 +10963,7 @@
       <c r="G82" t="s">
         <v>264</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>132</v>
       </c>
     </row>
@@ -9723,7 +10971,7 @@
       <c r="G83" t="s">
         <v>270</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9731,7 +10979,7 @@
       <c r="G84" t="s">
         <v>259</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>510</v>
       </c>
     </row>
@@ -9739,7 +10987,7 @@
       <c r="G85" t="s">
         <v>254</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>185</v>
       </c>
     </row>
@@ -9747,7 +10995,7 @@
       <c r="G86" t="s">
         <v>271</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>454</v>
       </c>
     </row>
@@ -9755,7 +11003,7 @@
       <c r="G87" t="s">
         <v>255</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>186</v>
       </c>
     </row>
@@ -9763,7 +11011,7 @@
       <c r="G88" t="s">
         <v>256</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>187</v>
       </c>
     </row>
@@ -9771,7 +11019,7 @@
       <c r="G89" t="s">
         <v>288</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>200</v>
       </c>
     </row>
@@ -9779,7 +11027,7 @@
       <c r="G90" t="s">
         <v>294</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9787,7 +11035,7 @@
       <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>188</v>
       </c>
     </row>
@@ -9795,7 +11043,7 @@
       <c r="G92" t="s">
         <v>323</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>428</v>
       </c>
     </row>
@@ -9803,7 +11051,7 @@
       <c r="G93" t="s">
         <v>260</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>429</v>
       </c>
     </row>
@@ -9811,172 +11059,172 @@
       <c r="G94" t="s">
         <v>261</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -51,7 +51,7 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6658" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7721" uniqueCount="550">
   <si>
     <t>description</t>
   </si>
@@ -1706,6 +1706,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1725,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="203" x14ac:knownFonts="1">
+  <fonts count="235" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3002,8 +3014,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="340">
+  <fills count="400">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4926,8 +5140,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8349,6 +8903,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8356,7 +9474,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="260">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9009,52 +10127,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="312" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="312" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="315" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="315" fontId="189" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="318" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="318" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="321" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="321" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="327" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="327" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="330" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="330" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="333" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="333" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="333" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="333" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="321" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="336" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="321" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="342" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="345" fontId="205" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="348" fontId="206" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="351" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="209" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="357" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="360" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="363" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="363" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="372" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="375" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="378" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="381" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="384" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="387" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="390" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="393" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="393" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="399" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9775,7 +10989,7 @@
         <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="Q5" t="s">
         <v>24</v>
@@ -9843,7 +11057,7 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="Q6" t="s">
         <v>25</v>
@@ -9902,7 +11116,7 @@
         <v>298</v>
       </c>
       <c r="N7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
@@ -9960,6 +11174,9 @@
       <c r="M8" t="s">
         <v>28</v>
       </c>
+      <c r="N8" t="s">
+        <v>543</v>
+      </c>
       <c r="Q8" t="s">
         <v>417</v>
       </c>
@@ -10013,6 +11230,9 @@
       <c r="M9" t="s">
         <v>29</v>
       </c>
+      <c r="N9" t="s">
+        <v>544</v>
+      </c>
       <c r="Q9" t="s">
         <v>418</v>
       </c>
@@ -10054,6 +11274,9 @@
       <c r="M10" t="s">
         <v>30</v>
       </c>
+      <c r="N10" t="s">
+        <v>545</v>
+      </c>
       <c r="Q10" t="s">
         <v>419</v>
       </c>
@@ -10442,7 +11665,7 @@
         <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>76</v>
+        <v>549</v>
       </c>
       <c r="Y25" t="s">
         <v>97</v>
@@ -10459,7 +11682,7 @@
         <v>265</v>
       </c>
       <c r="K26" t="s">
-        <v>434</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s">
         <v>98</v>
@@ -10476,7 +11699,7 @@
         <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>38</v>
+        <v>434</v>
       </c>
       <c r="Y27" t="s">
         <v>99</v>
@@ -10493,7 +11716,7 @@
         <v>266</v>
       </c>
       <c r="K28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s">
         <v>310</v>
@@ -10508,6 +11731,9 @@
       </c>
       <c r="G29" t="s">
         <v>267</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
       </c>
       <c r="Y29" t="s">
         <v>100</v>

--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -50,8 +50,8 @@
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7721" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8256" uniqueCount="554">
   <si>
     <t>description</t>
   </si>
@@ -1718,6 +1718,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1737,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="235" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3216,8 +3228,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="400">
+  <fills count="430">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5480,8 +5593,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -9467,6 +9750,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9474,7 +10039,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="276">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10223,52 +10788,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="372" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="372" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="375" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="375" fontId="221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="378" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="378" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="381" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="381" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="384" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="384" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="387" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="387" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="390" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="390" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="393" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="393" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="393" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="393" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="399" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="402" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="405" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="408" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="411" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="414" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="417" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="420" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="423" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="423" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="426" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10799,7 +11412,7 @@
         <v>490</v>
       </c>
       <c r="D3" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="E3" t="s">
         <v>485</v>
@@ -10882,7 +11495,7 @@
         <v>357</v>
       </c>
       <c r="D4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -10965,7 +11578,7 @@
         <v>358</v>
       </c>
       <c r="D5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E5" t="s">
         <v>486</v>
@@ -10989,7 +11602,7 @@
         <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="Q5" t="s">
         <v>24</v>
@@ -11035,6 +11648,9 @@
       <c r="B6" t="s">
         <v>359</v>
       </c>
+      <c r="D6" t="s">
+        <v>517</v>
+      </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
@@ -11057,7 +11673,7 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q6" t="s">
         <v>25</v>
@@ -11116,7 +11732,7 @@
         <v>298</v>
       </c>
       <c r="N7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
@@ -11175,7 +11791,7 @@
         <v>28</v>
       </c>
       <c r="N8" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="Q8" t="s">
         <v>417</v>
@@ -11231,7 +11847,7 @@
         <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="Q9" t="s">
         <v>418</v>
@@ -11275,7 +11891,7 @@
         <v>30</v>
       </c>
       <c r="N10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="Q10" t="s">
         <v>419</v>
@@ -11315,6 +11931,9 @@
       <c r="M11" t="s">
         <v>502</v>
       </c>
+      <c r="N11" t="s">
+        <v>544</v>
+      </c>
       <c r="Q11" t="s">
         <v>420</v>
       </c>
@@ -11350,6 +11969,9 @@
       <c r="M12" t="s">
         <v>435</v>
       </c>
+      <c r="N12" t="s">
+        <v>545</v>
+      </c>
       <c r="Q12" t="s">
         <v>421</v>
       </c>
@@ -11665,7 +12287,7 @@
         <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Y25" t="s">
         <v>97</v>

--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -19,17 +19,17 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -43,12 +43,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8256" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8813" uniqueCount="577">
   <si>
     <t>description</t>
   </si>
@@ -1730,6 +1730,75 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1806,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="267" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3329,8 +3398,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="430">
+  <fills count="457">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5763,8 +5933,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="455">
     <border>
       <left/>
       <right/>
@@ -10032,6 +10355,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10039,7 +10688,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="292">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10836,52 +11485,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="402" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="402" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="405" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="405" fontId="237" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="408" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="408" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="411" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="411" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="414" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="414" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="417" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="417" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="420" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="420" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="423" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="423" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="423" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="423" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="426" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="426" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="432" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="435" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="438" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="441" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="447" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="438" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="450" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="450" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11206,7 +11903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11587,10 +12284,13 @@
         <v>433</v>
       </c>
       <c r="G5" t="s">
-        <v>319</v>
+        <v>555</v>
       </c>
       <c r="H5" t="s">
         <v>458</v>
+      </c>
+      <c r="I5" t="s">
+        <v>560</v>
       </c>
       <c r="J5" t="s">
         <v>334</v>
@@ -11658,7 +12358,7 @@
         <v>530</v>
       </c>
       <c r="G6" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="H6" t="s">
         <v>452</v>
@@ -11720,11 +12420,14 @@
         <v>207</v>
       </c>
       <c r="G7" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="H7" t="s">
         <v>448</v>
       </c>
+      <c r="J7" t="s">
+        <v>561</v>
+      </c>
       <c r="K7" t="s">
         <v>10</v>
       </c>
@@ -11765,7 +12468,7 @@
         <v>410</v>
       </c>
       <c r="AD7" t="s">
-        <v>215</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8">
@@ -11779,7 +12482,7 @@
         <v>301</v>
       </c>
       <c r="G8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H8" t="s">
         <v>311</v>
@@ -11821,7 +12524,7 @@
         <v>411</v>
       </c>
       <c r="AD8" t="s">
-        <v>216</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9">
@@ -11835,7 +12538,7 @@
         <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="H9" t="s">
         <v>312</v>
@@ -11868,7 +12571,7 @@
         <v>174</v>
       </c>
       <c r="AD9" t="s">
-        <v>217</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10">
@@ -11879,7 +12582,7 @@
         <v>298</v>
       </c>
       <c r="G10" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="H10" t="s">
         <v>453</v>
@@ -11909,7 +12612,7 @@
         <v>175</v>
       </c>
       <c r="AD10" t="s">
-        <v>511</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11">
@@ -11920,7 +12623,7 @@
         <v>238</v>
       </c>
       <c r="G11" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="H11" t="s">
         <v>305</v>
@@ -11947,7 +12650,7 @@
         <v>242</v>
       </c>
       <c r="AD11" t="s">
-        <v>519</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12">
@@ -11958,7 +12661,7 @@
         <v>302</v>
       </c>
       <c r="G12" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="H12" t="s">
         <v>306</v>
@@ -11967,7 +12670,7 @@
         <v>373</v>
       </c>
       <c r="M12" t="s">
-        <v>435</v>
+        <v>562</v>
       </c>
       <c r="N12" t="s">
         <v>545</v>
@@ -11985,7 +12688,7 @@
         <v>176</v>
       </c>
       <c r="AD12" t="s">
-        <v>520</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13">
@@ -11996,7 +12699,7 @@
         <v>324</v>
       </c>
       <c r="G13" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="H13" t="s">
         <v>307</v>
@@ -12005,7 +12708,7 @@
         <v>11</v>
       </c>
       <c r="M13" t="s">
-        <v>503</v>
+        <v>435</v>
       </c>
       <c r="Q13" t="s">
         <v>422</v>
@@ -12020,7 +12723,7 @@
         <v>177</v>
       </c>
       <c r="AD13" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14">
@@ -12031,7 +12734,7 @@
         <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="H14" t="s">
         <v>308</v>
@@ -12040,7 +12743,7 @@
         <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>33</v>
+        <v>503</v>
       </c>
       <c r="Q14" t="s">
         <v>423</v>
@@ -12055,7 +12758,7 @@
         <v>178</v>
       </c>
       <c r="AD14" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15">
@@ -12066,13 +12769,13 @@
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K15" t="s">
         <v>535</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q15" t="s">
         <v>527</v>
@@ -12087,7 +12790,7 @@
         <v>179</v>
       </c>
       <c r="AD15" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16">
@@ -12098,13 +12801,13 @@
         <v>368</v>
       </c>
       <c r="G16" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="K16" t="s">
         <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>36</v>
+        <v>563</v>
       </c>
       <c r="Q16" t="s">
         <v>528</v>
@@ -12119,7 +12822,7 @@
         <v>180</v>
       </c>
       <c r="AD16" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17">
@@ -12130,11 +12833,14 @@
         <v>369</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K17" t="s">
         <v>73</v>
       </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
       <c r="Y17" t="s">
         <v>529</v>
       </c>
@@ -12142,7 +12848,7 @@
         <v>493</v>
       </c>
       <c r="AD17" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18">
@@ -12153,16 +12859,19 @@
         <v>398</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
         <v>459</v>
       </c>
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
       <c r="Y18" t="s">
         <v>90</v>
       </c>
       <c r="AD18" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19">
@@ -12173,7 +12882,7 @@
         <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s">
         <v>74</v>
@@ -12182,7 +12891,7 @@
         <v>91</v>
       </c>
       <c r="AD19" t="s">
-        <v>218</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20">
@@ -12193,7 +12902,7 @@
         <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K20" t="s">
         <v>75</v>
@@ -12202,7 +12911,7 @@
         <v>92</v>
       </c>
       <c r="AD20" t="s">
-        <v>219</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21">
@@ -12213,7 +12922,7 @@
         <v>239</v>
       </c>
       <c r="G21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K21" t="s">
         <v>363</v>
@@ -12222,7 +12931,7 @@
         <v>93</v>
       </c>
       <c r="AD21" t="s">
-        <v>220</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22">
@@ -12230,16 +12939,19 @@
         <v>396</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>554</v>
       </c>
       <c r="G22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K22" t="s">
         <v>498</v>
       </c>
       <c r="Y22" t="s">
         <v>507</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="23">
@@ -12247,16 +12959,19 @@
         <v>340</v>
       </c>
       <c r="E23" t="s">
-        <v>304</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="K23" t="s">
         <v>37</v>
       </c>
       <c r="Y23" t="s">
         <v>95</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="24">
@@ -12264,16 +12979,19 @@
         <v>380</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c r="G24" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="K24" t="s">
         <v>375</v>
       </c>
       <c r="Y24" t="s">
-        <v>96</v>
+        <v>564</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="25">
@@ -12281,16 +12999,19 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>449</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="K25" t="s">
         <v>551</v>
       </c>
       <c r="Y25" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="26">
@@ -12298,16 +13019,19 @@
         <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>208</v>
+        <v>449</v>
       </c>
       <c r="G26" t="s">
-        <v>265</v>
+        <v>67</v>
       </c>
       <c r="K26" t="s">
         <v>76</v>
       </c>
       <c r="Y26" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="27">
@@ -12315,16 +13039,19 @@
         <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G27" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="K27" t="s">
         <v>434</v>
       </c>
       <c r="Y27" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="28">
@@ -12332,16 +13059,16 @@
         <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>495</v>
+        <v>209</v>
       </c>
       <c r="G28" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s">
         <v>38</v>
       </c>
       <c r="Y28" t="s">
-        <v>310</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -12349,16 +13076,16 @@
         <v>397</v>
       </c>
       <c r="E29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s">
         <v>39</v>
       </c>
       <c r="Y29" t="s">
-        <v>100</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30">
@@ -12366,713 +13093,763 @@
         <v>210</v>
       </c>
       <c r="E30" t="s">
-        <v>399</v>
+        <v>496</v>
       </c>
       <c r="G30" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="Y30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="G31" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="Y31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="Y32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>531</v>
+        <v>268</v>
       </c>
       <c r="Y33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>243</v>
+        <v>531</v>
       </c>
       <c r="Y34" t="s">
-        <v>105</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="Y35" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G36" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="Y36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="Y37" t="s">
-        <v>321</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
         <v>62</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>291</v>
       </c>
-      <c r="Y38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="G39" t="s">
-        <v>250</v>
-      </c>
       <c r="Y39" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="Y40" t="s">
-        <v>107</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="Y41" t="s">
-        <v>108</v>
+        <v>566</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="Y42" t="s">
-        <v>109</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>283</v>
+        <v>556</v>
       </c>
       <c r="Y43" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="Y44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="Y45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="Y46" t="s">
-        <v>431</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>196</v>
+        <v>326</v>
       </c>
       <c r="Y47" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="Y48" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>322</v>
+        <v>196</v>
       </c>
       <c r="Y49" t="s">
-        <v>113</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="Y50" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="Y51" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="Y52" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="Y53" t="s">
-        <v>492</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>251</v>
+        <v>339</v>
       </c>
       <c r="Y54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="Y55" t="s">
-        <v>329</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="Y56" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y57" t="s">
-        <v>117</v>
+        <v>492</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="Y58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>295</v>
+        <v>557</v>
       </c>
       <c r="Y59" t="s">
-        <v>119</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="Y60" t="s">
-        <v>120</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Y61" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Y62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="Y63" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>353</v>
+        <v>292</v>
       </c>
       <c r="Y64" t="s">
-        <v>430</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="Y65" t="s">
-        <v>509</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="Y66" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>252</v>
+        <v>353</v>
       </c>
       <c r="Y67" t="s">
-        <v>372</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="Y68" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y69" t="s">
-        <v>124</v>
+        <v>509</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>393</v>
+        <v>252</v>
       </c>
       <c r="Y70" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>287</v>
+        <v>558</v>
       </c>
       <c r="Y71" t="s">
-        <v>126</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>394</v>
+        <v>297</v>
       </c>
       <c r="Y72" t="s">
-        <v>127</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>245</v>
+        <v>393</v>
       </c>
       <c r="Y73" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>532</v>
+        <v>287</v>
       </c>
       <c r="Y74" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="Y75" t="s">
-        <v>457</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="Y76" t="s">
-        <v>497</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>269</v>
+        <v>532</v>
       </c>
       <c r="Y77" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="Y78" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>412</v>
+        <v>263</v>
       </c>
       <c r="Y79" t="s">
-        <v>130</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="Y80" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="Y81" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>264</v>
+        <v>412</v>
       </c>
       <c r="Y82" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="Y83" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Y84" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Y85" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y86" t="s">
-        <v>454</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Y87" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>256</v>
+        <v>559</v>
       </c>
       <c r="Y88" t="s">
-        <v>187</v>
+        <v>510</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="Y89" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="Y90" t="s">
-        <v>133</v>
+        <v>454</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="Y91" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>323</v>
+        <v>256</v>
       </c>
       <c r="Y92" t="s">
-        <v>428</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="Y93" t="s">
-        <v>429</v>
+        <v>568</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>261</v>
       </c>
-      <c r="Y94" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="Y96" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="Y97" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>206</v>
+        <v>428</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>193</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>536</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>537</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>538</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>366</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>136</v>
+        <v>536</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>137</v>
+        <v>537</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>139</v>
+        <v>538</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>432</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>152</v>
+        <v>432</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>154</v>
+        <v>570</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -19,39 +19,40 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8813" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9938" uniqueCount="588">
   <si>
     <t>description</t>
   </si>
@@ -1799,6 +1800,39 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1840,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="267" x14ac:knownFonts="1">
+  <fonts count="299" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3499,8 +3533,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="457">
+  <fills count="511">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6086,8 +6322,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="455">
+  <borders count="519">
     <border>
       <left/>
       <right/>
@@ -10681,6 +11223,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10688,7 +11882,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="324">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11533,52 +12727,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="432" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="432" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="435" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="435" fontId="253" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="438" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="438" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="441" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="441" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="444" fontId="257" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="447" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="447" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="438" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="438" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="450" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="454" fillId="450" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="450" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="454" fillId="450" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="453" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="456" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="459" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="462" fontId="269" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="465" fontId="270" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="468" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="273" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="474" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="465" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="477" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="477" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="468" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="480" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="468" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="486" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="489" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="492" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="495" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="501" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="504" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="504" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="507" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="510" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11903,7 +13193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11928,81 +13218,84 @@
         <v>513</v>
       </c>
       <c r="E1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>330</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>316</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>539</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>499</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>222</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>379</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>395</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>396</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>340</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>380</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>397</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -12020,81 +13313,84 @@
         <v>514</v>
       </c>
       <c r="E2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>450</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>494</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>298</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>367</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>416</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>540</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>504</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>400</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>413</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>236</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>202</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>381</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>402</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>403</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>364</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>390</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>156</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>161</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>168</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>415</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12111,76 +13407,76 @@
       <c r="D3" t="s">
         <v>550</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>485</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>348</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>79</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>500</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>332</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>324</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>317</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>77</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>541</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>505</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>414</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>223</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>203</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>382</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>404</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>365</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>391</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>83</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>157</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>162</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>347</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>169</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>211</v>
       </c>
     </row>
@@ -12194,82 +13490,82 @@
       <c r="D4" t="s">
         <v>515</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>370</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>451</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>501</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>333</v>
       </c>
-      <c r="K4" t="s">
-        <v>221</v>
-      </c>
       <c r="L4" t="s">
+        <v>586</v>
+      </c>
+      <c r="M4" t="s">
         <v>318</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>542</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>506</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>20</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>224</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>204</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>383</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>405</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>341</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>392</v>
       </c>
-      <c r="Y4" t="s">
-        <v>337</v>
-      </c>
       <c r="Z4" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA4" t="s">
         <v>158</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>163</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>407</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>577</v>
       </c>
       <c r="B5" t="s">
         <v>358</v>
@@ -12277,73 +13573,73 @@
       <c r="D5" t="s">
         <v>516</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>486</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>433</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>555</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>458</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>560</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>334</v>
       </c>
-      <c r="K5" t="s">
-        <v>491</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>552</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>24</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>225</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>205</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>384</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>406</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>342</v>
       </c>
-      <c r="Y5" t="s">
-        <v>338</v>
-      </c>
       <c r="Z5" t="s">
+        <v>582</v>
+      </c>
+      <c r="AA5" t="s">
         <v>159</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>164</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>408</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>359</v>
@@ -12351,1505 +13647,1519 @@
       <c r="D6" t="s">
         <v>517</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>530</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>319</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>452</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>331</v>
       </c>
-      <c r="K6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
+        <v>491</v>
+      </c>
+      <c r="N6" t="s">
         <v>23</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>546</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>25</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>226</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>374</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>385</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>344</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>84</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>437</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>165</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>171</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>409</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>360</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>207</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>371</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>448</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>561</v>
       </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
         <v>298</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>547</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>27</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>227</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>401</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>386</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>343</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>85</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>438</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>166</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>172</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>410</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>361</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>301</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>349</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>311</v>
       </c>
-      <c r="K8" t="s">
-        <v>533</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
         <v>28</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>548</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>417</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>228</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>387</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>345</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>86</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>160</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>167</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>173</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>411</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>362</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>350</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>312</v>
       </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
+        <v>533</v>
+      </c>
+      <c r="N9" t="s">
         <v>29</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>553</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>418</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>229</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>388</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>346</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>194</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>174</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>298</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>289</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>453</v>
       </c>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" t="s">
         <v>30</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>543</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>419</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>230</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>389</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>240</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>175</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" t="s">
+        <v>579</v>
+      </c>
+      <c r="H11" t="s">
         <v>335</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>305</v>
       </c>
-      <c r="K11" t="s">
-        <v>534</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
         <v>502</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>544</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>420</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>231</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>241</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>242</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>302</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>257</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>306</v>
       </c>
-      <c r="K12" t="s">
-        <v>373</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
+        <v>534</v>
+      </c>
+      <c r="N12" t="s">
         <v>562</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>545</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>421</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>232</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>87</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>176</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F13" t="s">
         <v>324</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>246</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>307</v>
       </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="L13" t="s">
+        <v>373</v>
+      </c>
+      <c r="N13" t="s">
         <v>435</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>422</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>237</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>309</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>177</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>539</v>
-      </c>
-      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>299</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>308</v>
       </c>
-      <c r="K14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" t="s">
         <v>503</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>423</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>233</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>88</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>178</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>499</v>
-      </c>
-      <c r="E15" t="s">
+        <v>539</v>
+      </c>
+      <c r="F15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>247</v>
       </c>
-      <c r="K15" t="s">
-        <v>535</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>527</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>234</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>89</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>179</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" t="s">
+        <v>499</v>
+      </c>
+      <c r="F16" t="s">
         <v>368</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>248</v>
       </c>
-      <c r="K16" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="L16" t="s">
+        <v>535</v>
+      </c>
+      <c r="N16" t="s">
         <v>563</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>528</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>235</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>66</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>180</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" t="s">
         <v>369</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>300</v>
       </c>
-      <c r="K17" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" t="s">
         <v>34</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>529</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>493</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
         <v>398</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>80</v>
       </c>
-      <c r="K18" t="s">
-        <v>459</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" t="s">
         <v>36</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>90</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" t="s">
+        <v>585</v>
+      </c>
+      <c r="H19" t="s">
         <v>81</v>
       </c>
-      <c r="K19" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="L19" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z19" t="s">
         <v>91</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>379</v>
-      </c>
-      <c r="E20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
         <v>279</v>
       </c>
-      <c r="K20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="L20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z20" t="s">
         <v>92</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>395</v>
-      </c>
-      <c r="E21" t="s">
-        <v>239</v>
-      </c>
-      <c r="G21" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
         <v>280</v>
       </c>
-      <c r="K21" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="L21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s">
         <v>93</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>396</v>
-      </c>
-      <c r="E22" t="s">
-        <v>554</v>
-      </c>
-      <c r="G22" t="s">
+        <v>395</v>
+      </c>
+      <c r="F22" t="s">
+        <v>239</v>
+      </c>
+      <c r="H22" t="s">
         <v>281</v>
       </c>
-      <c r="K22" t="s">
-        <v>498</v>
-      </c>
-      <c r="Y22" t="s">
+      <c r="L22" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z22" t="s">
         <v>507</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>340</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" t="s">
+        <v>396</v>
+      </c>
+      <c r="F23" t="s">
+        <v>554</v>
+      </c>
+      <c r="H23" t="s">
         <v>282</v>
       </c>
-      <c r="K23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="L23" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z23" t="s">
         <v>95</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>380</v>
-      </c>
-      <c r="E24" t="s">
-        <v>304</v>
-      </c>
-      <c r="G24" t="s">
+        <v>340</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
         <v>273</v>
       </c>
-      <c r="K24" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z24" t="s">
         <v>564</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" t="s">
+        <v>380</v>
+      </c>
+      <c r="F25" t="s">
+        <v>304</v>
+      </c>
+      <c r="H25" t="s">
         <v>262</v>
       </c>
-      <c r="K25" t="s">
-        <v>551</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="L25" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z25" t="s">
         <v>96</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>449</v>
-      </c>
-      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
         <v>67</v>
       </c>
-      <c r="K26" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y26" t="s">
+      <c r="L26" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z26" t="s">
         <v>97</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
-        <v>208</v>
-      </c>
-      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>449</v>
+      </c>
+      <c r="H27" t="s">
         <v>265</v>
       </c>
-      <c r="K27" t="s">
-        <v>434</v>
-      </c>
-      <c r="Y27" t="s">
+      <c r="L27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z27" t="s">
         <v>98</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
-        <v>209</v>
-      </c>
-      <c r="G28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" t="s">
         <v>249</v>
       </c>
-      <c r="K28" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y28" t="s">
+      <c r="L28" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z28" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>397</v>
-      </c>
-      <c r="E29" t="s">
-        <v>495</v>
-      </c>
-      <c r="G29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" t="s">
         <v>266</v>
       </c>
-      <c r="K29" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y29" t="s">
+      <c r="L29" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z29" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>397</v>
+      </c>
+      <c r="F30" t="s">
+        <v>495</v>
+      </c>
+      <c r="H30" t="s">
+        <v>267</v>
+      </c>
+      <c r="L30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>210</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F31" t="s">
         <v>496</v>
       </c>
-      <c r="G30" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="H31" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="s">
         <v>399</v>
       </c>
-      <c r="G31" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
+      <c r="H32" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="s">
         <v>55</v>
       </c>
-      <c r="G32" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
+      <c r="H33" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="s">
         <v>56</v>
       </c>
-      <c r="G33" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
+      <c r="H34" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
         <v>57</v>
       </c>
-      <c r="G34" t="s">
-        <v>531</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
+      <c r="H35" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="s">
         <v>58</v>
       </c>
-      <c r="G35" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
+      <c r="H36" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="s">
         <v>59</v>
       </c>
-      <c r="G36" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
+      <c r="H37" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="s">
         <v>60</v>
       </c>
-      <c r="G37" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
+      <c r="H38" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="s">
         <v>61</v>
       </c>
-      <c r="G38" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
+      <c r="H39" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="s">
         <v>62</v>
       </c>
-      <c r="G39" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>250</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>69</v>
       </c>
-      <c r="Y41" t="s">
-        <v>566</v>
+      <c r="Z41" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>197</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>556</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>272</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>283</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>284</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>326</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>325</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>196</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>303</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>322</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>351</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>285</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>339</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>314</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>251</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>275</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>276</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>557</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>277</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>286</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>295</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>320</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>292</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>293</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>352</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>353</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>328</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>296</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>252</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>558</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>297</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>393</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>287</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>394</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>245</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>532</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>327</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>263</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>269</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>274</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>412</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>315</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>253</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>264</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>270</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>259</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>559</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>254</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>271</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>255</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>256</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>288</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>294</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>278</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>323</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>260</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>261</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -19,13 +19,13 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9938" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11068" uniqueCount="591">
   <si>
     <t>description</t>
   </si>
@@ -1833,6 +1833,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1840,7 +1849,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="299" x14ac:knownFonts="1">
+  <fonts count="331" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3735,8 +3744,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="511">
+  <fills count="565">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6628,8 +6839,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="519">
+  <borders count="583">
     <border>
       <left/>
       <right/>
@@ -11875,6 +12392,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11882,7 +13051,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="324">
+  <cellXfs count="356">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12823,52 +13992,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="486" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="486" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="489" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="489" fontId="285" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="492" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="492" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="495" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="495" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="498" fontId="289" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="501" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="501" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="504" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="504" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="504" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="504" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="495" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="507" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="507" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="495" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="510" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="510" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="513" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="516" fontId="301" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="519" fontId="302" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="522" fontId="303" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="525" fontId="305" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="528" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="519" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="531" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="531" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="534" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="540" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="543" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="546" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="549" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="555" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="546" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13193,7 +14458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13659,6 +14924,9 @@
       <c r="I6" t="s">
         <v>452</v>
       </c>
+      <c r="J6" t="s">
+        <v>588</v>
+      </c>
       <c r="K6" t="s">
         <v>331</v>
       </c>
@@ -14175,7 +15443,7 @@
         <v>222</v>
       </c>
       <c r="F19" t="s">
-        <v>585</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
@@ -14195,7 +15463,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
         <v>279</v>
@@ -14215,7 +15483,7 @@
         <v>379</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="H21" t="s">
         <v>280</v>
@@ -14235,7 +15503,7 @@
         <v>395</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>554</v>
       </c>
       <c r="H22" t="s">
         <v>281</v>
@@ -14255,7 +15523,7 @@
         <v>396</v>
       </c>
       <c r="F23" t="s">
-        <v>554</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
         <v>282</v>
@@ -14275,7 +15543,7 @@
         <v>340</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>304</v>
       </c>
       <c r="H24" t="s">
         <v>273</v>
@@ -14295,7 +15563,7 @@
         <v>380</v>
       </c>
       <c r="F25" t="s">
-        <v>304</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
         <v>262</v>
@@ -14315,7 +15583,7 @@
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>449</v>
       </c>
       <c r="H26" t="s">
         <v>67</v>
@@ -14335,7 +15603,7 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>449</v>
+        <v>208</v>
       </c>
       <c r="H27" t="s">
         <v>265</v>
@@ -14355,7 +15623,7 @@
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H28" t="s">
         <v>249</v>
@@ -14372,7 +15640,7 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>495</v>
       </c>
       <c r="H29" t="s">
         <v>266</v>
@@ -14389,7 +15657,7 @@
         <v>397</v>
       </c>
       <c r="F30" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H30" t="s">
         <v>267</v>
@@ -14406,7 +15674,7 @@
         <v>210</v>
       </c>
       <c r="F31" t="s">
-        <v>496</v>
+        <v>399</v>
       </c>
       <c r="H31" t="s">
         <v>201</v>
@@ -14417,7 +15685,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>399</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
         <v>258</v>
@@ -14428,7 +15696,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
         <v>268</v>
@@ -14439,7 +15707,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
         <v>531</v>
@@ -14450,7 +15718,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H35" t="s">
         <v>243</v>
@@ -14461,7 +15729,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H36" t="s">
         <v>313</v>
@@ -14472,7 +15740,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H37" t="s">
         <v>290</v>
@@ -14483,7 +15751,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H38" t="s">
         <v>244</v>
@@ -14494,7 +15762,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
         <v>291</v>
@@ -14504,9 +15772,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>62</v>
-      </c>
       <c r="H40" t="s">
         <v>250</v>
       </c>
@@ -14980,186 +16245,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>429</v>
+        <v>589</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>189</v>
+        <v>590</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>190</v>
+        <v>429</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>536</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>584</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>134</v>
+        <v>584</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>135</v>
+        <v>538</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>136</v>
+        <v>366</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>432</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>570</v>
+        <v>432</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>150</v>
+        <v>570</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11068" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11633" uniqueCount="591">
   <si>
     <t>description</t>
   </si>
@@ -1849,7 +1849,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="331" x14ac:knownFonts="1">
+  <fonts count="347" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3946,8 +3946,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="565">
+  <fills count="592">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7145,8 +7246,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="583">
+  <borders count="615">
     <border>
       <left/>
       <right/>
@@ -13044,6 +13298,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13051,7 +13631,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="356">
+  <cellXfs count="372">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14088,52 +14668,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="540" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="540" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="543" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="543" fontId="317" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="546" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="546" fontId="318" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="549" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="549" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="321" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="555" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="555" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="546" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="546" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="558" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="558" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="570" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="582" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="573" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="585" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="585" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="588" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/start-02.xlsx
+++ b/artifact/script/start-02.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11633" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12763" uniqueCount="591">
   <si>
     <t>description</t>
   </si>
@@ -1849,7 +1849,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="347" x14ac:knownFonts="1">
+  <fonts count="379" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4047,8 +4047,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="592">
+  <fills count="646">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7399,8 +7601,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="615">
+  <borders count="679">
     <border>
       <left/>
       <right/>
@@ -13624,6 +14132,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13631,7 +14791,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="372">
+  <cellXfs count="404">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14716,52 +15876,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="570" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="570" fontId="333" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="334" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="337" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="582" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="582" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="573" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="573" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="585" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="585" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="585" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="585" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="588" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="588" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="594" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="597" fontId="349" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="600" fontId="350" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="603" fontId="351" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="606" fontId="353" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="609" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="600" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="612" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="612" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="362" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="621" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="624" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="627" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="630" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="636" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="627" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="639" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="639" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="642" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="645" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
